--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3364D-271B-2646-8767-06BB38766656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="11120" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,10 @@
     <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="19" r:id="rId13"/>
     <sheet name="Action Tagging" sheetId="17" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId15"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId15"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="679">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1475,24 +1477,12 @@
     <t>Customer Service Backend Supervisor</t>
   </si>
   <si>
-    <t>020920000011</t>
-  </si>
-  <si>
     <t>Call Drop</t>
   </si>
   <si>
     <t>100920000017</t>
   </si>
   <si>
-    <t>100920000018</t>
-  </si>
-  <si>
-    <t>100920000019</t>
-  </si>
-  <si>
-    <t>100920000020</t>
-  </si>
-  <si>
     <t>NFTR Issue Code</t>
   </si>
   <si>
@@ -1782,9 +1772,6 @@
   </si>
   <si>
     <t>Row10</t>
-  </si>
-  <si>
-    <t>Amount (TZS)</t>
   </si>
   <si>
     <t>Charges (TZS)</t>
@@ -1878,56 +1865,230 @@
 (TZS)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Service Charge
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF747474"/>
-        <rFont val="Tondo-regular"/>
-      </rPr>
-      <t>(TZS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pre balance
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF747474"/>
-        <rFont val="Tondo-regular"/>
-      </rPr>
-      <t>(TZS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Post balance
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF747474"/>
-        <rFont val="Tondo-regular"/>
-      </rPr>
-      <t>(TZS)</t>
-    </r>
-  </si>
-  <si>
-    <t>Benefit Voice|Data|SMS</t>
+    <t>CS Beta User</t>
+  </si>
+  <si>
+    <t>Row11</t>
+  </si>
+  <si>
+    <t>Row12</t>
+  </si>
+  <si>
+    <t>BenefitVoice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Service Details</t>
+  </si>
+  <si>
+    <t>HLR Code Detail</t>
+  </si>
+  <si>
+    <t>Service Charge
+(TZS)</t>
+  </si>
+  <si>
+    <t>Pre balance
+(TZS)</t>
+  </si>
+  <si>
+    <t>Post balance
+(TZS)</t>
+  </si>
+  <si>
+    <t>Action Trail Tab</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Agent Id</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Test Data-UAT</t>
+  </si>
+  <si>
+    <t>Test Data-Prod</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>Voucher Id</t>
+  </si>
+  <si>
+    <t>106222035384</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2026,11 +2187,6 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF747474"/>
-      <name val="Tondo-regular"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2170,7 +2326,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -2253,13 +2409,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2294,7 +2465,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,6 +2476,246 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
           <a:ext cx="304800" cy="301625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2589,23 +3000,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2652,44 +3063,44 @@
         <v>14</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17">
       <c r="A2" s="39">
         <v>2388008</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C2" t="s">
         <v>463</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>601</v>
-      </c>
-      <c r="O2" t="s">
-        <v>467</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q2" s="54" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>607</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q2" s="56" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="39">
         <v>2394650</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C3" t="s">
         <v>464</v>
@@ -2697,33 +3108,37 @@
       <c r="D3">
         <v>787298698</v>
       </c>
-      <c r="P3">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="17">
       <c r="A4" s="39">
         <v>2390932</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C4" t="s">
         <v>465</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>600</v>
-      </c>
-      <c r="P4" s="54" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q4" s="39"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="39">
         <v>2388008</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
         <v>466</v>
@@ -2731,9 +3146,11 @@
       <c r="D5">
         <v>787298698</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q5" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2742,21 +3159,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -2767,7 +3184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -2776,7 +3193,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -2785,7 +3202,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -2794,7 +3211,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -2803,7 +3220,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -2820,20 +3237,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="45" t="s">
         <v>468</v>
       </c>
@@ -2841,7 +3258,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>470</v>
       </c>
@@ -2849,7 +3266,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>472</v>
       </c>
@@ -2857,7 +3274,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>474</v>
       </c>
@@ -2865,17 +3282,17 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>477</v>
       </c>
@@ -2886,38 +3303,38 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -2926,99 +3343,98 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="49" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="49" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" style="49" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" style="49" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="49" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" style="49" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1640625" style="49" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" style="49" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5" style="49" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12" style="49" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="49" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.5703125" style="49" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" style="49" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="J1" s="49" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="153">
+      <c r="A2" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="B2" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>524</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>529</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>530</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>531</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>532</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -3027,55 +3443,248 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="9.1640625" style="1" collapsed="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="59" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>499</v>
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="J3" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="58" t="s">
+        <v>634</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3085,60 +3694,240 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB8C2B9-7B1C-D640-9176-FC4080428CDE}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="41" style="63" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="62" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="62" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>641</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51">
+      <c r="A3" s="62" t="s">
+        <v>643</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="62" t="s">
+        <v>646</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>647</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="62" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34">
+      <c r="A6" s="62" t="s">
+        <v>652</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>653</v>
+      </c>
+      <c r="C6" s="64"/>
+    </row>
+    <row r="7" spans="1:3" ht="34">
+      <c r="A7" s="62" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34">
+      <c r="A8" s="62" t="s">
+        <v>657</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51">
+      <c r="A9" s="62" t="s">
+        <v>660</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="51">
+      <c r="A10" s="62" t="s">
+        <v>663</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51">
+      <c r="A11" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34">
+      <c r="A12" s="62" t="s">
+        <v>669</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="62" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="1:3" ht="34">
+      <c r="A14" s="62" t="s">
+        <v>674</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="C14" s="64"/>
+    </row>
+    <row r="15" spans="1:3" ht="34">
+      <c r="A15" s="62" t="s">
+        <v>676</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>677</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="47" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="47" collapsed="1"/>
+    <col min="2" max="2" width="9.1640625" style="47" collapsed="1"/>
+    <col min="3" max="3" width="15.83203125" style="47" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.1640625" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="47" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="H1" s="46" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="15" t="s">
         <v>507</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>508</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>511</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>57</v>
@@ -3157,9 +3946,9 @@
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="15" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>57</v>
@@ -3178,9 +3967,9 @@
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="15" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>57</v>
@@ -3206,49 +3995,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
         <v>238</v>
       </c>
@@ -3259,29 +4048,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
@@ -3309,19 +4098,25 @@
       <c r="I1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>608</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>581</v>
+      <c r="B2" s="53" t="s">
+        <v>405</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>432</v>
@@ -3340,8 +4135,10 @@
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="39" t="s">
         <v>436</v>
       </c>
@@ -3358,20 +4155,22 @@
         <v>439</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="39" t="s">
         <v>440</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>438</v>
@@ -3380,7 +4179,7 @@
         <v>441</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>435</v>
@@ -3390,8 +4189,10 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="39" t="s">
         <v>442</v>
       </c>
@@ -3417,12 +4218,14 @@
         <v>447</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="39" t="s">
         <v>448</v>
       </c>
@@ -3444,8 +4247,10 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="39" t="s">
         <v>450</v>
       </c>
@@ -3467,8 +4272,10 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="39" t="s">
         <v>452</v>
       </c>
@@ -3492,8 +4299,10 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="39" t="s">
         <v>455</v>
       </c>
@@ -3517,101 +4326,109 @@
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="52" t="s">
+        <v>539</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>543</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>584</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>545</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>546</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>547</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>549</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>550</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>552</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>553</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>556</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>557</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>558</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>561</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="39" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>402</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -3619,13 +4436,15 @@
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="52" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>438</v>
@@ -3634,30 +4453,32 @@
         <v>441</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>435</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>460</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K14" s="52" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="52" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>26</v>
@@ -3669,13 +4490,13 @@
         <v>439</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>441</v>
@@ -3683,22 +4504,24 @@
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="52" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -3706,22 +4529,24 @@
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="52" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -3729,22 +4554,28 @@
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="52" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+        <v>599</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>486</v>
+      </c>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
@@ -3753,46 +4584,75 @@
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="52" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>433</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H19" s="52" t="s">
         <v>434</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K19" s="55" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L19" s="52" t="s">
         <v>435</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>610</v>
-      </c>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="52" t="s">
+        <v>616</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>618</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>619</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>621</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3802,16 +4662,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AL1" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -3882,10 +4742,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Y1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -3897,25 +4757,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>538</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>542</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -3927,7 +4787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="16">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -3993,7 +4853,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="16">
       <c r="A3" s="13" t="s">
         <v>239</v>
       </c>
@@ -4053,7 +4913,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16">
       <c r="A4" s="13" t="s">
         <v>239</v>
       </c>
@@ -4131,7 +4991,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16">
       <c r="A5" s="13" t="s">
         <v>239</v>
       </c>
@@ -4209,7 +5069,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="16">
       <c r="A6" s="13" t="s">
         <v>239</v>
       </c>
@@ -4279,7 +5139,7 @@
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31"/>
     </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="16">
       <c r="A7" s="13" t="s">
         <v>239</v>
       </c>
@@ -4357,7 +5217,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="16">
       <c r="A8" s="13" t="s">
         <v>239</v>
       </c>
@@ -4423,7 +5283,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="16">
       <c r="A9" s="13" t="s">
         <v>239</v>
       </c>
@@ -4483,7 +5343,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="16">
       <c r="A10" s="13" t="s">
         <v>239</v>
       </c>
@@ -4531,7 +5391,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="16">
       <c r="A11" s="13" t="s">
         <v>239</v>
       </c>
@@ -4579,7 +5439,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="16">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -4651,7 +5511,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16">
       <c r="A13" s="13" t="s">
         <v>239</v>
       </c>
@@ -4717,7 +5577,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16">
       <c r="A14" s="13" t="s">
         <v>239</v>
       </c>
@@ -4789,7 +5649,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16">
       <c r="A15" s="13" t="s">
         <v>239</v>
       </c>
@@ -4861,7 +5721,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="16">
       <c r="A16" s="13" t="s">
         <v>239</v>
       </c>
@@ -4927,7 +5787,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="16">
       <c r="A17" s="13" t="s">
         <v>239</v>
       </c>
@@ -4993,7 +5853,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="16">
       <c r="A18" s="13" t="s">
         <v>239</v>
       </c>
@@ -5071,7 +5931,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="16">
       <c r="A19" s="13" t="s">
         <v>239</v>
       </c>
@@ -5149,7 +6009,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="16">
       <c r="A20" s="13" t="s">
         <v>239</v>
       </c>
@@ -5215,7 +6075,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="16">
       <c r="A21" s="13" t="s">
         <v>239</v>
       </c>
@@ -5281,7 +6141,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="16">
       <c r="A22" s="13" t="s">
         <v>239</v>
       </c>
@@ -5347,7 +6207,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="16">
       <c r="A23" s="13" t="s">
         <v>286</v>
       </c>
@@ -5395,7 +6255,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="16">
       <c r="A24" s="13" t="s">
         <v>286</v>
       </c>
@@ -5443,7 +6303,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="16">
       <c r="A25" s="13" t="s">
         <v>286</v>
       </c>
@@ -5491,7 +6351,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="16">
       <c r="A26" s="13" t="s">
         <v>239</v>
       </c>
@@ -5551,7 +6411,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="16">
       <c r="A27" s="13" t="s">
         <v>295</v>
       </c>
@@ -5617,7 +6477,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="16">
       <c r="A28" s="13" t="s">
         <v>239</v>
       </c>
@@ -5683,7 +6543,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="16">
       <c r="A29" s="13" t="s">
         <v>239</v>
       </c>
@@ -5749,7 +6609,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="16">
       <c r="A30" s="37" t="s">
         <v>295</v>
       </c>
@@ -5789,7 +6649,7 @@
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="16">
       <c r="A31" s="13" t="s">
         <v>239</v>
       </c>
@@ -5829,7 +6689,7 @@
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="16">
       <c r="A32" s="13" t="s">
         <v>307</v>
       </c>
@@ -5873,7 +6733,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="16">
       <c r="A33" s="25" t="s">
         <v>307</v>
       </c>
@@ -5917,7 +6777,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="16">
       <c r="A34" s="25" t="s">
         <v>307</v>
       </c>
@@ -5961,7 +6821,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="16">
       <c r="A35" s="25" t="s">
         <v>307</v>
       </c>
@@ -6005,7 +6865,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="16">
       <c r="A36" s="25" t="s">
         <v>307</v>
       </c>
@@ -6049,7 +6909,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="16">
       <c r="A37" s="41" t="s">
         <v>307</v>
       </c>
@@ -6089,7 +6949,7 @@
       <c r="AJ37" s="39"/>
       <c r="AK37" s="39"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="41" t="s">
         <v>307</v>
       </c>
@@ -6129,7 +6989,7 @@
       <c r="AJ38" s="39"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="16">
       <c r="A39" s="13" t="s">
         <v>307</v>
       </c>
@@ -6169,7 +7029,7 @@
       <c r="AJ39" s="39"/>
       <c r="AK39" s="39"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="16">
       <c r="A40" s="13" t="s">
         <v>307</v>
       </c>
@@ -6221,7 +7081,7 @@
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="16">
       <c r="A41" s="13" t="s">
         <v>295</v>
       </c>
@@ -6293,7 +7153,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="16">
       <c r="A42" s="13" t="s">
         <v>295</v>
       </c>
@@ -6359,7 +7219,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="16">
       <c r="A43" s="13" t="s">
         <v>295</v>
       </c>
@@ -6425,7 +7285,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="16">
       <c r="A44" s="13" t="s">
         <v>295</v>
       </c>
@@ -6497,7 +7357,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="16">
       <c r="A45" s="13" t="s">
         <v>295</v>
       </c>
@@ -6569,7 +7429,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="16">
       <c r="A46" s="13" t="s">
         <v>295</v>
       </c>
@@ -6641,7 +7501,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="16">
       <c r="A47" s="13" t="s">
         <v>295</v>
       </c>
@@ -6713,7 +7573,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="16">
       <c r="A48" s="13" t="s">
         <v>295</v>
       </c>
@@ -6761,7 +7621,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="16">
       <c r="A49" s="13" t="s">
         <v>295</v>
       </c>
@@ -6809,7 +7669,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="16">
       <c r="A50" s="13" t="s">
         <v>295</v>
       </c>
@@ -6857,7 +7717,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="16">
       <c r="A51" s="13" t="s">
         <v>295</v>
       </c>
@@ -6901,7 +7761,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="16">
       <c r="A52" s="13" t="s">
         <v>295</v>
       </c>
@@ -6945,7 +7805,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="16">
       <c r="A53" s="13" t="s">
         <v>295</v>
       </c>
@@ -6989,7 +7849,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="16">
       <c r="A54" s="13" t="s">
         <v>295</v>
       </c>
@@ -7033,7 +7893,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="16">
       <c r="A55" s="13" t="s">
         <v>295</v>
       </c>
@@ -7077,7 +7937,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="16">
       <c r="A56" s="13" t="s">
         <v>295</v>
       </c>
@@ -7121,7 +7981,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="16">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -7165,7 +8025,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="16">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -7209,7 +8069,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="16">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -7253,7 +8113,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="16">
       <c r="A60" s="13" t="s">
         <v>295</v>
       </c>
@@ -7297,7 +8157,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="16">
       <c r="A61" s="13" t="s">
         <v>295</v>
       </c>
@@ -7341,7 +8201,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="16">
       <c r="A62" s="13" t="s">
         <v>295</v>
       </c>
@@ -7389,7 +8249,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="16">
       <c r="A63" s="13" t="s">
         <v>295</v>
       </c>
@@ -7455,7 +8315,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="16">
       <c r="A64" s="13" t="s">
         <v>295</v>
       </c>
@@ -7503,7 +8363,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="16">
       <c r="A65" s="13" t="s">
         <v>295</v>
       </c>
@@ -7569,7 +8429,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="16">
       <c r="A66" s="13" t="s">
         <v>295</v>
       </c>
@@ -7617,7 +8477,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="16">
       <c r="A67" s="13" t="s">
         <v>295</v>
       </c>
@@ -7665,7 +8525,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="16">
       <c r="A68" s="13" t="s">
         <v>295</v>
       </c>
@@ -7713,7 +8573,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="16">
       <c r="A69" s="13" t="s">
         <v>295</v>
       </c>
@@ -7761,7 +8621,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="16">
       <c r="A70" s="13" t="s">
         <v>295</v>
       </c>
@@ -7809,7 +8669,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="16">
       <c r="A71" s="13" t="s">
         <v>295</v>
       </c>
@@ -7857,7 +8717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="16">
       <c r="A72" s="13" t="s">
         <v>295</v>
       </c>
@@ -7905,7 +8765,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="16">
       <c r="A73" s="13" t="s">
         <v>295</v>
       </c>
@@ -7953,7 +8813,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="16">
       <c r="A74" s="13" t="s">
         <v>295</v>
       </c>
@@ -8001,7 +8861,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="16">
       <c r="A75" s="13" t="s">
         <v>295</v>
       </c>
@@ -8049,7 +8909,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="16">
       <c r="A76" s="13" t="s">
         <v>295</v>
       </c>
@@ -8119,16 +8979,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG6"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="16">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -8199,10 +9059,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Y1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -8214,25 +9074,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>538</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>542</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -8244,7 +9104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="16">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -8313,346 +9173,42 @@
         <v>233</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BG2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H3" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="K3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="N3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="T3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="AA3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>48</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI6" si="0">SUM(AB3,AD3,AF3,AH3)</f>
-        <v>48</v>
-      </c>
-      <c r="AJ3" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK3" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL3" s="39" t="s">
-        <v>481</v>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
+      <c r="U3" t="s">
+        <v>586</v>
       </c>
       <c r="BG3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="K4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="N4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="S4" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="T4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="AA4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>48</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="AJ4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK4" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL4" s="39" t="s">
-        <v>482</v>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
+      <c r="U4" t="s">
+        <v>587</v>
       </c>
       <c r="BG4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H5" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="K5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="N5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="T5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="AA5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>48</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="AJ5" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK5" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL5" s="39" t="s">
-        <v>483</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
+      <c r="U5" t="s">
+        <v>588</v>
       </c>
       <c r="BG5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H6" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="K6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="N6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="AA6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>24</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK6" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL6" s="39" t="s">
-        <v>478</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
+      <c r="U6" t="s">
+        <v>589</v>
       </c>
       <c r="BG6" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -8661,24 +9217,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -8698,7 +9254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -8715,7 +9271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
@@ -8732,7 +9288,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
@@ -8749,7 +9305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
@@ -8766,7 +9322,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
@@ -8783,7 +9339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -8800,7 +9356,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="21" t="s">
         <v>91</v>
       </c>
@@ -8817,7 +9373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="21" t="s">
         <v>91</v>
       </c>
@@ -8834,7 +9390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -8851,7 +9407,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="21" t="s">
         <v>91</v>
       </c>
@@ -8868,7 +9424,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="17" t="s">
         <v>119</v>
       </c>
@@ -8885,7 +9441,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="17" t="s">
         <v>119</v>
       </c>
@@ -8902,7 +9458,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -8919,7 +9475,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
@@ -8936,7 +9492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="17" t="s">
         <v>119</v>
       </c>
@@ -8953,7 +9509,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="17" t="s">
         <v>119</v>
       </c>
@@ -8970,7 +9526,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="17" t="s">
         <v>119</v>
       </c>
@@ -8987,7 +9543,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="17" t="s">
         <v>119</v>
       </c>
@@ -9004,7 +9560,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="17" t="s">
         <v>119</v>
       </c>
@@ -9021,7 +9577,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="17" t="s">
         <v>119</v>
       </c>
@@ -9038,7 +9594,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="17" t="s">
         <v>119</v>
       </c>
@@ -9055,7 +9611,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="17" t="s">
         <v>119</v>
       </c>
@@ -9072,7 +9628,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="17" t="s">
         <v>119</v>
       </c>
@@ -9089,7 +9645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="17" t="s">
         <v>119</v>
       </c>
@@ -9106,7 +9662,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="17" t="s">
         <v>119</v>
       </c>
@@ -9123,7 +9679,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
@@ -9140,7 +9696,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="17" t="s">
         <v>119</v>
       </c>
@@ -9157,7 +9713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="17" t="s">
         <v>119</v>
       </c>
@@ -9174,7 +9730,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="17" t="s">
         <v>119</v>
       </c>
@@ -9191,7 +9747,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="17" t="s">
         <v>119</v>
       </c>
@@ -9208,7 +9764,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -9225,7 +9781,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
@@ -9242,7 +9798,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
@@ -9259,7 +9815,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="17" t="s">
         <v>119</v>
       </c>
@@ -9276,7 +9832,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="17" t="s">
         <v>119</v>
       </c>
@@ -9293,7 +9849,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="17" t="s">
         <v>119</v>
       </c>
@@ -9310,7 +9866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -9327,7 +9883,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="17" t="s">
         <v>119</v>
       </c>
@@ -9344,7 +9900,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="17" t="s">
         <v>119</v>
       </c>
@@ -9361,7 +9917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="17" t="s">
         <v>119</v>
       </c>
@@ -9378,7 +9934,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
@@ -9395,7 +9951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="17" t="s">
         <v>119</v>
       </c>
@@ -9412,7 +9968,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="17" t="s">
         <v>119</v>
       </c>
@@ -9429,7 +9985,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="17" t="s">
         <v>119</v>
       </c>
@@ -9446,7 +10002,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16">
       <c r="A46" s="17" t="s">
         <v>119</v>
       </c>
@@ -9463,7 +10019,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="17" t="s">
         <v>119</v>
       </c>
@@ -9480,7 +10036,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="16">
       <c r="A48" s="17" t="s">
         <v>119</v>
       </c>
@@ -9497,7 +10053,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16">
       <c r="A49" s="17" t="s">
         <v>119</v>
       </c>
@@ -9514,7 +10070,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="17" t="s">
         <v>119</v>
       </c>
@@ -9531,7 +10087,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="17" t="s">
         <v>119</v>
       </c>
@@ -9548,7 +10104,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="17" t="s">
         <v>119</v>
       </c>
@@ -9565,7 +10121,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="21" t="s">
         <v>91</v>
       </c>
@@ -9582,7 +10138,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="16">
       <c r="A54" s="17" t="s">
         <v>119</v>
       </c>
@@ -9599,7 +10155,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="21" t="s">
         <v>91</v>
       </c>
@@ -9616,7 +10172,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16">
       <c r="A56" s="17" t="s">
         <v>119</v>
       </c>
@@ -9633,7 +10189,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16">
       <c r="A57" s="21" t="s">
         <v>91</v>
       </c>
@@ -9650,7 +10206,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="16">
       <c r="A58" s="21" t="s">
         <v>91</v>
       </c>
@@ -9667,7 +10223,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="16">
       <c r="A59" s="17" t="s">
         <v>119</v>
       </c>
@@ -9684,7 +10240,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="16">
       <c r="A60" s="21" t="s">
         <v>91</v>
       </c>
@@ -9701,7 +10257,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="16">
       <c r="A61" s="21" t="s">
         <v>91</v>
       </c>
@@ -9718,7 +10274,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="16">
       <c r="A62" s="17" t="s">
         <v>119</v>
       </c>
@@ -9735,7 +10291,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="16">
       <c r="A63" s="17" t="s">
         <v>119</v>
       </c>
@@ -9752,7 +10308,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="16">
       <c r="A64" s="17" t="s">
         <v>119</v>
       </c>
@@ -9769,7 +10325,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="16">
       <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
@@ -9786,7 +10342,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="16">
       <c r="A66" s="17" t="s">
         <v>119</v>
       </c>
@@ -9809,16 +10365,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
@@ -9838,7 +10394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -9855,90 +10411,40 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>107</v>
-      </c>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9946,20 +10452,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="42" t="s">
         <v>53</v>
       </c>
@@ -9970,7 +10476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
@@ -9981,7 +10487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
@@ -9992,7 +10498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -10003,7 +10509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -10014,7 +10520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" s="15" t="s">
         <v>76</v>
       </c>
@@ -10022,7 +10528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
@@ -10030,7 +10536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="15" t="s">
         <v>78</v>
       </c>
@@ -10038,7 +10544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="15" t="s">
         <v>79</v>
       </c>
@@ -10046,7 +10552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="15" t="s">
         <v>80</v>
       </c>
@@ -10054,7 +10560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="15" t="s">
         <v>81</v>
       </c>
@@ -10062,7 +10568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="15" t="s">
         <v>82</v>
       </c>
@@ -10070,7 +10576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="15" t="s">
         <v>83</v>
       </c>
@@ -10078,7 +10584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" s="15" t="s">
         <v>84</v>
       </c>
@@ -10086,7 +10592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" s="15" t="s">
         <v>85</v>
       </c>
@@ -10094,7 +10600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" s="15" t="s">
         <v>86</v>
       </c>
@@ -10102,7 +10608,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="15" t="s">
         <v>87</v>
       </c>
@@ -10110,7 +10616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="15" t="s">
         <v>88</v>
       </c>
@@ -10118,7 +10624,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="16" t="s">
         <v>89</v>
       </c>
@@ -10126,7 +10632,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="16">
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
@@ -10140,22 +10646,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -10168,8 +10674,11 @@
       <c r="D1" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="57" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
@@ -10182,10 +10691,13 @@
       <c r="D2" s="39">
         <v>787298771</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="39" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>71</v>
@@ -10196,8 +10708,11 @@
       <c r="D3" s="39">
         <v>787298771</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="39" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="43" t="s">
         <v>69</v>
       </c>
@@ -10209,6 +10724,9 @@
       </c>
       <c r="D4" s="39">
         <v>787298771</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3364D-271B-2646-8767-06BB38766656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="11120" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="687">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2082,13 +2081,37 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2128,6 +2151,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2427,10 +2451,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 4 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2465,7 +2489,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2537,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2585,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2633,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2681,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2729,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,23 +3024,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3093,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="39">
         <v>2388008</v>
       </c>
@@ -3095,7 +3119,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>2394650</v>
       </c>
@@ -3114,7 +3138,7 @@
       </c>
       <c r="Q3" s="39"/>
     </row>
-    <row r="4" spans="1:17" ht="17">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="39">
         <v>2390932</v>
       </c>
@@ -3133,7 +3157,7 @@
       </c>
       <c r="Q4" s="39"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>2388008</v>
       </c>
@@ -3159,21 +3183,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -3184,7 +3208,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -3193,7 +3217,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3202,7 +3226,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -3211,7 +3235,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -3220,7 +3244,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -3237,20 +3261,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>468</v>
       </c>
@@ -3258,7 +3282,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>470</v>
       </c>
@@ -3266,7 +3290,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>472</v>
       </c>
@@ -3274,7 +3298,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>474</v>
       </c>
@@ -3282,17 +3306,17 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>477</v>
       </c>
@@ -3303,24 +3327,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>480</v>
       </c>
@@ -3343,31 +3367,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1640625" style="49" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" style="49" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" style="49" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" style="49" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12" style="49" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" style="49" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="49" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>509</v>
       </c>
@@ -3408,7 +3432,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="153">
+    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>522</v>
       </c>
@@ -3443,24 +3467,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="9.1640625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="9.140625" style="1" collapsed="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>486</v>
       </c>
@@ -3492,7 +3516,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>493</v>
       </c>
@@ -3506,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>625</v>
       </c>
@@ -3527,7 +3551,7 @@
       </c>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>627</v>
       </c>
@@ -3543,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>628</v>
       </c>
@@ -3559,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>629</v>
       </c>
@@ -3575,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>630</v>
       </c>
@@ -3591,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>631</v>
       </c>
@@ -3607,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>632</v>
       </c>
@@ -3623,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>633</v>
       </c>
@@ -3639,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>634</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>635</v>
       </c>
@@ -3671,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>636</v>
       </c>
@@ -3694,22 +3718,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB8C2B9-7B1C-D640-9176-FC4080428CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="63" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="63" customWidth="1"/>
     <col min="3" max="3" width="41" style="63" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="63"/>
+    <col min="4" max="16384" width="10.85546875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>637</v>
       </c>
@@ -3720,7 +3744,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>640</v>
       </c>
@@ -3731,7 +3755,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51">
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>643</v>
       </c>
@@ -3742,7 +3766,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>646</v>
       </c>
@@ -3753,7 +3777,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>649</v>
       </c>
@@ -3764,7 +3788,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>652</v>
       </c>
@@ -3773,7 +3797,7 @@
       </c>
       <c r="C6" s="64"/>
     </row>
-    <row r="7" spans="1:3" ht="34">
+    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>654</v>
       </c>
@@ -3784,7 +3808,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>657</v>
       </c>
@@ -3795,7 +3819,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51">
+    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>660</v>
       </c>
@@ -3806,7 +3830,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51">
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>663</v>
       </c>
@@ -3817,7 +3841,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>666</v>
       </c>
@@ -3828,7 +3852,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34">
+    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>669</v>
       </c>
@@ -3839,7 +3863,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>672</v>
       </c>
@@ -3848,7 +3872,7 @@
       </c>
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="1:3" ht="34">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>674</v>
       </c>
@@ -3857,7 +3881,7 @@
       </c>
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="1:3" ht="34">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>676</v>
       </c>
@@ -3874,23 +3898,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1640625" style="47" collapsed="1"/>
-    <col min="3" max="3" width="15.83203125" style="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.1640625" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1640625" style="47" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="47" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="47" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="47" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>496</v>
       </c>
@@ -3925,7 +3949,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>507</v>
       </c>
@@ -3946,7 +3970,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>485</v>
       </c>
@@ -3967,7 +3991,7 @@
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>508</v>
       </c>
@@ -3995,49 +4019,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>238</v>
       </c>
@@ -4048,29 +4072,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
@@ -4111,7 +4135,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>72</v>
       </c>
@@ -4138,7 +4162,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>436</v>
       </c>
@@ -4165,7 +4189,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>440</v>
       </c>
@@ -4192,7 +4216,7 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>442</v>
       </c>
@@ -4225,7 +4249,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>448</v>
       </c>
@@ -4250,7 +4274,7 @@
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>450</v>
       </c>
@@ -4275,7 +4299,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>452</v>
       </c>
@@ -4302,7 +4326,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>455</v>
       </c>
@@ -4329,7 +4353,7 @@
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>539</v>
       </c>
@@ -4356,7 +4380,7 @@
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>544</v>
       </c>
@@ -4383,7 +4407,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>550</v>
       </c>
@@ -4414,7 +4438,7 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>558</v>
       </c>
@@ -4439,7 +4463,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>562</v>
       </c>
@@ -4476,7 +4500,7 @@
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>567</v>
       </c>
@@ -4507,7 +4531,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>571</v>
       </c>
@@ -4532,7 +4556,7 @@
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>580</v>
       </c>
@@ -4557,7 +4581,7 @@
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>597</v>
       </c>
@@ -4584,7 +4608,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="1:13" ht="32">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>600</v>
       </c>
@@ -4625,7 +4649,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>616</v>
       </c>
@@ -4653,6 +4677,41 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>683</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>685</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>686</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,16 +4721,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AL1" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -4787,7 +4846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16">
+    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -4853,7 +4912,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16">
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>239</v>
       </c>
@@ -4913,7 +4972,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16">
+    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>239</v>
       </c>
@@ -4991,7 +5050,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16">
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>239</v>
       </c>
@@ -5069,7 +5128,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16">
+    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>239</v>
       </c>
@@ -5139,7 +5198,7 @@
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31"/>
     </row>
-    <row r="7" spans="1:38" ht="16">
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>239</v>
       </c>
@@ -5217,7 +5276,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16">
+    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>239</v>
       </c>
@@ -5283,7 +5342,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16">
+    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>239</v>
       </c>
@@ -5343,7 +5402,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16">
+    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>239</v>
       </c>
@@ -5391,7 +5450,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16">
+    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>239</v>
       </c>
@@ -5439,7 +5498,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16">
+    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -5511,7 +5570,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16">
+    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>239</v>
       </c>
@@ -5577,7 +5636,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16">
+    <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>239</v>
       </c>
@@ -5649,7 +5708,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16">
+    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>239</v>
       </c>
@@ -5721,7 +5780,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16">
+    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>239</v>
       </c>
@@ -5787,7 +5846,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="16">
+    <row r="17" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>239</v>
       </c>
@@ -5853,7 +5912,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="16">
+    <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>239</v>
       </c>
@@ -5931,7 +5990,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="16">
+    <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>239</v>
       </c>
@@ -6009,7 +6068,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="16">
+    <row r="20" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>239</v>
       </c>
@@ -6075,7 +6134,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="16">
+    <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>239</v>
       </c>
@@ -6141,7 +6200,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="16">
+    <row r="22" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>239</v>
       </c>
@@ -6207,7 +6266,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="16">
+    <row r="23" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>286</v>
       </c>
@@ -6255,7 +6314,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="16">
+    <row r="24" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>286</v>
       </c>
@@ -6303,7 +6362,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="16">
+    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>286</v>
       </c>
@@ -6351,7 +6410,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="16">
+    <row r="26" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>239</v>
       </c>
@@ -6411,7 +6470,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="16">
+    <row r="27" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>295</v>
       </c>
@@ -6477,7 +6536,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="16">
+    <row r="28" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>239</v>
       </c>
@@ -6543,7 +6602,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="16">
+    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>239</v>
       </c>
@@ -6609,7 +6668,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="16">
+    <row r="30" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>295</v>
       </c>
@@ -6649,7 +6708,7 @@
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
     </row>
-    <row r="31" spans="1:37" ht="16">
+    <row r="31" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>239</v>
       </c>
@@ -6689,7 +6748,7 @@
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
     </row>
-    <row r="32" spans="1:37" ht="16">
+    <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>307</v>
       </c>
@@ -6733,7 +6792,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="16">
+    <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>307</v>
       </c>
@@ -6777,7 +6836,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="16">
+    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>307</v>
       </c>
@@ -6821,7 +6880,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="16">
+    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>307</v>
       </c>
@@ -6865,7 +6924,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="16">
+    <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>307</v>
       </c>
@@ -6909,7 +6968,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="16">
+    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>307</v>
       </c>
@@ -6949,7 +7008,7 @@
       <c r="AJ37" s="39"/>
       <c r="AK37" s="39"/>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>307</v>
       </c>
@@ -6989,7 +7048,7 @@
       <c r="AJ38" s="39"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" ht="16">
+    <row r="39" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>307</v>
       </c>
@@ -7029,7 +7088,7 @@
       <c r="AJ39" s="39"/>
       <c r="AK39" s="39"/>
     </row>
-    <row r="40" spans="1:37" ht="16">
+    <row r="40" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>307</v>
       </c>
@@ -7081,7 +7140,7 @@
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
     </row>
-    <row r="41" spans="1:37" ht="16">
+    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>295</v>
       </c>
@@ -7153,7 +7212,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="16">
+    <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>295</v>
       </c>
@@ -7219,7 +7278,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="16">
+    <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>295</v>
       </c>
@@ -7285,7 +7344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="16">
+    <row r="44" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>295</v>
       </c>
@@ -7357,7 +7416,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="16">
+    <row r="45" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>295</v>
       </c>
@@ -7429,7 +7488,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="16">
+    <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>295</v>
       </c>
@@ -7501,7 +7560,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="16">
+    <row r="47" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>295</v>
       </c>
@@ -7573,7 +7632,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="16">
+    <row r="48" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>295</v>
       </c>
@@ -7621,7 +7680,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="16">
+    <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>295</v>
       </c>
@@ -7669,7 +7728,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="16">
+    <row r="50" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>295</v>
       </c>
@@ -7717,7 +7776,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="16">
+    <row r="51" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>295</v>
       </c>
@@ -7761,7 +7820,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="16">
+    <row r="52" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>295</v>
       </c>
@@ -7805,7 +7864,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="16">
+    <row r="53" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>295</v>
       </c>
@@ -7849,7 +7908,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="16">
+    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>295</v>
       </c>
@@ -7893,7 +7952,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="16">
+    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>295</v>
       </c>
@@ -7937,7 +7996,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="16">
+    <row r="56" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>295</v>
       </c>
@@ -7981,7 +8040,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="16">
+    <row r="57" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -8025,7 +8084,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="16">
+    <row r="58" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -8069,7 +8128,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="16">
+    <row r="59" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -8113,7 +8172,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="16">
+    <row r="60" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>295</v>
       </c>
@@ -8157,7 +8216,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="16">
+    <row r="61" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>295</v>
       </c>
@@ -8201,7 +8260,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="16">
+    <row r="62" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>295</v>
       </c>
@@ -8249,7 +8308,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="16">
+    <row r="63" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>295</v>
       </c>
@@ -8315,7 +8374,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="16">
+    <row r="64" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>295</v>
       </c>
@@ -8363,7 +8422,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="16">
+    <row r="65" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>295</v>
       </c>
@@ -8429,7 +8488,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="16">
+    <row r="66" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>295</v>
       </c>
@@ -8477,7 +8536,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="16">
+    <row r="67" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>295</v>
       </c>
@@ -8525,7 +8584,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="16">
+    <row r="68" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>295</v>
       </c>
@@ -8573,7 +8632,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="16">
+    <row r="69" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>295</v>
       </c>
@@ -8621,7 +8680,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="16">
+    <row r="70" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>295</v>
       </c>
@@ -8669,7 +8728,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="16">
+    <row r="71" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>295</v>
       </c>
@@ -8717,7 +8776,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="16">
+    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>295</v>
       </c>
@@ -8765,7 +8824,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="16">
+    <row r="73" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>295</v>
       </c>
@@ -8813,7 +8872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="16">
+    <row r="74" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>295</v>
       </c>
@@ -8861,7 +8920,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="16">
+    <row r="75" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>295</v>
       </c>
@@ -8909,7 +8968,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="16">
+    <row r="76" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>295</v>
       </c>
@@ -8979,16 +9038,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="16">
+    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -9104,7 +9163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="16">
+    <row r="2" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -9179,7 +9238,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="U3" t="s">
         <v>586</v>
       </c>
@@ -9187,7 +9246,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="U4" t="s">
         <v>587</v>
       </c>
@@ -9195,7 +9254,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="U5" t="s">
         <v>588</v>
       </c>
@@ -9203,7 +9262,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="U6" t="s">
         <v>589</v>
       </c>
@@ -9217,24 +9276,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -9254,7 +9313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -9271,7 +9330,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
@@ -9288,7 +9347,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
@@ -9305,7 +9364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
@@ -9322,7 +9381,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
@@ -9339,7 +9398,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -9356,7 +9415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>91</v>
       </c>
@@ -9373,7 +9432,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>91</v>
       </c>
@@ -9390,7 +9449,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -9407,7 +9466,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>91</v>
       </c>
@@ -9424,7 +9483,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>119</v>
       </c>
@@ -9441,7 +9500,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>119</v>
       </c>
@@ -9458,7 +9517,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -9475,7 +9534,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
@@ -9492,7 +9551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>119</v>
       </c>
@@ -9509,7 +9568,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>119</v>
       </c>
@@ -9526,7 +9585,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>119</v>
       </c>
@@ -9543,7 +9602,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>119</v>
       </c>
@@ -9560,7 +9619,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>119</v>
       </c>
@@ -9577,7 +9636,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>119</v>
       </c>
@@ -9594,7 +9653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>119</v>
       </c>
@@ -9611,7 +9670,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>119</v>
       </c>
@@ -9628,7 +9687,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>119</v>
       </c>
@@ -9645,7 +9704,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>119</v>
       </c>
@@ -9662,7 +9721,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>119</v>
       </c>
@@ -9679,7 +9738,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
@@ -9696,7 +9755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>119</v>
       </c>
@@ -9713,7 +9772,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>119</v>
       </c>
@@ -9730,7 +9789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>119</v>
       </c>
@@ -9747,7 +9806,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>119</v>
       </c>
@@ -9764,7 +9823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -9781,7 +9840,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
@@ -9798,7 +9857,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
@@ -9815,7 +9874,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>119</v>
       </c>
@@ -9832,7 +9891,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>119</v>
       </c>
@@ -9849,7 +9908,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>119</v>
       </c>
@@ -9866,7 +9925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -9883,7 +9942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>119</v>
       </c>
@@ -9900,7 +9959,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>119</v>
       </c>
@@ -9917,7 +9976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>119</v>
       </c>
@@ -9934,7 +9993,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
@@ -9951,7 +10010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>119</v>
       </c>
@@ -9968,7 +10027,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>119</v>
       </c>
@@ -9985,7 +10044,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>119</v>
       </c>
@@ -10002,7 +10061,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>119</v>
       </c>
@@ -10019,7 +10078,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>119</v>
       </c>
@@ -10036,7 +10095,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>119</v>
       </c>
@@ -10053,7 +10112,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>119</v>
       </c>
@@ -10070,7 +10129,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>119</v>
       </c>
@@ -10087,7 +10146,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>119</v>
       </c>
@@ -10104,7 +10163,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>119</v>
       </c>
@@ -10121,7 +10180,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>91</v>
       </c>
@@ -10138,7 +10197,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>119</v>
       </c>
@@ -10155,7 +10214,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>91</v>
       </c>
@@ -10172,7 +10231,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>119</v>
       </c>
@@ -10189,7 +10248,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>91</v>
       </c>
@@ -10206,7 +10265,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>91</v>
       </c>
@@ -10223,7 +10282,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>119</v>
       </c>
@@ -10240,7 +10299,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>91</v>
       </c>
@@ -10257,7 +10316,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>91</v>
       </c>
@@ -10274,7 +10333,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>119</v>
       </c>
@@ -10291,7 +10350,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>119</v>
       </c>
@@ -10308,7 +10367,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>119</v>
       </c>
@@ -10325,7 +10384,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
@@ -10342,7 +10401,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>119</v>
       </c>
@@ -10365,16 +10424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
@@ -10394,7 +10453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -10411,35 +10470,35 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="20"/>
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="18"/>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="18"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="18"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -10452,20 +10511,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>53</v>
       </c>
@@ -10476,7 +10535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
@@ -10487,7 +10546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
@@ -10498,7 +10557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -10509,7 +10568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -10520,7 +10579,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>76</v>
       </c>
@@ -10528,7 +10587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
@@ -10536,7 +10595,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>78</v>
       </c>
@@ -10544,7 +10603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>79</v>
       </c>
@@ -10552,7 +10611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>80</v>
       </c>
@@ -10560,7 +10619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>81</v>
       </c>
@@ -10568,7 +10627,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>82</v>
       </c>
@@ -10576,7 +10635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>83</v>
       </c>
@@ -10584,7 +10643,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>84</v>
       </c>
@@ -10592,7 +10651,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>85</v>
       </c>
@@ -10600,7 +10659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>86</v>
       </c>
@@ -10608,7 +10667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>87</v>
       </c>
@@ -10616,7 +10675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>88</v>
       </c>
@@ -10624,7 +10683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>89</v>
       </c>
@@ -10632,7 +10691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="16">
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
@@ -10646,22 +10705,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -10678,7 +10737,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
@@ -10695,7 +10754,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>478</v>
       </c>
@@ -10712,7 +10771,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>69</v>
       </c>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -28,8 +28,9 @@
     <sheet name="Action Tagging" sheetId="17" r:id="rId14"/>
     <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId15"/>
     <sheet name="State Queue Mapping" sheetId="18" r:id="rId16"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="692">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2105,6 +2106,21 @@
   </si>
   <si>
     <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Transfer Anyway</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
@@ -4018,6 +4034,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="10.28515625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
@@ -4073,10 +4154,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4712,6 +4793,35 @@
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>690</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>691</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10515,7 +10625,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3364D-271B-2646-8767-06BB38766656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2CFD74-BE4A-9F40-9159-0A6D4EBD29BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="11120" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="11120" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3697,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB8C2B9-7B1C-D640-9176-FC4080428CDE}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -8982,11 +8982,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16">
       <c r="A1" s="50" t="s">
@@ -9106,19 +9109,19 @@
     </row>
     <row r="2" spans="1:59" ht="16">
       <c r="A2" s="13" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>400</v>
@@ -10366,10 +10369,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10410,41 +10413,6 @@
       <c r="E2" s="21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" ht="16">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" ht="16">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="696">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1798,21 +1798,6 @@
     <t>Next Reset Date</t>
   </si>
   <si>
-    <t>200121000214</t>
-  </si>
-  <si>
-    <t>200121000215</t>
-  </si>
-  <si>
-    <t>200121000216</t>
-  </si>
-  <si>
-    <t>200121000217</t>
-  </si>
-  <si>
-    <t>200121000218</t>
-  </si>
-  <si>
     <t>QWFpcnRlbEAwOTE5</t>
   </si>
   <si>
@@ -2121,13 +2106,40 @@
   </si>
   <si>
     <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>Ticket Field 1 - Label</t>
+  </si>
+  <si>
+    <t>Ticket 1 Type</t>
+  </si>
+  <si>
+    <t>Ticket Field 2 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 3 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 4 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 5 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 7 - Label</t>
+  </si>
+  <si>
+    <t>160621012721</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2227,6 +2239,11 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0383F3"/>
+      <name val="Tondo-regular"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2366,7 +2383,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -2464,6 +2481,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3047,7 +3065,7 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -3056,7 +3074,7 @@
     <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3103,44 +3121,44 @@
         <v>14</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="39">
         <v>2388008</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>463</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q2" s="56" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="39">
         <v>2394650</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
         <v>464</v>
@@ -3154,31 +3172,31 @@
       </c>
       <c r="Q3" s="39"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="39">
         <v>2390932</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C4" t="s">
         <v>465</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q4" s="39"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="39">
         <v>2388008</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C5" t="s">
         <v>466</v>
@@ -3188,7 +3206,7 @@
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q5" s="39"/>
     </row>
@@ -3206,14 +3224,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -3224,7 +3242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -3233,7 +3251,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3242,7 +3260,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -3251,7 +3269,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -3260,7 +3278,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -3284,13 +3302,13 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="45" t="s">
         <v>468</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>470</v>
       </c>
@@ -3306,7 +3324,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>472</v>
       </c>
@@ -3314,7 +3332,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>474</v>
       </c>
@@ -3322,17 +3340,17 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>477</v>
       </c>
@@ -3350,7 +3368,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
@@ -3360,7 +3378,7 @@
     <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>480</v>
       </c>
@@ -3390,7 +3408,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1" collapsed="1"/>
@@ -3407,7 +3425,7 @@
     <col min="14" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>509</v>
       </c>
@@ -3448,7 +3466,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="141.75">
       <c r="A2" s="1" t="s">
         <v>522</v>
       </c>
@@ -3490,7 +3508,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
@@ -3500,7 +3518,7 @@
     <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="58" t="s">
         <v>486</v>
       </c>
@@ -3523,16 +3541,16 @@
         <v>492</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I1" s="59" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>493</v>
       </c>
@@ -3546,9 +3564,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="58" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -3557,19 +3575,19 @@
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J3" s="58" t="b">
         <v>0</v>
       </c>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="58" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -3583,9 +3601,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="58" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
@@ -3599,9 +3617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="58" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -3615,9 +3633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="58" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -3631,9 +3649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="58" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -3647,9 +3665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="58" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -3663,9 +3681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="58" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
@@ -3679,9 +3697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="58" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -3695,9 +3713,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="58" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -3711,9 +3729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="58" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
@@ -3741,7 +3759,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="63" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="63" customWidth="1"/>
@@ -3749,163 +3767,163 @@
     <col min="4" max="16384" width="10.85546875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="62" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>633</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="62" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>636</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="62" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="47.25">
+      <c r="A3" s="62" t="s">
         <v>638</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="B3" s="62" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="C3" s="62" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="62" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="62" t="s">
         <v>641</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="B4" s="62" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="C4" s="62" t="s">
         <v>643</v>
       </c>
-      <c r="B3" s="62" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="62" t="s">
         <v>644</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="B5" s="62" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="C5" s="62" t="s">
         <v>646</v>
       </c>
-      <c r="B4" s="62" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="31.5">
+      <c r="A6" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="B6" s="62" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="C6" s="64"/>
+    </row>
+    <row r="7" spans="1:3" ht="47.25">
+      <c r="A7" s="62" t="s">
         <v>649</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B7" s="62" t="s">
         <v>650</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C7" s="62" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+    <row r="8" spans="1:3" ht="47.25">
+      <c r="A8" s="62" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B8" s="62" t="s">
         <v>653</v>
       </c>
-      <c r="C6" s="64"/>
-    </row>
-    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="C8" s="62" t="s">
         <v>654</v>
       </c>
-      <c r="B7" s="62" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="47.25">
+      <c r="A9" s="62" t="s">
         <v>655</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="B9" s="62" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="C9" s="62" t="s">
         <v>657</v>
       </c>
-      <c r="B8" s="62" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="47.25">
+      <c r="A10" s="62" t="s">
         <v>658</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="B10" s="62" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="C10" s="62" t="s">
         <v>660</v>
       </c>
-      <c r="B9" s="62" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="47.25">
+      <c r="A11" s="62" t="s">
         <v>661</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="B11" s="62" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="C11" s="62" t="s">
         <v>663</v>
       </c>
-      <c r="B10" s="62" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="47.25">
+      <c r="A12" s="62" t="s">
         <v>664</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="B12" s="62" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="C12" s="62" t="s">
         <v>666</v>
       </c>
-      <c r="B11" s="62" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="62" t="s">
         <v>667</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="B13" s="62" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="1:3" ht="31.5">
+      <c r="A14" s="62" t="s">
         <v>669</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B14" s="62" t="s">
         <v>670</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C14" s="64"/>
+    </row>
+    <row r="15" spans="1:3" ht="31.5">
+      <c r="A15" s="62" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="B15" s="62" t="s">
         <v>672</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="C15" s="62" t="s">
         <v>673</v>
-      </c>
-      <c r="C13" s="64"/>
-    </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
-        <v>674</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>675</v>
-      </c>
-      <c r="C14" s="64"/>
-    </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>676</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>677</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -3921,7 +3939,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="47" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.140625" style="47" collapsed="1"/>
@@ -3930,7 +3948,7 @@
     <col min="5" max="16384" width="9.140625" style="47" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="46" t="s">
         <v>496</v>
       </c>
@@ -3965,7 +3983,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="15" t="s">
         <v>507</v>
       </c>
@@ -3986,7 +4004,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="15" t="s">
         <v>485</v>
       </c>
@@ -4007,7 +4025,7 @@
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="15" t="s">
         <v>508</v>
       </c>
@@ -4042,14 +4060,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="16384" width="10.28515625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>483</v>
       </c>
@@ -4057,10 +4075,10 @@
         <v>484</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
         <v>74</v>
       </c>
@@ -4071,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
         <v>72</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
@@ -4107,42 +4125,42 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
         <v>238</v>
       </c>
@@ -4156,11 +4174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4175,7 +4193,7 @@
     <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
@@ -4210,13 +4228,13 @@
         <v>576</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="39" t="s">
         <v>72</v>
       </c>
@@ -4243,7 +4261,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="39" t="s">
         <v>436</v>
       </c>
@@ -4270,7 +4288,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="39" t="s">
         <v>440</v>
       </c>
@@ -4284,7 +4302,7 @@
         <v>441</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>435</v>
@@ -4297,7 +4315,7 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="39" t="s">
         <v>442</v>
       </c>
@@ -4330,7 +4348,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="39" t="s">
         <v>448</v>
       </c>
@@ -4355,7 +4373,7 @@
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="39" t="s">
         <v>450</v>
       </c>
@@ -4380,7 +4398,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="39" t="s">
         <v>452</v>
       </c>
@@ -4407,7 +4425,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="39" t="s">
         <v>455</v>
       </c>
@@ -4434,7 +4452,7 @@
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="52" t="s">
         <v>539</v>
       </c>
@@ -4461,7 +4479,7 @@
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="52" t="s">
         <v>544</v>
       </c>
@@ -4488,7 +4506,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="52" t="s">
         <v>550</v>
       </c>
@@ -4519,7 +4537,7 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="39" t="s">
         <v>558</v>
       </c>
@@ -4544,7 +4562,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="52" t="s">
         <v>562</v>
       </c>
@@ -4581,7 +4599,7 @@
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="52" t="s">
         <v>567</v>
       </c>
@@ -4612,7 +4630,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="52" t="s">
         <v>571</v>
       </c>
@@ -4637,7 +4655,7 @@
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="52" t="s">
         <v>580</v>
       </c>
@@ -4662,21 +4680,21 @@
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="52" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>486</v>
@@ -4689,68 +4707,68 @@
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="45">
       <c r="A19" s="52" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>433</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H19" s="52" t="s">
         <v>434</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="K19" s="55" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L19" s="52" t="s">
         <v>435</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="52" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>438</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
@@ -4759,18 +4777,18 @@
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="39" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>583</v>
@@ -4779,30 +4797,30 @@
         <v>460</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="39" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>583</v>
@@ -4811,7 +4829,7 @@
         <v>460</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>486</v>
@@ -4838,9 +4856,9 @@
       <selection activeCell="AL1" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15.75">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -4956,7 +4974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -5022,7 +5040,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15.75">
       <c r="A3" s="13" t="s">
         <v>239</v>
       </c>
@@ -5082,7 +5100,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>239</v>
       </c>
@@ -5160,7 +5178,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15.75">
       <c r="A5" s="13" t="s">
         <v>239</v>
       </c>
@@ -5238,7 +5256,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15.75">
       <c r="A6" s="13" t="s">
         <v>239</v>
       </c>
@@ -5308,7 +5326,7 @@
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31"/>
     </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15.75">
       <c r="A7" s="13" t="s">
         <v>239</v>
       </c>
@@ -5386,7 +5404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15.75">
       <c r="A8" s="13" t="s">
         <v>239</v>
       </c>
@@ -5452,7 +5470,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15.75">
       <c r="A9" s="13" t="s">
         <v>239</v>
       </c>
@@ -5512,7 +5530,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15.75">
       <c r="A10" s="13" t="s">
         <v>239</v>
       </c>
@@ -5560,7 +5578,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15.75">
       <c r="A11" s="13" t="s">
         <v>239</v>
       </c>
@@ -5608,7 +5626,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15.75">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -5680,7 +5698,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15.75">
       <c r="A13" s="13" t="s">
         <v>239</v>
       </c>
@@ -5746,7 +5764,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15.75">
       <c r="A14" s="13" t="s">
         <v>239</v>
       </c>
@@ -5818,7 +5836,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15.75">
       <c r="A15" s="13" t="s">
         <v>239</v>
       </c>
@@ -5890,7 +5908,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15.75">
       <c r="A16" s="13" t="s">
         <v>239</v>
       </c>
@@ -5956,7 +5974,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15.75">
       <c r="A17" s="13" t="s">
         <v>239</v>
       </c>
@@ -6022,7 +6040,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15.75">
       <c r="A18" s="13" t="s">
         <v>239</v>
       </c>
@@ -6100,7 +6118,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15.75">
       <c r="A19" s="13" t="s">
         <v>239</v>
       </c>
@@ -6178,7 +6196,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15.75">
       <c r="A20" s="13" t="s">
         <v>239</v>
       </c>
@@ -6244,7 +6262,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15.75">
       <c r="A21" s="13" t="s">
         <v>239</v>
       </c>
@@ -6310,7 +6328,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15.75">
       <c r="A22" s="13" t="s">
         <v>239</v>
       </c>
@@ -6376,7 +6394,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15.75">
       <c r="A23" s="13" t="s">
         <v>286</v>
       </c>
@@ -6424,7 +6442,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15.75">
       <c r="A24" s="13" t="s">
         <v>286</v>
       </c>
@@ -6472,7 +6490,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75">
       <c r="A25" s="13" t="s">
         <v>286</v>
       </c>
@@ -6520,7 +6538,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15.75">
       <c r="A26" s="13" t="s">
         <v>239</v>
       </c>
@@ -6580,7 +6598,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15.75">
       <c r="A27" s="13" t="s">
         <v>295</v>
       </c>
@@ -6646,7 +6664,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15.75">
       <c r="A28" s="13" t="s">
         <v>239</v>
       </c>
@@ -6712,7 +6730,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75">
       <c r="A29" s="13" t="s">
         <v>239</v>
       </c>
@@ -6778,7 +6796,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15.75">
       <c r="A30" s="37" t="s">
         <v>295</v>
       </c>
@@ -6818,7 +6836,7 @@
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15.75">
       <c r="A31" s="13" t="s">
         <v>239</v>
       </c>
@@ -6858,7 +6876,7 @@
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15.75">
       <c r="A32" s="13" t="s">
         <v>307</v>
       </c>
@@ -6902,7 +6920,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15.75">
       <c r="A33" s="25" t="s">
         <v>307</v>
       </c>
@@ -6946,7 +6964,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75">
       <c r="A34" s="25" t="s">
         <v>307</v>
       </c>
@@ -6990,7 +7008,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15.75">
       <c r="A35" s="25" t="s">
         <v>307</v>
       </c>
@@ -7034,7 +7052,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15.75">
       <c r="A36" s="25" t="s">
         <v>307</v>
       </c>
@@ -7078,7 +7096,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15.75">
       <c r="A37" s="41" t="s">
         <v>307</v>
       </c>
@@ -7118,7 +7136,7 @@
       <c r="AJ37" s="39"/>
       <c r="AK37" s="39"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="41" t="s">
         <v>307</v>
       </c>
@@ -7158,7 +7176,7 @@
       <c r="AJ38" s="39"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15.75">
       <c r="A39" s="13" t="s">
         <v>307</v>
       </c>
@@ -7198,7 +7216,7 @@
       <c r="AJ39" s="39"/>
       <c r="AK39" s="39"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15.75">
       <c r="A40" s="13" t="s">
         <v>307</v>
       </c>
@@ -7250,7 +7268,7 @@
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75">
       <c r="A41" s="13" t="s">
         <v>295</v>
       </c>
@@ -7322,7 +7340,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15.75">
       <c r="A42" s="13" t="s">
         <v>295</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15.75">
       <c r="A43" s="13" t="s">
         <v>295</v>
       </c>
@@ -7454,7 +7472,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15.75">
       <c r="A44" s="13" t="s">
         <v>295</v>
       </c>
@@ -7526,7 +7544,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15.75">
       <c r="A45" s="13" t="s">
         <v>295</v>
       </c>
@@ -7598,7 +7616,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15.75">
       <c r="A46" s="13" t="s">
         <v>295</v>
       </c>
@@ -7670,7 +7688,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15.75">
       <c r="A47" s="13" t="s">
         <v>295</v>
       </c>
@@ -7742,7 +7760,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15.75">
       <c r="A48" s="13" t="s">
         <v>295</v>
       </c>
@@ -7790,7 +7808,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15.75">
       <c r="A49" s="13" t="s">
         <v>295</v>
       </c>
@@ -7838,7 +7856,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15.75">
       <c r="A50" s="13" t="s">
         <v>295</v>
       </c>
@@ -7886,7 +7904,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15.75">
       <c r="A51" s="13" t="s">
         <v>295</v>
       </c>
@@ -7930,7 +7948,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="15.75">
       <c r="A52" s="13" t="s">
         <v>295</v>
       </c>
@@ -7974,7 +7992,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15.75">
       <c r="A53" s="13" t="s">
         <v>295</v>
       </c>
@@ -8018,7 +8036,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15.75">
       <c r="A54" s="13" t="s">
         <v>295</v>
       </c>
@@ -8062,7 +8080,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15.75">
       <c r="A55" s="13" t="s">
         <v>295</v>
       </c>
@@ -8106,7 +8124,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15.75">
       <c r="A56" s="13" t="s">
         <v>295</v>
       </c>
@@ -8150,7 +8168,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15.75">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -8194,7 +8212,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15.75">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -8238,7 +8256,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15.75">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -8282,7 +8300,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15.75">
       <c r="A60" s="13" t="s">
         <v>295</v>
       </c>
@@ -8326,7 +8344,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="15.75">
       <c r="A61" s="13" t="s">
         <v>295</v>
       </c>
@@ -8370,7 +8388,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="15.75">
       <c r="A62" s="13" t="s">
         <v>295</v>
       </c>
@@ -8418,7 +8436,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15.75">
       <c r="A63" s="13" t="s">
         <v>295</v>
       </c>
@@ -8484,7 +8502,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15.75">
       <c r="A64" s="13" t="s">
         <v>295</v>
       </c>
@@ -8532,7 +8550,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15.75">
       <c r="A65" s="13" t="s">
         <v>295</v>
       </c>
@@ -8598,7 +8616,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15.75">
       <c r="A66" s="13" t="s">
         <v>295</v>
       </c>
@@ -8646,7 +8664,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15.75">
       <c r="A67" s="13" t="s">
         <v>295</v>
       </c>
@@ -8694,7 +8712,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15.75">
       <c r="A68" s="13" t="s">
         <v>295</v>
       </c>
@@ -8742,7 +8760,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15.75">
       <c r="A69" s="13" t="s">
         <v>295</v>
       </c>
@@ -8790,7 +8808,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15.75">
       <c r="A70" s="13" t="s">
         <v>295</v>
       </c>
@@ -8838,7 +8856,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15.75">
       <c r="A71" s="13" t="s">
         <v>295</v>
       </c>
@@ -8886,7 +8904,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15.75">
       <c r="A72" s="13" t="s">
         <v>295</v>
       </c>
@@ -8934,7 +8952,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15.75">
       <c r="A73" s="13" t="s">
         <v>295</v>
       </c>
@@ -8982,7 +9000,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15.75">
       <c r="A74" s="13" t="s">
         <v>295</v>
       </c>
@@ -9030,7 +9048,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="15.75">
       <c r="A75" s="13" t="s">
         <v>295</v>
       </c>
@@ -9078,7 +9096,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="15.75">
       <c r="A76" s="13" t="s">
         <v>295</v>
       </c>
@@ -9149,15 +9167,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG6"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="15.75">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -9237,43 +9255,106 @@
         <v>32</v>
       </c>
       <c r="AA1" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>688</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>692</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>694</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AW1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AX1" t="s">
         <v>532</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AY1" t="s">
         <v>533</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AZ1" t="s">
         <v>534</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="BA1" t="s">
         <v>535</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="BB1" t="s">
         <v>536</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="BC1" t="s">
         <v>537</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="BD1" t="s">
         <v>538</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BE1" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BF1" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BG1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -9344,44 +9425,29 @@
       <c r="AL2" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="BG2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="U3" t="s">
-        <v>586</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="U4" t="s">
-        <v>587</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="U5" t="s">
-        <v>588</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="U6" t="s">
-        <v>589</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>589</v>
+      <c r="AV2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2" s="13">
+        <v>24</v>
+      </c>
+      <c r="BD2">
+        <f>SUM(AW2,AY2,BA2,BC2)</f>
+        <v>24</v>
+      </c>
+      <c r="BE2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF2" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG2" s="65" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9393,7 +9459,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -9403,7 +9469,7 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -9423,7 +9489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -9440,7 +9506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
@@ -9457,7 +9523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
@@ -9474,7 +9540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
@@ -9491,7 +9557,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
@@ -9508,7 +9574,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -9525,7 +9591,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="21" t="s">
         <v>91</v>
       </c>
@@ -9542,7 +9608,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="21" t="s">
         <v>91</v>
       </c>
@@ -9559,7 +9625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -9576,7 +9642,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="21" t="s">
         <v>91</v>
       </c>
@@ -9593,7 +9659,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="17" t="s">
         <v>119</v>
       </c>
@@ -9610,7 +9676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="17" t="s">
         <v>119</v>
       </c>
@@ -9627,7 +9693,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -9644,7 +9710,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
@@ -9661,7 +9727,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="17" t="s">
         <v>119</v>
       </c>
@@ -9678,7 +9744,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="17" t="s">
         <v>119</v>
       </c>
@@ -9695,7 +9761,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="17" t="s">
         <v>119</v>
       </c>
@@ -9712,7 +9778,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="17" t="s">
         <v>119</v>
       </c>
@@ -9729,7 +9795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="17" t="s">
         <v>119</v>
       </c>
@@ -9746,7 +9812,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="17" t="s">
         <v>119</v>
       </c>
@@ -9763,7 +9829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="17" t="s">
         <v>119</v>
       </c>
@@ -9780,7 +9846,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="17" t="s">
         <v>119</v>
       </c>
@@ -9797,7 +9863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="17" t="s">
         <v>119</v>
       </c>
@@ -9814,7 +9880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="17" t="s">
         <v>119</v>
       </c>
@@ -9831,7 +9897,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="17" t="s">
         <v>119</v>
       </c>
@@ -9848,7 +9914,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
@@ -9865,7 +9931,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="17" t="s">
         <v>119</v>
       </c>
@@ -9882,7 +9948,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="17" t="s">
         <v>119</v>
       </c>
@@ -9899,7 +9965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75">
       <c r="A30" s="17" t="s">
         <v>119</v>
       </c>
@@ -9916,7 +9982,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="17" t="s">
         <v>119</v>
       </c>
@@ -9933,7 +9999,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -9950,7 +10016,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75">
       <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
@@ -9967,7 +10033,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
@@ -9984,7 +10050,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="17" t="s">
         <v>119</v>
       </c>
@@ -10001,7 +10067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="17" t="s">
         <v>119</v>
       </c>
@@ -10018,7 +10084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="17" t="s">
         <v>119</v>
       </c>
@@ -10035,7 +10101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -10052,7 +10118,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="17" t="s">
         <v>119</v>
       </c>
@@ -10069,7 +10135,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="17" t="s">
         <v>119</v>
       </c>
@@ -10086,7 +10152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75">
       <c r="A41" s="17" t="s">
         <v>119</v>
       </c>
@@ -10103,7 +10169,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
@@ -10120,7 +10186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="A43" s="17" t="s">
         <v>119</v>
       </c>
@@ -10137,7 +10203,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="17" t="s">
         <v>119</v>
       </c>
@@ -10154,7 +10220,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75">
       <c r="A45" s="17" t="s">
         <v>119</v>
       </c>
@@ -10171,7 +10237,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75">
       <c r="A46" s="17" t="s">
         <v>119</v>
       </c>
@@ -10188,7 +10254,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="17" t="s">
         <v>119</v>
       </c>
@@ -10205,7 +10271,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75">
       <c r="A48" s="17" t="s">
         <v>119</v>
       </c>
@@ -10222,7 +10288,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75">
       <c r="A49" s="17" t="s">
         <v>119</v>
       </c>
@@ -10239,7 +10305,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="17" t="s">
         <v>119</v>
       </c>
@@ -10256,7 +10322,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75">
       <c r="A51" s="17" t="s">
         <v>119</v>
       </c>
@@ -10273,7 +10339,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="17" t="s">
         <v>119</v>
       </c>
@@ -10290,7 +10356,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="21" t="s">
         <v>91</v>
       </c>
@@ -10307,7 +10373,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="17" t="s">
         <v>119</v>
       </c>
@@ -10324,7 +10390,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="21" t="s">
         <v>91</v>
       </c>
@@ -10341,7 +10407,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75">
       <c r="A56" s="17" t="s">
         <v>119</v>
       </c>
@@ -10358,7 +10424,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="21" t="s">
         <v>91</v>
       </c>
@@ -10375,7 +10441,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="21" t="s">
         <v>91</v>
       </c>
@@ -10392,7 +10458,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75">
       <c r="A59" s="17" t="s">
         <v>119</v>
       </c>
@@ -10409,7 +10475,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="21" t="s">
         <v>91</v>
       </c>
@@ -10426,7 +10492,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="21" t="s">
         <v>91</v>
       </c>
@@ -10443,7 +10509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="17" t="s">
         <v>119</v>
       </c>
@@ -10460,7 +10526,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="17" t="s">
         <v>119</v>
       </c>
@@ -10477,7 +10543,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="17" t="s">
         <v>119</v>
       </c>
@@ -10494,7 +10560,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75">
       <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
@@ -10511,7 +10577,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="17" t="s">
         <v>119</v>
       </c>
@@ -10541,9 +10607,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
@@ -10563,7 +10629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -10580,35 +10646,35 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="20"/>
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="18"/>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="18"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="18"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -10628,13 +10694,13 @@
       <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="42" t="s">
         <v>53</v>
       </c>
@@ -10645,7 +10711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
@@ -10656,7 +10722,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
@@ -10667,7 +10733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -10678,7 +10744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -10689,7 +10755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" s="15" t="s">
         <v>76</v>
       </c>
@@ -10697,7 +10763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
@@ -10705,7 +10771,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="15" t="s">
         <v>78</v>
       </c>
@@ -10713,7 +10779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="15" t="s">
         <v>79</v>
       </c>
@@ -10721,7 +10787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="15" t="s">
         <v>80</v>
       </c>
@@ -10729,7 +10795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="15" t="s">
         <v>81</v>
       </c>
@@ -10737,7 +10803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="15" t="s">
         <v>82</v>
       </c>
@@ -10745,7 +10811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="15" t="s">
         <v>83</v>
       </c>
@@ -10753,7 +10819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" s="15" t="s">
         <v>84</v>
       </c>
@@ -10761,7 +10827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" s="15" t="s">
         <v>85</v>
       </c>
@@ -10769,7 +10835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" s="15" t="s">
         <v>86</v>
       </c>
@@ -10777,7 +10843,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="15" t="s">
         <v>87</v>
       </c>
@@ -10785,7 +10851,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="15" t="s">
         <v>88</v>
       </c>
@@ -10793,7 +10859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="16" t="s">
         <v>89</v>
       </c>
@@ -10801,7 +10867,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="15.75">
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
@@ -10822,7 +10888,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -10830,7 +10896,7 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -10844,10 +10910,10 @@
         <v>52</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
@@ -10861,10 +10927,10 @@
         <v>787298771</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="43" t="s">
         <v>478</v>
       </c>
@@ -10878,10 +10944,10 @@
         <v>787298771</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="43" t="s">
         <v>69</v>
       </c>
@@ -10895,7 +10961,7 @@
         <v>787298771</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -2523,7 +2523,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2571,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2619,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2667,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2715,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2763,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9169,7 +9169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+    <sheetView topLeftCell="AT1" workbookViewId="0">
       <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
@@ -10601,10 +10601,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10645,41 +10645,6 @@
       <c r="E2" s="21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E03759-1788-C54E-8308-833FD48A21EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="11120" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <sheet name="State Queue Mapping" sheetId="18" r:id="rId16"/>
     <sheet name="Transfer To Queue" sheetId="21" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2138,7 +2139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -2485,10 +2486,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2523,7 +2524,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2572,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2620,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2668,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2716,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2764,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,20 +3059,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3127,7 +3128,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5">
+    <row r="2" spans="1:17" ht="17">
       <c r="A2" s="39">
         <v>2388008</v>
       </c>
@@ -3172,7 +3173,7 @@
       </c>
       <c r="Q3" s="39"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5">
+    <row r="4" spans="1:17" ht="17">
       <c r="A4" s="39">
         <v>2390932</v>
       </c>
@@ -3217,21 +3218,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -3251,7 +3252,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3260,7 +3261,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -3269,7 +3270,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -3278,7 +3279,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -3295,17 +3296,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3361,21 +3362,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3401,31 +3402,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="49" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="49" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.42578125" style="49" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" style="49" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" style="49" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1640625" style="49" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" style="49" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5" style="49" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12" style="49" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="49" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.42578125" style="49" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" style="49" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5" style="49" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="1" t="s">
         <v>509</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75">
+    <row r="2" spans="1:13" ht="153">
       <c r="A2" s="1" t="s">
         <v>522</v>
       </c>
@@ -3501,21 +3502,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="9.1640625" style="1" collapsed="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3752,22 +3753,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="63" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="63" customWidth="1"/>
     <col min="3" max="3" width="41" style="63" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="63"/>
+    <col min="4" max="16384" width="10.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="62" t="s">
         <v>632</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="62" t="s">
         <v>635</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="47.25">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="62" t="s">
         <v>638</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="62" t="s">
         <v>641</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="62" t="s">
         <v>644</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5">
+    <row r="6" spans="1:3" ht="34">
       <c r="A6" s="62" t="s">
         <v>647</v>
       </c>
@@ -3831,7 +3832,7 @@
       </c>
       <c r="C6" s="64"/>
     </row>
-    <row r="7" spans="1:3" ht="47.25">
+    <row r="7" spans="1:3" ht="34">
       <c r="A7" s="62" t="s">
         <v>649</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25">
+    <row r="8" spans="1:3" ht="34">
       <c r="A8" s="62" t="s">
         <v>652</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="62" t="s">
         <v>655</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.25">
+    <row r="10" spans="1:3" ht="51">
       <c r="A10" s="62" t="s">
         <v>658</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" s="62" t="s">
         <v>661</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="62" t="s">
         <v>664</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="62" t="s">
         <v>667</v>
       </c>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="1:3" ht="31.5">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="62" t="s">
         <v>669</v>
       </c>
@@ -3915,7 +3916,7 @@
       </c>
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="1:3" ht="31.5">
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" s="62" t="s">
         <v>671</v>
       </c>
@@ -3932,20 +3933,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="47" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="47" collapsed="1"/>
+    <col min="2" max="2" width="9.1640625" style="47" collapsed="1"/>
+    <col min="3" max="3" width="15.83203125" style="47" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.1640625" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="47" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3983,7 +3984,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="15" t="s">
         <v>507</v>
       </c>
@@ -4004,7 +4005,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="15" t="s">
         <v>485</v>
       </c>
@@ -4025,7 +4026,7 @@
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="15" t="s">
         <v>508</v>
       </c>
@@ -4053,18 +4054,18 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="10.28515625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="10.33203125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4118,19 +4119,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4171,25 +4172,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -4234,7 +4235,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="39" t="s">
         <v>72</v>
       </c>
@@ -4288,7 +4289,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="39" t="s">
         <v>440</v>
       </c>
@@ -4562,7 +4563,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="52" t="s">
         <v>562</v>
       </c>
@@ -4707,7 +4708,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="1:13" ht="45">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="52" t="s">
         <v>595</v>
       </c>
@@ -4849,16 +4850,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AL1" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75">
+    <row r="2" spans="1:38" ht="16">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15.75">
+    <row r="3" spans="1:38" ht="16">
       <c r="A3" s="13" t="s">
         <v>239</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75">
+    <row r="4" spans="1:38" ht="16">
       <c r="A4" s="13" t="s">
         <v>239</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75">
+    <row r="5" spans="1:38" ht="16">
       <c r="A5" s="13" t="s">
         <v>239</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75">
+    <row r="6" spans="1:38" ht="16">
       <c r="A6" s="13" t="s">
         <v>239</v>
       </c>
@@ -5326,7 +5327,7 @@
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31"/>
     </row>
-    <row r="7" spans="1:38" ht="15.75">
+    <row r="7" spans="1:38" ht="16">
       <c r="A7" s="13" t="s">
         <v>239</v>
       </c>
@@ -5404,7 +5405,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75">
+    <row r="8" spans="1:38" ht="16">
       <c r="A8" s="13" t="s">
         <v>239</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75">
+    <row r="9" spans="1:38" ht="16">
       <c r="A9" s="13" t="s">
         <v>239</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75">
+    <row r="10" spans="1:38" ht="16">
       <c r="A10" s="13" t="s">
         <v>239</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75">
+    <row r="11" spans="1:38" ht="16">
       <c r="A11" s="13" t="s">
         <v>239</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75">
+    <row r="12" spans="1:38" ht="16">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15.75">
+    <row r="13" spans="1:38" ht="16">
       <c r="A13" s="13" t="s">
         <v>239</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15.75">
+    <row r="14" spans="1:38" ht="16">
       <c r="A14" s="13" t="s">
         <v>239</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.75">
+    <row r="15" spans="1:38" ht="16">
       <c r="A15" s="13" t="s">
         <v>239</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75">
+    <row r="16" spans="1:38" ht="16">
       <c r="A16" s="13" t="s">
         <v>239</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15.75">
+    <row r="17" spans="1:37" ht="16">
       <c r="A17" s="13" t="s">
         <v>239</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15.75">
+    <row r="18" spans="1:37" ht="16">
       <c r="A18" s="13" t="s">
         <v>239</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15.75">
+    <row r="19" spans="1:37" ht="16">
       <c r="A19" s="13" t="s">
         <v>239</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15.75">
+    <row r="20" spans="1:37" ht="16">
       <c r="A20" s="13" t="s">
         <v>239</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15.75">
+    <row r="21" spans="1:37" ht="16">
       <c r="A21" s="13" t="s">
         <v>239</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15.75">
+    <row r="22" spans="1:37" ht="16">
       <c r="A22" s="13" t="s">
         <v>239</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15.75">
+    <row r="23" spans="1:37" ht="16">
       <c r="A23" s="13" t="s">
         <v>286</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15.75">
+    <row r="24" spans="1:37" ht="16">
       <c r="A24" s="13" t="s">
         <v>286</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75">
+    <row r="25" spans="1:37" ht="16">
       <c r="A25" s="13" t="s">
         <v>286</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15.75">
+    <row r="26" spans="1:37" ht="16">
       <c r="A26" s="13" t="s">
         <v>239</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15.75">
+    <row r="27" spans="1:37" ht="16">
       <c r="A27" s="13" t="s">
         <v>295</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15.75">
+    <row r="28" spans="1:37" ht="16">
       <c r="A28" s="13" t="s">
         <v>239</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75">
+    <row r="29" spans="1:37" ht="16">
       <c r="A29" s="13" t="s">
         <v>239</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15.75">
+    <row r="30" spans="1:37" ht="16">
       <c r="A30" s="37" t="s">
         <v>295</v>
       </c>
@@ -6836,7 +6837,7 @@
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75">
+    <row r="31" spans="1:37" ht="16">
       <c r="A31" s="13" t="s">
         <v>239</v>
       </c>
@@ -6876,7 +6877,7 @@
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75">
+    <row r="32" spans="1:37" ht="16">
       <c r="A32" s="13" t="s">
         <v>307</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15.75">
+    <row r="33" spans="1:37" ht="16">
       <c r="A33" s="25" t="s">
         <v>307</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75">
+    <row r="34" spans="1:37" ht="16">
       <c r="A34" s="25" t="s">
         <v>307</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15.75">
+    <row r="35" spans="1:37" ht="16">
       <c r="A35" s="25" t="s">
         <v>307</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15.75">
+    <row r="36" spans="1:37" ht="16">
       <c r="A36" s="25" t="s">
         <v>307</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15.75">
+    <row r="37" spans="1:37" ht="16">
       <c r="A37" s="41" t="s">
         <v>307</v>
       </c>
@@ -7176,7 +7177,7 @@
       <c r="AJ38" s="39"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75">
+    <row r="39" spans="1:37" ht="16">
       <c r="A39" s="13" t="s">
         <v>307</v>
       </c>
@@ -7216,7 +7217,7 @@
       <c r="AJ39" s="39"/>
       <c r="AK39" s="39"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75">
+    <row r="40" spans="1:37" ht="16">
       <c r="A40" s="13" t="s">
         <v>307</v>
       </c>
@@ -7268,7 +7269,7 @@
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75">
+    <row r="41" spans="1:37" ht="16">
       <c r="A41" s="13" t="s">
         <v>295</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15.75">
+    <row r="42" spans="1:37" ht="16">
       <c r="A42" s="13" t="s">
         <v>295</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15.75">
+    <row r="43" spans="1:37" ht="16">
       <c r="A43" s="13" t="s">
         <v>295</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15.75">
+    <row r="44" spans="1:37" ht="16">
       <c r="A44" s="13" t="s">
         <v>295</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15.75">
+    <row r="45" spans="1:37" ht="16">
       <c r="A45" s="13" t="s">
         <v>295</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15.75">
+    <row r="46" spans="1:37" ht="16">
       <c r="A46" s="13" t="s">
         <v>295</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15.75">
+    <row r="47" spans="1:37" ht="16">
       <c r="A47" s="13" t="s">
         <v>295</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15.75">
+    <row r="48" spans="1:37" ht="16">
       <c r="A48" s="13" t="s">
         <v>295</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15.75">
+    <row r="49" spans="1:37" ht="16">
       <c r="A49" s="13" t="s">
         <v>295</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15.75">
+    <row r="50" spans="1:37" ht="16">
       <c r="A50" s="13" t="s">
         <v>295</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15.75">
+    <row r="51" spans="1:37" ht="16">
       <c r="A51" s="13" t="s">
         <v>295</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15.75">
+    <row r="52" spans="1:37" ht="16">
       <c r="A52" s="13" t="s">
         <v>295</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15.75">
+    <row r="53" spans="1:37" ht="16">
       <c r="A53" s="13" t="s">
         <v>295</v>
       </c>
@@ -8036,7 +8037,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15.75">
+    <row r="54" spans="1:37" ht="16">
       <c r="A54" s="13" t="s">
         <v>295</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15.75">
+    <row r="55" spans="1:37" ht="16">
       <c r="A55" s="13" t="s">
         <v>295</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15.75">
+    <row r="56" spans="1:37" ht="16">
       <c r="A56" s="13" t="s">
         <v>295</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15.75">
+    <row r="57" spans="1:37" ht="16">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15.75">
+    <row r="58" spans="1:37" ht="16">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15.75">
+    <row r="59" spans="1:37" ht="16">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -8300,7 +8301,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15.75">
+    <row r="60" spans="1:37" ht="16">
       <c r="A60" s="13" t="s">
         <v>295</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15.75">
+    <row r="61" spans="1:37" ht="16">
       <c r="A61" s="13" t="s">
         <v>295</v>
       </c>
@@ -8388,7 +8389,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15.75">
+    <row r="62" spans="1:37" ht="16">
       <c r="A62" s="13" t="s">
         <v>295</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15.75">
+    <row r="63" spans="1:37" ht="16">
       <c r="A63" s="13" t="s">
         <v>295</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15.75">
+    <row r="64" spans="1:37" ht="16">
       <c r="A64" s="13" t="s">
         <v>295</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15.75">
+    <row r="65" spans="1:37" ht="16">
       <c r="A65" s="13" t="s">
         <v>295</v>
       </c>
@@ -8616,7 +8617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15.75">
+    <row r="66" spans="1:37" ht="16">
       <c r="A66" s="13" t="s">
         <v>295</v>
       </c>
@@ -8664,7 +8665,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15.75">
+    <row r="67" spans="1:37" ht="16">
       <c r="A67" s="13" t="s">
         <v>295</v>
       </c>
@@ -8712,7 +8713,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15.75">
+    <row r="68" spans="1:37" ht="16">
       <c r="A68" s="13" t="s">
         <v>295</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15.75">
+    <row r="69" spans="1:37" ht="16">
       <c r="A69" s="13" t="s">
         <v>295</v>
       </c>
@@ -8808,7 +8809,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15.75">
+    <row r="70" spans="1:37" ht="16">
       <c r="A70" s="13" t="s">
         <v>295</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15.75">
+    <row r="71" spans="1:37" ht="16">
       <c r="A71" s="13" t="s">
         <v>295</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15.75">
+    <row r="72" spans="1:37" ht="16">
       <c r="A72" s="13" t="s">
         <v>295</v>
       </c>
@@ -8952,7 +8953,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15.75">
+    <row r="73" spans="1:37" ht="16">
       <c r="A73" s="13" t="s">
         <v>295</v>
       </c>
@@ -9000,7 +9001,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15.75">
+    <row r="74" spans="1:37" ht="16">
       <c r="A74" s="13" t="s">
         <v>295</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15.75">
+    <row r="75" spans="1:37" ht="16">
       <c r="A75" s="13" t="s">
         <v>295</v>
       </c>
@@ -9096,7 +9097,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15.75">
+    <row r="76" spans="1:37" ht="16">
       <c r="A76" s="13" t="s">
         <v>295</v>
       </c>
@@ -9166,16 +9167,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView topLeftCell="AT1" workbookViewId="0">
       <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75">
+    <row r="1" spans="1:59" ht="16">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15.75">
+    <row r="2" spans="1:59" ht="16">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -9452,24 +9453,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
@@ -9574,7 +9575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="21" t="s">
         <v>91</v>
       </c>
@@ -9608,7 +9609,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="21" t="s">
         <v>91</v>
       </c>
@@ -9625,7 +9626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="21" t="s">
         <v>91</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="17" t="s">
         <v>119</v>
       </c>
@@ -9676,7 +9677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="17" t="s">
         <v>119</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -9710,7 +9711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="17" t="s">
         <v>119</v>
       </c>
@@ -9744,7 +9745,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="17" t="s">
         <v>119</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="17" t="s">
         <v>119</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="17" t="s">
         <v>119</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="17" t="s">
         <v>119</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="17" t="s">
         <v>119</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="17" t="s">
         <v>119</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="17" t="s">
         <v>119</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="17" t="s">
         <v>119</v>
       </c>
@@ -9880,7 +9881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="17" t="s">
         <v>119</v>
       </c>
@@ -9897,7 +9898,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="17" t="s">
         <v>119</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
@@ -9931,7 +9932,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="17" t="s">
         <v>119</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="17" t="s">
         <v>119</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="17" t="s">
         <v>119</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="17" t="s">
         <v>119</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
@@ -10033,7 +10034,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="17" t="s">
         <v>119</v>
       </c>
@@ -10067,7 +10068,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="17" t="s">
         <v>119</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="17" t="s">
         <v>119</v>
       </c>
@@ -10101,7 +10102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="17" t="s">
         <v>119</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="17" t="s">
         <v>119</v>
       </c>
@@ -10152,7 +10153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="17" t="s">
         <v>119</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="17" t="s">
         <v>119</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="17" t="s">
         <v>119</v>
       </c>
@@ -10220,7 +10221,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75">
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="17" t="s">
         <v>119</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75">
+    <row r="46" spans="1:5" ht="16">
       <c r="A46" s="17" t="s">
         <v>119</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="17" t="s">
         <v>119</v>
       </c>
@@ -10271,7 +10272,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75">
+    <row r="48" spans="1:5" ht="16">
       <c r="A48" s="17" t="s">
         <v>119</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75">
+    <row r="49" spans="1:5" ht="16">
       <c r="A49" s="17" t="s">
         <v>119</v>
       </c>
@@ -10305,7 +10306,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="17" t="s">
         <v>119</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="17" t="s">
         <v>119</v>
       </c>
@@ -10339,7 +10340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="17" t="s">
         <v>119</v>
       </c>
@@ -10356,7 +10357,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75">
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="21" t="s">
         <v>91</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75">
+    <row r="54" spans="1:5" ht="16">
       <c r="A54" s="17" t="s">
         <v>119</v>
       </c>
@@ -10390,7 +10391,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="21" t="s">
         <v>91</v>
       </c>
@@ -10407,7 +10408,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75">
+    <row r="56" spans="1:5" ht="16">
       <c r="A56" s="17" t="s">
         <v>119</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75">
+    <row r="57" spans="1:5" ht="16">
       <c r="A57" s="21" t="s">
         <v>91</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="16">
       <c r="A58" s="21" t="s">
         <v>91</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75">
+    <row r="59" spans="1:5" ht="16">
       <c r="A59" s="17" t="s">
         <v>119</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="16">
       <c r="A60" s="21" t="s">
         <v>91</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75">
+    <row r="61" spans="1:5" ht="16">
       <c r="A61" s="21" t="s">
         <v>91</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75">
+    <row r="62" spans="1:5" ht="16">
       <c r="A62" s="17" t="s">
         <v>119</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75">
+    <row r="63" spans="1:5" ht="16">
       <c r="A63" s="17" t="s">
         <v>119</v>
       </c>
@@ -10543,7 +10544,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75">
+    <row r="64" spans="1:5" ht="16">
       <c r="A64" s="17" t="s">
         <v>119</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75">
+    <row r="65" spans="1:5" ht="16">
       <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="16">
       <c r="A66" s="17" t="s">
         <v>119</v>
       </c>
@@ -10600,16 +10601,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -10652,17 +10653,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10676,7 +10677,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75">
+    <row r="20" spans="2:3" ht="16">
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
@@ -10846,22 +10847,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="43" t="s">
         <v>478</v>
       </c>
@@ -10912,7 +10913,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="43" t="s">
         <v>69</v>
       </c>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E03759-1788-C54E-8308-833FD48A21EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E68C71-A4A2-5646-97CA-62728A46D560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="11120" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="11120" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -2384,7 +2384,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -2482,7 +2482,39 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9170,279 +9202,282 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BA3" sqref="BA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="63"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:59" ht="51">
+      <c r="A1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="65" t="s">
         <v>461</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="65" t="s">
         <v>462</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="63" t="s">
         <v>530</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="63" t="s">
         <v>687</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="63" t="s">
         <v>688</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="66" t="s">
         <v>689</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="66" t="s">
         <v>690</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="AI1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="63" t="s">
         <v>691</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="63" t="s">
         <v>692</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="63" t="s">
         <v>693</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="63" t="s">
         <v>694</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="63" t="s">
         <v>533</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="63" t="s">
         <v>535</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="63" t="s">
         <v>536</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="63" t="s">
         <v>538</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="16">
-      <c r="A2" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:59" ht="85">
+      <c r="A2" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H2" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="K2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="N2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="AA2" s="13" t="s">
+      <c r="G2" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="K2" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="N2" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="AA2" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="68">
         <v>24</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="63">
         <f>SUM(AB2,AD2,AF2,AH2)</f>
         <v>24</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" s="31" t="s">
+      <c r="AK2" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="AV2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW2" s="13">
-        <v>24</v>
-      </c>
-      <c r="BD2">
+      <c r="AV2" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" s="68">
+        <v>48</v>
+      </c>
+      <c r="BD2" s="63">
         <f>SUM(AW2,AY2,BA2,BC2)</f>
-        <v>24</v>
-      </c>
-      <c r="BE2" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE2" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="BG2" s="65" t="s">
+      <c r="BG2" s="75" t="s">
         <v>695</v>
       </c>
     </row>
@@ -10604,7 +10639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E68C71-A4A2-5646-97CA-62728A46D560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A9E68C71-A4A2-5646-97CA-62728A46D560}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="11120" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="4" firstSheet="1" windowHeight="11120" windowWidth="34680" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name=" Priority" sheetId="2" r:id="rId2"/>
-    <sheet name="Headers" sheetId="3" r:id="rId3"/>
-    <sheet name="NFTRTickets-Reg" sheetId="4" r:id="rId4"/>
-    <sheet name="NFTRTickets-San" sheetId="11" r:id="rId5"/>
-    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId6"/>
-    <sheet name="FTRTickets-San" sheetId="12" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="8" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="14" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="19" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="17" r:id="rId14"/>
-    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId15"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId16"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId17"/>
+    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name=" Priority" r:id="rId2" sheetId="2"/>
+    <sheet name="Headers" r:id="rId3" sheetId="3"/>
+    <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="4"/>
+    <sheet name="NFTRTickets-San" r:id="rId5" sheetId="11"/>
+    <sheet name="FTRTickets-Reg" r:id="rId6" sheetId="5"/>
+    <sheet name="FTRTickets-San" r:id="rId7" sheetId="12"/>
+    <sheet name="UserManagement" r:id="rId8" sheetId="13"/>
+    <sheet name="PinnedTags" r:id="rId9" sheetId="8"/>
+    <sheet name="Ticket State" r:id="rId10" sheetId="10"/>
+    <sheet name="TemplateManagement" r:id="rId11" sheetId="14"/>
+    <sheet name="Ticket Transfer Rules" r:id="rId12" sheetId="16"/>
+    <sheet name="Authentication Policy" r:id="rId13" sheetId="19"/>
+    <sheet name="Action Tagging" r:id="rId14" sheetId="17"/>
+    <sheet name="QuestionAnswerKey" r:id="rId15" sheetId="20"/>
+    <sheet name="State Queue Mapping" r:id="rId16" sheetId="18"/>
+    <sheet name="Transfer To Queue" r:id="rId17" sheetId="21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="698">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2134,12 +2134,19 @@
   </si>
   <si>
     <t>160621012721</t>
+  </si>
+  <si>
+    <t>210621012785</t>
+  </si>
+  <si>
+    <t>220621012789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -2374,157 +2381,157 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="2" numFmtId="1" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="2" numFmtId="1" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="3"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2537,7 +2544,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2561,7 +2568,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2609,7 +2616,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2657,7 +2664,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2705,7 +2712,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2753,7 +2760,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2801,7 +2808,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2834,10 +2841,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2872,7 +2879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2907,7 +2914,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3001,21 +3008,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3032,7 +3039,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3084,14 +3091,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3100,11 +3107,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3160,7 +3167,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17">
+    <row ht="17" r="2" spans="1:17">
       <c r="A2" s="39">
         <v>2388008</v>
       </c>
@@ -3205,7 +3212,7 @@
       </c>
       <c r="Q3" s="39"/>
     </row>
-    <row r="4" spans="1:17" ht="17">
+    <row ht="17" r="4" spans="1:17">
       <c r="A4" s="39">
         <v>2390932</v>
       </c>
@@ -3244,13 +3251,13 @@
       <c r="Q5" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3259,12 +3266,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row ht="16" r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row ht="16" r="2" spans="1:3">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -3284,7 +3291,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row ht="16" r="3" spans="1:3">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3293,7 +3300,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row ht="16" r="4" spans="1:3">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -3302,7 +3309,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row ht="16" r="5" spans="1:3">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -3311,7 +3318,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row ht="16" r="6" spans="1:3">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -3323,12 +3330,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3337,8 +3344,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="35.33203125" collapsed="true"/>
+    <col min="2" max="16384" style="1" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3389,12 +3396,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3403,12 +3410,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="42.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="31.6640625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3429,12 +3436,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3443,22 +3450,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1640625" style="49" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" style="49" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="49" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" style="49" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.5" style="49" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="49" width="12.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="49" width="13.1640625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="49" width="11.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="49" width="12.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="49" width="11.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="49" width="11.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="49" width="12.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="49" width="13.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="49" width="13.5" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row ht="17" r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>509</v>
       </c>
@@ -3499,7 +3506,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="153">
+    <row ht="153" r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>522</v>
       </c>
@@ -3529,12 +3536,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,12 +3550,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="9.1640625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" style="1" width="9.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="12.5" collapsed="true"/>
+    <col min="4" max="6" style="1" width="9.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3779,13 +3786,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3794,13 +3801,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="41" style="63" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="63"/>
+    <col min="1" max="1" customWidth="true" style="63" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="63" width="27.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="63" width="41.0" collapsed="true"/>
+    <col min="4" max="16384" style="63" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row ht="17" r="1" spans="1:3">
       <c r="A1" s="62" t="s">
         <v>632</v>
       </c>
@@ -3811,7 +3818,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row ht="17" r="2" spans="1:3">
       <c r="A2" s="62" t="s">
         <v>635</v>
       </c>
@@ -3822,7 +3829,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51">
+    <row ht="51" r="3" spans="1:3">
       <c r="A3" s="62" t="s">
         <v>638</v>
       </c>
@@ -3833,7 +3840,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row ht="17" r="4" spans="1:3">
       <c r="A4" s="62" t="s">
         <v>641</v>
       </c>
@@ -3844,7 +3851,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row ht="17" r="5" spans="1:3">
       <c r="A5" s="62" t="s">
         <v>644</v>
       </c>
@@ -3855,7 +3862,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34">
+    <row ht="34" r="6" spans="1:3">
       <c r="A6" s="62" t="s">
         <v>647</v>
       </c>
@@ -3864,7 +3871,7 @@
       </c>
       <c r="C6" s="64"/>
     </row>
-    <row r="7" spans="1:3" ht="34">
+    <row ht="34" r="7" spans="1:3">
       <c r="A7" s="62" t="s">
         <v>649</v>
       </c>
@@ -3875,7 +3882,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34">
+    <row ht="34" r="8" spans="1:3">
       <c r="A8" s="62" t="s">
         <v>652</v>
       </c>
@@ -3886,7 +3893,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51">
+    <row ht="51" r="9" spans="1:3">
       <c r="A9" s="62" t="s">
         <v>655</v>
       </c>
@@ -3897,7 +3904,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51">
+    <row ht="51" r="10" spans="1:3">
       <c r="A10" s="62" t="s">
         <v>658</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row ht="51" r="11" spans="1:3">
       <c r="A11" s="62" t="s">
         <v>661</v>
       </c>
@@ -3919,7 +3926,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34">
+    <row ht="34" r="12" spans="1:3">
       <c r="A12" s="62" t="s">
         <v>664</v>
       </c>
@@ -3930,7 +3937,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row ht="17" r="13" spans="1:3">
       <c r="A13" s="62" t="s">
         <v>667</v>
       </c>
@@ -3939,7 +3946,7 @@
       </c>
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="1:3" ht="34">
+    <row ht="34" r="14" spans="1:3">
       <c r="A14" s="62" t="s">
         <v>669</v>
       </c>
@@ -3948,7 +3955,7 @@
       </c>
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="1:3" ht="34">
+    <row ht="34" r="15" spans="1:3">
       <c r="A15" s="62" t="s">
         <v>671</v>
       </c>
@@ -3960,12 +3967,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,11 +3981,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" style="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1640625" style="47" collapsed="1"/>
-    <col min="3" max="3" width="15.83203125" style="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.1640625" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1640625" style="47" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="47" width="22.0" collapsed="true"/>
+    <col min="2" max="2" style="47" width="9.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="47" width="15.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="47" width="13.1640625" collapsed="true"/>
+    <col min="5" max="16384" style="47" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4016,7 +4023,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row ht="16" r="2" spans="1:11">
       <c r="A2" s="15" t="s">
         <v>507</v>
       </c>
@@ -4037,7 +4044,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row ht="16" r="3" spans="1:11">
       <c r="A3" s="15" t="s">
         <v>485</v>
       </c>
@@ -4058,7 +4065,7 @@
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row ht="16" r="4" spans="1:11">
       <c r="A4" s="15" t="s">
         <v>508</v>
       </c>
@@ -4080,13 +4087,13 @@
       <c r="K4" s="46"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4095,9 +4102,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="10.33203125" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="26.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.5" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4145,13 +4152,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4160,10 +4167,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row ht="16" r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4199,12 +4206,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4213,17 +4220,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4267,7 +4274,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row ht="16" r="2" spans="1:13">
       <c r="A2" s="39" t="s">
         <v>72</v>
       </c>
@@ -4321,7 +4328,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row ht="16" r="4" spans="1:13">
       <c r="A4" s="39" t="s">
         <v>440</v>
       </c>
@@ -4595,7 +4602,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row ht="16" r="14" spans="1:13">
       <c r="A14" s="52" t="s">
         <v>562</v>
       </c>
@@ -4740,7 +4747,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="1:13" ht="32">
+    <row ht="32" r="19" spans="1:13">
       <c r="A19" s="52" t="s">
         <v>595</v>
       </c>
@@ -4875,23 +4882,23 @@
       <c r="M22" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL76"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="AL1" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row ht="16" r="1" spans="1:38">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -5007,7 +5014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16">
+    <row ht="16" r="2" spans="1:38">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16">
+    <row ht="16" r="3" spans="1:38">
       <c r="A3" s="13" t="s">
         <v>239</v>
       </c>
@@ -5123,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI66" si="0">SUM(AB3,AD3,AF3,AH3)</f>
+        <f ref="AI3:AI66" si="0" t="shared">SUM(AB3,AD3,AF3,AH3)</f>
         <v>12</v>
       </c>
       <c r="AJ3" s="30" t="s">
@@ -5133,7 +5140,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16">
+    <row ht="16" r="4" spans="1:38">
       <c r="A4" s="13" t="s">
         <v>239</v>
       </c>
@@ -5201,7 +5208,7 @@
         <v>48</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ4" s="31" t="s">
@@ -5211,7 +5218,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16">
+    <row ht="16" r="5" spans="1:38">
       <c r="A5" s="13" t="s">
         <v>239</v>
       </c>
@@ -5279,7 +5286,7 @@
         <v>48</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ5" s="31" t="s">
@@ -5289,7 +5296,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16">
+    <row ht="16" r="6" spans="1:38">
       <c r="A6" s="13" t="s">
         <v>239</v>
       </c>
@@ -5353,13 +5360,13 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
       <c r="AI6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31"/>
     </row>
-    <row r="7" spans="1:38" ht="16">
+    <row ht="16" r="7" spans="1:38">
       <c r="A7" s="13" t="s">
         <v>239</v>
       </c>
@@ -5427,7 +5434,7 @@
         <v>48</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ7" s="31" t="s">
@@ -5437,7 +5444,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16">
+    <row ht="16" r="8" spans="1:38">
       <c r="A8" s="13" t="s">
         <v>239</v>
       </c>
@@ -5493,7 +5500,7 @@
         <v>24</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ8" s="31" t="s">
@@ -5503,7 +5510,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16">
+    <row ht="16" r="9" spans="1:38">
       <c r="A9" s="13" t="s">
         <v>239</v>
       </c>
@@ -5553,7 +5560,7 @@
         <v>48</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ9" s="31" t="s">
@@ -5563,7 +5570,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16">
+    <row ht="16" r="10" spans="1:38">
       <c r="A10" s="13" t="s">
         <v>239</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>48</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ10" s="31" t="s">
@@ -5611,7 +5618,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16">
+    <row ht="16" r="11" spans="1:38">
       <c r="A11" s="13" t="s">
         <v>239</v>
       </c>
@@ -5649,7 +5656,7 @@
         <v>48</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ11" s="31" t="s">
@@ -5659,7 +5666,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16">
+    <row ht="16" r="12" spans="1:38">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -5721,7 +5728,7 @@
         <v>24</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ12" s="30" t="s">
@@ -5731,7 +5738,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16">
+    <row ht="16" r="13" spans="1:38">
       <c r="A13" s="13" t="s">
         <v>239</v>
       </c>
@@ -5787,7 +5794,7 @@
         <v>24</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ13" s="30" t="s">
@@ -5797,7 +5804,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16">
+    <row ht="16" r="14" spans="1:38">
       <c r="A14" s="13" t="s">
         <v>239</v>
       </c>
@@ -5859,7 +5866,7 @@
         <v>24</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ14" s="31" t="s">
@@ -5869,7 +5876,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16">
+    <row ht="16" r="15" spans="1:38">
       <c r="A15" s="13" t="s">
         <v>239</v>
       </c>
@@ -5931,7 +5938,7 @@
         <v>24</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ15" s="30" t="s">
@@ -5941,7 +5948,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16">
+    <row ht="16" r="16" spans="1:38">
       <c r="A16" s="13" t="s">
         <v>239</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>24</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ16" s="30" t="s">
@@ -6007,7 +6014,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="16">
+    <row ht="16" r="17" spans="1:37">
       <c r="A17" s="13" t="s">
         <v>239</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>24</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ17" s="30" t="s">
@@ -6073,7 +6080,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="16">
+    <row ht="16" r="18" spans="1:37">
       <c r="A18" s="13" t="s">
         <v>239</v>
       </c>
@@ -6141,7 +6148,7 @@
         <v>48</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ18" s="31" t="s">
@@ -6151,7 +6158,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="16">
+    <row ht="16" r="19" spans="1:37">
       <c r="A19" s="13" t="s">
         <v>239</v>
       </c>
@@ -6219,7 +6226,7 @@
         <v>48</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ19" s="31" t="s">
@@ -6229,7 +6236,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="16">
+    <row ht="16" r="20" spans="1:37">
       <c r="A20" s="13" t="s">
         <v>239</v>
       </c>
@@ -6285,7 +6292,7 @@
         <v>48</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ20" s="30" t="s">
@@ -6295,7 +6302,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="16">
+    <row ht="16" r="21" spans="1:37">
       <c r="A21" s="13" t="s">
         <v>239</v>
       </c>
@@ -6351,7 +6358,7 @@
         <v>48</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ21" s="30" t="s">
@@ -6361,7 +6368,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="16">
+    <row ht="16" r="22" spans="1:37">
       <c r="A22" s="13" t="s">
         <v>239</v>
       </c>
@@ -6417,7 +6424,7 @@
         <v>48</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ22" s="30" t="s">
@@ -6427,7 +6434,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="16">
+    <row ht="16" r="23" spans="1:37">
       <c r="A23" s="13" t="s">
         <v>286</v>
       </c>
@@ -6465,7 +6472,7 @@
         <v>24</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ23" s="31" t="s">
@@ -6475,7 +6482,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="16">
+    <row ht="16" r="24" spans="1:37">
       <c r="A24" s="13" t="s">
         <v>286</v>
       </c>
@@ -6513,7 +6520,7 @@
         <v>24</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ24" s="31" t="s">
@@ -6523,7 +6530,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="16">
+    <row ht="16" r="25" spans="1:37">
       <c r="A25" s="13" t="s">
         <v>286</v>
       </c>
@@ -6561,7 +6568,7 @@
         <v>24</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ25" s="31" t="s">
@@ -6571,7 +6578,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="16">
+    <row ht="16" r="26" spans="1:37">
       <c r="A26" s="13" t="s">
         <v>239</v>
       </c>
@@ -6621,7 +6628,7 @@
         <v>48</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ26" s="30" t="s">
@@ -6631,7 +6638,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="16">
+    <row ht="16" r="27" spans="1:37">
       <c r="A27" s="13" t="s">
         <v>295</v>
       </c>
@@ -6687,7 +6694,7 @@
         <v>48</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ27" s="31" t="s">
@@ -6697,7 +6704,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="16">
+    <row ht="16" r="28" spans="1:37">
       <c r="A28" s="13" t="s">
         <v>239</v>
       </c>
@@ -6753,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ28" s="30" t="s">
@@ -6763,7 +6770,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="16">
+    <row ht="16" r="29" spans="1:37">
       <c r="A29" s="13" t="s">
         <v>239</v>
       </c>
@@ -6819,7 +6826,7 @@
         <v>24</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ29" s="30" t="s">
@@ -6829,7 +6836,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="16">
+    <row ht="16" r="30" spans="1:37">
       <c r="A30" s="37" t="s">
         <v>295</v>
       </c>
@@ -6863,13 +6870,13 @@
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
       <c r="AI30">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
     </row>
-    <row r="31" spans="1:37" ht="16">
+    <row ht="16" r="31" spans="1:37">
       <c r="A31" s="13" t="s">
         <v>239</v>
       </c>
@@ -6903,13 +6910,13 @@
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
       <c r="AI31">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
     </row>
-    <row r="32" spans="1:37" ht="16">
+    <row ht="16" r="32" spans="1:37">
       <c r="A32" s="13" t="s">
         <v>307</v>
       </c>
@@ -6943,7 +6950,7 @@
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
       <c r="AI32">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="31" t="s">
@@ -6953,7 +6960,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="16">
+    <row ht="16" r="33" spans="1:37">
       <c r="A33" s="25" t="s">
         <v>307</v>
       </c>
@@ -6987,7 +6994,7 @@
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
       <c r="AI33">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="40" t="s">
@@ -6997,7 +7004,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="16">
+    <row ht="16" r="34" spans="1:37">
       <c r="A34" s="25" t="s">
         <v>307</v>
       </c>
@@ -7031,7 +7038,7 @@
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
       <c r="AI34">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="40" t="s">
@@ -7041,7 +7048,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="16">
+    <row ht="16" r="35" spans="1:37">
       <c r="A35" s="25" t="s">
         <v>307</v>
       </c>
@@ -7075,7 +7082,7 @@
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
       <c r="AI35">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="40" t="s">
@@ -7085,7 +7092,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="16">
+    <row ht="16" r="36" spans="1:37">
       <c r="A36" s="25" t="s">
         <v>307</v>
       </c>
@@ -7119,7 +7126,7 @@
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
       <c r="AI36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="40" t="s">
@@ -7129,7 +7136,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="16">
+    <row ht="16" r="37" spans="1:37">
       <c r="A37" s="41" t="s">
         <v>307</v>
       </c>
@@ -7163,7 +7170,7 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AI37">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="39"/>
@@ -7203,13 +7210,13 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AI38">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="39"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" ht="16">
+    <row ht="16" r="39" spans="1:37">
       <c r="A39" s="13" t="s">
         <v>307</v>
       </c>
@@ -7243,13 +7250,13 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AI39">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ39" s="39"/>
       <c r="AK39" s="39"/>
     </row>
-    <row r="40" spans="1:37" ht="16">
+    <row ht="16" r="40" spans="1:37">
       <c r="A40" s="13" t="s">
         <v>307</v>
       </c>
@@ -7295,13 +7302,13 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AI40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
     </row>
-    <row r="41" spans="1:37" ht="16">
+    <row ht="16" r="41" spans="1:37">
       <c r="A41" s="13" t="s">
         <v>295</v>
       </c>
@@ -7363,7 +7370,7 @@
         <v>24</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ41" s="31" t="s">
@@ -7373,7 +7380,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="16">
+    <row ht="16" r="42" spans="1:37">
       <c r="A42" s="13" t="s">
         <v>295</v>
       </c>
@@ -7429,7 +7436,7 @@
         <v>48</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ42" s="31" t="s">
@@ -7439,7 +7446,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="16">
+    <row ht="16" r="43" spans="1:37">
       <c r="A43" s="13" t="s">
         <v>295</v>
       </c>
@@ -7495,7 +7502,7 @@
         <v>48</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ43" s="31" t="s">
@@ -7505,7 +7512,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="16">
+    <row ht="16" r="44" spans="1:37">
       <c r="A44" s="13" t="s">
         <v>295</v>
       </c>
@@ -7567,7 +7574,7 @@
         <v>48</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ44" s="31" t="s">
@@ -7577,7 +7584,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="16">
+    <row ht="16" r="45" spans="1:37">
       <c r="A45" s="13" t="s">
         <v>295</v>
       </c>
@@ -7639,7 +7646,7 @@
         <v>48</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ45" s="31" t="s">
@@ -7649,7 +7656,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="16">
+    <row ht="16" r="46" spans="1:37">
       <c r="A46" s="13" t="s">
         <v>295</v>
       </c>
@@ -7711,7 +7718,7 @@
         <v>48</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ46" s="31" t="s">
@@ -7721,7 +7728,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="16">
+    <row ht="16" r="47" spans="1:37">
       <c r="A47" s="13" t="s">
         <v>295</v>
       </c>
@@ -7783,7 +7790,7 @@
         <v>48</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ47" s="31" t="s">
@@ -7793,7 +7800,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="16">
+    <row ht="16" r="48" spans="1:37">
       <c r="A48" s="13" t="s">
         <v>295</v>
       </c>
@@ -7831,7 +7838,7 @@
         <v>12</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ48" s="30" t="s">
@@ -7841,7 +7848,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="16">
+    <row ht="16" r="49" spans="1:37">
       <c r="A49" s="13" t="s">
         <v>295</v>
       </c>
@@ -7879,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ49" s="30" t="s">
@@ -7889,7 +7896,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="16">
+    <row ht="16" r="50" spans="1:37">
       <c r="A50" s="13" t="s">
         <v>295</v>
       </c>
@@ -7927,7 +7934,7 @@
         <v>24</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ50" s="30" t="s">
@@ -7937,7 +7944,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="16">
+    <row ht="16" r="51" spans="1:37">
       <c r="A51" s="13" t="s">
         <v>295</v>
       </c>
@@ -7971,7 +7978,7 @@
       <c r="AA51" s="39"/>
       <c r="AB51" s="39"/>
       <c r="AI51">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="30" t="s">
@@ -7981,7 +7988,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="16">
+    <row ht="16" r="52" spans="1:37">
       <c r="A52" s="13" t="s">
         <v>295</v>
       </c>
@@ -8015,7 +8022,7 @@
       <c r="AA52" s="39"/>
       <c r="AB52" s="39"/>
       <c r="AI52">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="30" t="s">
@@ -8025,7 +8032,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="16">
+    <row ht="16" r="53" spans="1:37">
       <c r="A53" s="13" t="s">
         <v>295</v>
       </c>
@@ -8059,7 +8066,7 @@
       <c r="AA53" s="39"/>
       <c r="AB53" s="39"/>
       <c r="AI53">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="30" t="s">
@@ -8069,7 +8076,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="16">
+    <row ht="16" r="54" spans="1:37">
       <c r="A54" s="13" t="s">
         <v>295</v>
       </c>
@@ -8103,7 +8110,7 @@
       <c r="AA54" s="39"/>
       <c r="AB54" s="39"/>
       <c r="AI54">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ54" s="30" t="s">
@@ -8113,7 +8120,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="16">
+    <row ht="16" r="55" spans="1:37">
       <c r="A55" s="13" t="s">
         <v>295</v>
       </c>
@@ -8147,7 +8154,7 @@
       <c r="AA55" s="39"/>
       <c r="AB55" s="39"/>
       <c r="AI55">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="30" t="s">
@@ -8157,7 +8164,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="16">
+    <row ht="16" r="56" spans="1:37">
       <c r="A56" s="13" t="s">
         <v>295</v>
       </c>
@@ -8191,7 +8198,7 @@
       <c r="AA56" s="39"/>
       <c r="AB56" s="39"/>
       <c r="AI56">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="30" t="s">
@@ -8201,7 +8208,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="16">
+    <row ht="16" r="57" spans="1:37">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -8235,7 +8242,7 @@
       <c r="AA57" s="39"/>
       <c r="AB57" s="39"/>
       <c r="AI57">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="30" t="s">
@@ -8245,7 +8252,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="16">
+    <row ht="16" r="58" spans="1:37">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -8279,7 +8286,7 @@
       <c r="AA58" s="39"/>
       <c r="AB58" s="39"/>
       <c r="AI58">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ58" s="30" t="s">
@@ -8289,7 +8296,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="16">
+    <row ht="16" r="59" spans="1:37">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -8323,7 +8330,7 @@
       <c r="AA59" s="39"/>
       <c r="AB59" s="39"/>
       <c r="AI59">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ59" s="30" t="s">
@@ -8333,7 +8340,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="16">
+    <row ht="16" r="60" spans="1:37">
       <c r="A60" s="13" t="s">
         <v>295</v>
       </c>
@@ -8367,7 +8374,7 @@
       <c r="AA60" s="39"/>
       <c r="AB60" s="39"/>
       <c r="AI60">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ60" s="30" t="s">
@@ -8377,7 +8384,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="16">
+    <row ht="16" r="61" spans="1:37">
       <c r="A61" s="13" t="s">
         <v>295</v>
       </c>
@@ -8411,7 +8418,7 @@
       <c r="AA61" s="39"/>
       <c r="AB61" s="39"/>
       <c r="AI61">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="30" t="s">
@@ -8421,7 +8428,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="16">
+    <row ht="16" r="62" spans="1:37">
       <c r="A62" s="13" t="s">
         <v>295</v>
       </c>
@@ -8459,7 +8466,7 @@
         <v>12</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ62" s="30" t="s">
@@ -8469,7 +8476,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="16">
+    <row ht="16" r="63" spans="1:37">
       <c r="A63" s="13" t="s">
         <v>295</v>
       </c>
@@ -8525,7 +8532,7 @@
         <v>12</v>
       </c>
       <c r="AI63">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ63" s="30" t="s">
@@ -8535,7 +8542,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="16">
+    <row ht="16" r="64" spans="1:37">
       <c r="A64" s="13" t="s">
         <v>295</v>
       </c>
@@ -8573,7 +8580,7 @@
         <v>48</v>
       </c>
       <c r="AI64">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ64" s="30" t="s">
@@ -8583,7 +8590,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="16">
+    <row ht="16" r="65" spans="1:37">
       <c r="A65" s="13" t="s">
         <v>295</v>
       </c>
@@ -8639,7 +8646,7 @@
         <v>48</v>
       </c>
       <c r="AI65">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="AJ65" s="31" t="s">
@@ -8649,7 +8656,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="16">
+    <row ht="16" r="66" spans="1:37">
       <c r="A66" s="13" t="s">
         <v>295</v>
       </c>
@@ -8687,7 +8694,7 @@
         <v>12</v>
       </c>
       <c r="AI66">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ66" s="31" t="s">
@@ -8697,7 +8704,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="16">
+    <row ht="16" r="67" spans="1:37">
       <c r="A67" s="13" t="s">
         <v>295</v>
       </c>
@@ -8735,7 +8742,7 @@
         <v>12</v>
       </c>
       <c r="AI67">
-        <f t="shared" ref="AI67:AI76" si="1">SUM(AB67,AD67,AF67,AH67)</f>
+        <f ref="AI67:AI76" si="1" t="shared">SUM(AB67,AD67,AF67,AH67)</f>
         <v>12</v>
       </c>
       <c r="AJ67" s="31" t="s">
@@ -8745,7 +8752,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="16">
+    <row ht="16" r="68" spans="1:37">
       <c r="A68" s="13" t="s">
         <v>295</v>
       </c>
@@ -8783,7 +8790,7 @@
         <v>12</v>
       </c>
       <c r="AI68">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ68" s="31" t="s">
@@ -8793,7 +8800,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="16">
+    <row ht="16" r="69" spans="1:37">
       <c r="A69" s="13" t="s">
         <v>295</v>
       </c>
@@ -8831,7 +8838,7 @@
         <v>12</v>
       </c>
       <c r="AI69">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ69" s="31" t="s">
@@ -8841,7 +8848,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="16">
+    <row ht="16" r="70" spans="1:37">
       <c r="A70" s="13" t="s">
         <v>295</v>
       </c>
@@ -8879,7 +8886,7 @@
         <v>12</v>
       </c>
       <c r="AI70">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ70" s="31" t="s">
@@ -8889,7 +8896,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="16">
+    <row ht="16" r="71" spans="1:37">
       <c r="A71" s="13" t="s">
         <v>295</v>
       </c>
@@ -8927,7 +8934,7 @@
         <v>12</v>
       </c>
       <c r="AI71">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ71" s="31" t="s">
@@ -8937,7 +8944,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="16">
+    <row ht="16" r="72" spans="1:37">
       <c r="A72" s="13" t="s">
         <v>295</v>
       </c>
@@ -8975,7 +8982,7 @@
         <v>12</v>
       </c>
       <c r="AI72">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ72" s="31" t="s">
@@ -8985,7 +8992,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="16">
+    <row ht="16" r="73" spans="1:37">
       <c r="A73" s="13" t="s">
         <v>295</v>
       </c>
@@ -9023,7 +9030,7 @@
         <v>12</v>
       </c>
       <c r="AI73">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>12</v>
       </c>
       <c r="AJ73" s="31" t="s">
@@ -9033,7 +9040,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="16">
+    <row ht="16" r="74" spans="1:37">
       <c r="A74" s="13" t="s">
         <v>295</v>
       </c>
@@ -9071,7 +9078,7 @@
         <v>24</v>
       </c>
       <c r="AI74">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="AJ74" s="30" t="s">
@@ -9081,7 +9088,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="16">
+    <row ht="16" r="75" spans="1:37">
       <c r="A75" s="13" t="s">
         <v>295</v>
       </c>
@@ -9119,7 +9126,7 @@
         <v>8</v>
       </c>
       <c r="AI75">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="AJ75" s="30" t="s">
@@ -9129,7 +9136,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="16">
+    <row ht="16" r="76" spans="1:37">
       <c r="A76" s="13" t="s">
         <v>295</v>
       </c>
@@ -9187,19 +9194,19 @@
       <c r="AA76" s="39"/>
       <c r="AB76" s="39"/>
       <c r="AI76">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="AJ76" s="39"/>
       <c r="AK76" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -9208,10 +9215,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="63"/>
+    <col min="1" max="16384" style="63" width="8.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="51">
+    <row ht="51" r="1" spans="1:59">
       <c r="A1" s="65" t="s">
         <v>25</v>
       </c>
@@ -9390,7 +9397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="85">
+    <row ht="85" r="2" spans="1:59">
       <c r="A2" s="68" t="s">
         <v>295</v>
       </c>
@@ -9478,17 +9485,17 @@
         <v>233</v>
       </c>
       <c r="BG2" s="75" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9497,15 +9504,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row ht="16" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -9525,7 +9532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row ht="16" r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -9542,7 +9549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row ht="16" r="3" spans="1:6">
       <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
@@ -9559,7 +9566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row ht="16" r="4" spans="1:6">
       <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
@@ -9576,7 +9583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row ht="16" r="5" spans="1:6">
       <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
@@ -9593,7 +9600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row ht="16" r="6" spans="1:6">
       <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
@@ -9610,7 +9617,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row ht="16" r="7" spans="1:6">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -9627,7 +9634,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row ht="16" r="8" spans="1:6">
       <c r="A8" s="21" t="s">
         <v>91</v>
       </c>
@@ -9644,7 +9651,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row ht="16" r="9" spans="1:6">
       <c r="A9" s="21" t="s">
         <v>91</v>
       </c>
@@ -9661,7 +9668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row ht="16" r="10" spans="1:6">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -9678,7 +9685,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row ht="16" r="11" spans="1:6">
       <c r="A11" s="21" t="s">
         <v>91</v>
       </c>
@@ -9695,7 +9702,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row ht="16" r="12" spans="1:6">
       <c r="A12" s="17" t="s">
         <v>119</v>
       </c>
@@ -9712,7 +9719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row ht="16" r="13" spans="1:6">
       <c r="A13" s="17" t="s">
         <v>119</v>
       </c>
@@ -9729,7 +9736,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row ht="16" r="14" spans="1:6">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -9746,7 +9753,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row ht="16" r="15" spans="1:6">
       <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
@@ -9763,7 +9770,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row ht="16" r="16" spans="1:6">
       <c r="A16" s="17" t="s">
         <v>119</v>
       </c>
@@ -9780,7 +9787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16">
+    <row ht="16" r="17" spans="1:5">
       <c r="A17" s="17" t="s">
         <v>119</v>
       </c>
@@ -9797,7 +9804,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16">
+    <row ht="16" r="18" spans="1:5">
       <c r="A18" s="17" t="s">
         <v>119</v>
       </c>
@@ -9814,7 +9821,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16">
+    <row ht="16" r="19" spans="1:5">
       <c r="A19" s="17" t="s">
         <v>119</v>
       </c>
@@ -9831,7 +9838,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16">
+    <row ht="16" r="20" spans="1:5">
       <c r="A20" s="17" t="s">
         <v>119</v>
       </c>
@@ -9848,7 +9855,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16">
+    <row ht="16" r="21" spans="1:5">
       <c r="A21" s="17" t="s">
         <v>119</v>
       </c>
@@ -9865,7 +9872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16">
+    <row ht="16" r="22" spans="1:5">
       <c r="A22" s="17" t="s">
         <v>119</v>
       </c>
@@ -9882,7 +9889,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16">
+    <row ht="16" r="23" spans="1:5">
       <c r="A23" s="17" t="s">
         <v>119</v>
       </c>
@@ -9899,7 +9906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16">
+    <row ht="16" r="24" spans="1:5">
       <c r="A24" s="17" t="s">
         <v>119</v>
       </c>
@@ -9916,7 +9923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16">
+    <row ht="16" r="25" spans="1:5">
       <c r="A25" s="17" t="s">
         <v>119</v>
       </c>
@@ -9933,7 +9940,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16">
+    <row ht="16" r="26" spans="1:5">
       <c r="A26" s="17" t="s">
         <v>119</v>
       </c>
@@ -9950,7 +9957,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16">
+    <row ht="16" r="27" spans="1:5">
       <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
@@ -9967,7 +9974,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16">
+    <row ht="16" r="28" spans="1:5">
       <c r="A28" s="17" t="s">
         <v>119</v>
       </c>
@@ -9984,7 +9991,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16">
+    <row ht="16" r="29" spans="1:5">
       <c r="A29" s="17" t="s">
         <v>119</v>
       </c>
@@ -10001,7 +10008,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16">
+    <row ht="16" r="30" spans="1:5">
       <c r="A30" s="17" t="s">
         <v>119</v>
       </c>
@@ -10018,7 +10025,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16">
+    <row ht="16" r="31" spans="1:5">
       <c r="A31" s="17" t="s">
         <v>119</v>
       </c>
@@ -10035,7 +10042,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16">
+    <row ht="16" r="32" spans="1:5">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -10052,7 +10059,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16">
+    <row ht="16" r="33" spans="1:5">
       <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
@@ -10069,7 +10076,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16">
+    <row ht="16" r="34" spans="1:5">
       <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
@@ -10086,7 +10093,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16">
+    <row ht="16" r="35" spans="1:5">
       <c r="A35" s="17" t="s">
         <v>119</v>
       </c>
@@ -10103,7 +10110,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16">
+    <row ht="16" r="36" spans="1:5">
       <c r="A36" s="17" t="s">
         <v>119</v>
       </c>
@@ -10120,7 +10127,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16">
+    <row ht="16" r="37" spans="1:5">
       <c r="A37" s="17" t="s">
         <v>119</v>
       </c>
@@ -10137,7 +10144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16">
+    <row ht="16" r="38" spans="1:5">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -10154,7 +10161,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16">
+    <row ht="16" r="39" spans="1:5">
       <c r="A39" s="17" t="s">
         <v>119</v>
       </c>
@@ -10171,7 +10178,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16">
+    <row ht="16" r="40" spans="1:5">
       <c r="A40" s="17" t="s">
         <v>119</v>
       </c>
@@ -10188,7 +10195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16">
+    <row ht="16" r="41" spans="1:5">
       <c r="A41" s="17" t="s">
         <v>119</v>
       </c>
@@ -10205,7 +10212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16">
+    <row ht="16" r="42" spans="1:5">
       <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
@@ -10222,7 +10229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16">
+    <row ht="16" r="43" spans="1:5">
       <c r="A43" s="17" t="s">
         <v>119</v>
       </c>
@@ -10239,7 +10246,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16">
+    <row ht="16" r="44" spans="1:5">
       <c r="A44" s="17" t="s">
         <v>119</v>
       </c>
@@ -10256,7 +10263,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16">
+    <row ht="16" r="45" spans="1:5">
       <c r="A45" s="17" t="s">
         <v>119</v>
       </c>
@@ -10273,7 +10280,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16">
+    <row ht="16" r="46" spans="1:5">
       <c r="A46" s="17" t="s">
         <v>119</v>
       </c>
@@ -10290,7 +10297,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16">
+    <row ht="16" r="47" spans="1:5">
       <c r="A47" s="17" t="s">
         <v>119</v>
       </c>
@@ -10307,7 +10314,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16">
+    <row ht="16" r="48" spans="1:5">
       <c r="A48" s="17" t="s">
         <v>119</v>
       </c>
@@ -10324,7 +10331,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16">
+    <row ht="16" r="49" spans="1:5">
       <c r="A49" s="17" t="s">
         <v>119</v>
       </c>
@@ -10341,7 +10348,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16">
+    <row ht="16" r="50" spans="1:5">
       <c r="A50" s="17" t="s">
         <v>119</v>
       </c>
@@ -10358,7 +10365,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16">
+    <row ht="16" r="51" spans="1:5">
       <c r="A51" s="17" t="s">
         <v>119</v>
       </c>
@@ -10375,7 +10382,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16">
+    <row ht="16" r="52" spans="1:5">
       <c r="A52" s="17" t="s">
         <v>119</v>
       </c>
@@ -10392,7 +10399,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16">
+    <row ht="16" r="53" spans="1:5">
       <c r="A53" s="21" t="s">
         <v>91</v>
       </c>
@@ -10409,7 +10416,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16">
+    <row ht="16" r="54" spans="1:5">
       <c r="A54" s="17" t="s">
         <v>119</v>
       </c>
@@ -10426,7 +10433,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16">
+    <row ht="16" r="55" spans="1:5">
       <c r="A55" s="21" t="s">
         <v>91</v>
       </c>
@@ -10443,7 +10450,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16">
+    <row ht="16" r="56" spans="1:5">
       <c r="A56" s="17" t="s">
         <v>119</v>
       </c>
@@ -10460,7 +10467,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16">
+    <row ht="16" r="57" spans="1:5">
       <c r="A57" s="21" t="s">
         <v>91</v>
       </c>
@@ -10477,7 +10484,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16">
+    <row ht="16" r="58" spans="1:5">
       <c r="A58" s="21" t="s">
         <v>91</v>
       </c>
@@ -10494,7 +10501,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16">
+    <row ht="16" r="59" spans="1:5">
       <c r="A59" s="17" t="s">
         <v>119</v>
       </c>
@@ -10511,7 +10518,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16">
+    <row ht="16" r="60" spans="1:5">
       <c r="A60" s="21" t="s">
         <v>91</v>
       </c>
@@ -10528,7 +10535,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16">
+    <row ht="16" r="61" spans="1:5">
       <c r="A61" s="21" t="s">
         <v>91</v>
       </c>
@@ -10545,7 +10552,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16">
+    <row ht="16" r="62" spans="1:5">
       <c r="A62" s="17" t="s">
         <v>119</v>
       </c>
@@ -10562,7 +10569,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16">
+    <row ht="16" r="63" spans="1:5">
       <c r="A63" s="17" t="s">
         <v>119</v>
       </c>
@@ -10579,7 +10586,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16">
+    <row ht="16" r="64" spans="1:5">
       <c r="A64" s="17" t="s">
         <v>119</v>
       </c>
@@ -10596,7 +10603,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16">
+    <row ht="16" r="65" spans="1:5">
       <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
@@ -10613,7 +10620,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16">
+    <row ht="16" r="66" spans="1:5">
       <c r="A66" s="17" t="s">
         <v>119</v>
       </c>
@@ -10631,12 +10638,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10645,7 +10652,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row ht="16" r="1" spans="1:6">
       <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
@@ -10665,7 +10672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row ht="16" r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -10683,12 +10690,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10697,8 +10704,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="25.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10712,7 +10719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row ht="16" r="2" spans="1:3">
       <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
@@ -10723,7 +10730,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row ht="16" r="3" spans="1:3">
       <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
@@ -10734,7 +10741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row ht="16" r="4" spans="1:3">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -10745,7 +10752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row ht="16" r="5" spans="1:3">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -10868,7 +10875,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="16">
+    <row ht="16" r="20" spans="2:3">
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
@@ -10877,12 +10884,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10891,13 +10898,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row ht="16" r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -10914,7 +10921,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row ht="16" r="2" spans="1:5">
       <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
@@ -10931,7 +10938,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row ht="16" r="3" spans="1:5">
       <c r="A3" s="43" t="s">
         <v>478</v>
       </c>
@@ -10948,7 +10955,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row ht="16" r="4" spans="1:5">
       <c r="A4" s="43" t="s">
         <v>69</v>
       </c>
@@ -10966,6 +10973,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="699">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2140,6 +2140,9 @@
   </si>
   <si>
     <t>220621012789</t>
+  </si>
+  <si>
+    <t>220621012792</t>
   </si>
 </sst>
 </file>
@@ -9485,7 +9488,7 @@
         <v>233</v>
       </c>
       <c r="BG2" s="75" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A9E68C71-A4A2-5646-97CA-62728A46D560}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="1" windowHeight="11120" windowWidth="34680" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView activeTab="13" firstSheet="13" windowHeight="11115" windowWidth="34680" xWindow="0" yWindow="495"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
@@ -31,7 +30,7 @@
     <sheet name="State Queue Mapping" r:id="rId16" sheetId="18"/>
     <sheet name="Transfer To Queue" r:id="rId17" sheetId="21"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1526,12 +1525,6 @@
     <t>SIM Bar Unbar</t>
   </si>
   <si>
-    <t>SIM Lost</t>
-  </si>
-  <si>
-    <t>SIM Broken</t>
-  </si>
-  <si>
     <t>Queue Name</t>
   </si>
   <si>
@@ -2133,19 +2126,25 @@
     <t>Ticket Field 7 - Label</t>
   </si>
   <si>
-    <t>160621012721</t>
-  </si>
-  <si>
-    <t>210621012785</t>
-  </si>
-  <si>
     <t>220621012789</t>
+  </si>
+  <si>
+    <t>Customer Request</t>
+  </si>
+  <si>
+    <t>Customer wants to use Pay as you go</t>
+  </si>
+  <si>
+    <t>220621012799</t>
+  </si>
+  <si>
+    <t>220621012800</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="17">
     <font>
@@ -2525,10 +2524,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 4 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -3098,20 +3097,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3161,36 +3160,36 @@
         <v>14</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row ht="17" r="2" spans="1:17">
+        <v>587</v>
+      </c>
+    </row>
+    <row ht="16.5" r="2" spans="1:17">
       <c r="A2" s="39">
         <v>2388008</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C2" t="s">
         <v>463</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q2" s="56" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3198,7 +3197,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
         <v>464</v>
@@ -3212,22 +3211,22 @@
       </c>
       <c r="Q3" s="39"/>
     </row>
-    <row ht="17" r="4" spans="1:17">
+    <row ht="16.5" r="4" spans="1:17">
       <c r="A4" s="39">
         <v>2390932</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C4" t="s">
         <v>465</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q4" s="39"/>
     </row>
@@ -3236,7 +3235,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C5" t="s">
         <v>466</v>
@@ -3246,7 +3245,7 @@
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q5" s="39"/>
     </row>
@@ -3257,21 +3256,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:3">
+    <row ht="15.75" r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:3">
+    <row ht="15.75" r="2" spans="1:3">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row ht="16" r="3" spans="1:3">
+    <row ht="15.75" r="3" spans="1:3">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3300,7 +3299,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row ht="16" r="4" spans="1:3">
+    <row ht="15.75" r="4" spans="1:3">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -3309,7 +3308,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row ht="16" r="5" spans="1:3">
+    <row ht="15.75" r="5" spans="1:3">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -3318,7 +3317,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row ht="16" r="6" spans="1:3">
+    <row ht="15.75" r="6" spans="1:3">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -3335,17 +3334,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="35.33203125" collapsed="true"/>
-    <col min="2" max="16384" style="1" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="35.28515625" collapsed="true"/>
+    <col min="2" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3401,21 +3400,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="42.5" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="31.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3441,98 +3440,98 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="22.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="49" width="12.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="49" width="13.1640625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="49" width="11.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="49" width="12.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="49" width="11.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="49" width="11.5" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="49" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="49" width="13.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="49" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="49" width="12.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="49" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="49" width="11.42578125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="49" width="12.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="49" width="13.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="49" width="13.5" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="9.1640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="49" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="49" width="13.42578125" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="17" r="1" spans="1:13">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="49" t="s">
         <v>510</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="L1" s="49" t="s">
+    </row>
+    <row ht="141.75" r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="B2" s="1" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row ht="153" r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>527</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -3541,21 +3540,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
-    <col min="2" max="2" style="1" width="9.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="12.5" collapsed="true"/>
-    <col min="4" max="6" style="1" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="4" max="6" style="1" width="9.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="1" width="16.0" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.1640625" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3581,13 +3580,13 @@
         <v>492</v>
       </c>
       <c r="H1" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>616</v>
+      </c>
+      <c r="J1" s="60" t="s">
         <v>617</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>618</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3595,10 +3594,10 @@
         <v>493</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>494</v>
+        <v>694</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>495</v>
+        <v>695</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
@@ -3606,7 +3605,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="58" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -3615,10 +3614,10 @@
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J3" s="58" t="b">
         <v>0</v>
@@ -3627,7 +3626,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="58" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -3643,7 +3642,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="58" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
@@ -3659,7 +3658,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="58" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -3675,7 +3674,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="58" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -3691,7 +3690,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="58" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -3707,7 +3706,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -3723,7 +3722,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="58" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
@@ -3739,7 +3738,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="58" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -3750,12 +3749,12 @@
       <c r="H11" s="58"/>
       <c r="I11" s="58"/>
       <c r="J11" s="58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="58" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -3771,7 +3770,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
@@ -3792,178 +3791,178 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="63" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="63" width="27.1640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="63" width="19.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="63" width="27.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="63" width="41.0" collapsed="true"/>
-    <col min="4" max="16384" style="63" width="10.83203125" collapsed="true"/>
+    <col min="4" max="16384" style="63" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="17" r="1" spans="1:3">
+    <row ht="15.75" r="1" spans="1:3">
       <c r="A1" s="62" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="62" t="s">
+    </row>
+    <row ht="15.75" r="2" spans="1:3">
+      <c r="A2" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="B2" s="62" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row ht="17" r="2" spans="1:3">
-      <c r="A2" s="62" t="s">
+      <c r="C2" s="62" t="s">
         <v>635</v>
       </c>
-      <c r="B2" s="62" t="s">
+    </row>
+    <row ht="47.25" r="3" spans="1:3">
+      <c r="A3" s="62" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="B3" s="62" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row ht="51" r="3" spans="1:3">
-      <c r="A3" s="62" t="s">
+      <c r="C3" s="62" t="s">
         <v>638</v>
       </c>
-      <c r="B3" s="62" t="s">
+    </row>
+    <row ht="15.75" r="4" spans="1:3">
+      <c r="A4" s="62" t="s">
         <v>639</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="B4" s="62" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row ht="17" r="4" spans="1:3">
-      <c r="A4" s="62" t="s">
+      <c r="C4" s="62" t="s">
         <v>641</v>
       </c>
-      <c r="B4" s="62" t="s">
+    </row>
+    <row ht="15.75" r="5" spans="1:3">
+      <c r="A5" s="62" t="s">
         <v>642</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="B5" s="62" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row ht="17" r="5" spans="1:3">
-      <c r="A5" s="62" t="s">
+      <c r="C5" s="62" t="s">
         <v>644</v>
       </c>
-      <c r="B5" s="62" t="s">
+    </row>
+    <row ht="31.5" r="6" spans="1:3">
+      <c r="A6" s="62" t="s">
         <v>645</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="B6" s="62" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row ht="34" r="6" spans="1:3">
-      <c r="A6" s="62" t="s">
+      <c r="C6" s="64"/>
+    </row>
+    <row ht="47.25" r="7" spans="1:3">
+      <c r="A7" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B7" s="62" t="s">
         <v>648</v>
       </c>
-      <c r="C6" s="64"/>
-    </row>
-    <row ht="34" r="7" spans="1:3">
-      <c r="A7" s="62" t="s">
+      <c r="C7" s="62" t="s">
         <v>649</v>
       </c>
-      <c r="B7" s="62" t="s">
+    </row>
+    <row ht="47.25" r="8" spans="1:3">
+      <c r="A8" s="62" t="s">
         <v>650</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="B8" s="62" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row ht="34" r="8" spans="1:3">
-      <c r="A8" s="62" t="s">
+      <c r="C8" s="62" t="s">
         <v>652</v>
       </c>
-      <c r="B8" s="62" t="s">
+    </row>
+    <row ht="47.25" r="9" spans="1:3">
+      <c r="A9" s="62" t="s">
         <v>653</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="B9" s="62" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row ht="51" r="9" spans="1:3">
-      <c r="A9" s="62" t="s">
+      <c r="C9" s="62" t="s">
         <v>655</v>
       </c>
-      <c r="B9" s="62" t="s">
+    </row>
+    <row ht="47.25" r="10" spans="1:3">
+      <c r="A10" s="62" t="s">
         <v>656</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="B10" s="62" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row ht="51" r="10" spans="1:3">
-      <c r="A10" s="62" t="s">
+      <c r="C10" s="62" t="s">
         <v>658</v>
       </c>
-      <c r="B10" s="62" t="s">
+    </row>
+    <row ht="47.25" r="11" spans="1:3">
+      <c r="A11" s="62" t="s">
         <v>659</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="B11" s="62" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row ht="51" r="11" spans="1:3">
-      <c r="A11" s="62" t="s">
+      <c r="C11" s="62" t="s">
         <v>661</v>
       </c>
-      <c r="B11" s="62" t="s">
+    </row>
+    <row ht="47.25" r="12" spans="1:3">
+      <c r="A12" s="62" t="s">
         <v>662</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="B12" s="62" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row ht="34" r="12" spans="1:3">
-      <c r="A12" s="62" t="s">
+      <c r="C12" s="62" t="s">
         <v>664</v>
       </c>
-      <c r="B12" s="62" t="s">
+    </row>
+    <row ht="15.75" r="13" spans="1:3">
+      <c r="A13" s="62" t="s">
         <v>665</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="B13" s="62" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row ht="17" r="13" spans="1:3">
-      <c r="A13" s="62" t="s">
+      <c r="C13" s="64"/>
+    </row>
+    <row ht="31.5" r="14" spans="1:3">
+      <c r="A14" s="62" t="s">
         <v>667</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B14" s="62" t="s">
         <v>668</v>
       </c>
-      <c r="C13" s="64"/>
-    </row>
-    <row ht="34" r="14" spans="1:3">
-      <c r="A14" s="62" t="s">
+      <c r="C14" s="64"/>
+    </row>
+    <row ht="31.5" r="15" spans="1:3">
+      <c r="A15" s="62" t="s">
         <v>669</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B15" s="62" t="s">
         <v>670</v>
       </c>
-      <c r="C14" s="64"/>
-    </row>
-    <row ht="34" r="15" spans="1:3">
-      <c r="A15" s="62" t="s">
+      <c r="C15" s="62" t="s">
         <v>671</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>672</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -3972,60 +3971,60 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="47" width="22.0" collapsed="true"/>
-    <col min="2" max="2" style="47" width="9.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="47" width="15.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="47" width="13.1640625" collapsed="true"/>
-    <col min="5" max="16384" style="47" width="9.1640625" collapsed="true"/>
+    <col min="2" max="2" style="47" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="47" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="47" width="13.140625" collapsed="true"/>
+    <col min="5" max="16384" style="47" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="J1" s="46" t="s">
+    </row>
+    <row ht="15.75" r="2" spans="1:11">
+      <c r="A2" s="15" t="s">
         <v>505</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row ht="16" r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
-        <v>507</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>57</v>
@@ -4044,7 +4043,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
     </row>
-    <row ht="16" r="3" spans="1:11">
+    <row ht="15.75" r="3" spans="1:11">
       <c r="A3" s="15" t="s">
         <v>485</v>
       </c>
@@ -4065,9 +4064,9 @@
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
     </row>
-    <row ht="16" r="4" spans="1:11">
+    <row ht="15.75" r="4" spans="1:11">
       <c r="A4" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>57</v>
@@ -4093,18 +4092,18 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="26.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.5" collapsed="true"/>
-    <col min="3" max="16384" style="1" width="10.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4115,7 +4114,7 @@
         <v>484</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4158,19 +4157,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:1">
+    <row ht="15.75" r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4211,25 +4210,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.7109375" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4262,19 +4261,19 @@
         <v>24</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row ht="16" r="2" spans="1:13">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="39" t="s">
         <v>72</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>439</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
@@ -4328,12 +4327,12 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
     </row>
-    <row ht="16" r="4" spans="1:13">
+    <row r="4" spans="1:13">
       <c r="A4" s="39" t="s">
         <v>440</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>438</v>
@@ -4342,7 +4341,7 @@
         <v>441</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>435</v>
@@ -4381,7 +4380,7 @@
         <v>447</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -4494,22 +4493,22 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="E10" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="F10" s="39" t="s">
         <v>541</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>542</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>543</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -4521,22 +4520,22 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="52" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="D11" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>547</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>549</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -4548,28 +4547,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="D12" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="E12" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>555</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>556</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>557</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -4579,19 +4578,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="39" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>402</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>559</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>561</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -4602,12 +4601,12 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row ht="16" r="14" spans="1:13">
+    <row r="14" spans="1:13">
       <c r="A14" s="52" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>438</v>
@@ -4616,22 +4615,22 @@
         <v>441</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>435</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>460</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K14" s="52" t="s">
         <v>447</v>
@@ -4641,7 +4640,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>26</v>
@@ -4653,13 +4652,13 @@
         <v>439</v>
       </c>
       <c r="E15" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>568</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>570</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>441</v>
@@ -4672,16 +4671,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>571</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="D16" s="39" t="s">
         <v>572</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>574</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>486</v>
@@ -4697,19 +4696,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>580</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>581</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>582</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>583</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>584</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -4722,19 +4721,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>592</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>606</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>594</v>
-      </c>
       <c r="E18" s="52" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>486</v>
@@ -4747,68 +4746,68 @@
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
     </row>
-    <row ht="32" r="19" spans="1:13">
+    <row ht="45" r="19" spans="1:13">
       <c r="A19" s="52" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>433</v>
       </c>
       <c r="D19" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="F19" s="52" t="s">
         <v>596</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="G19" s="52" t="s">
         <v>597</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>598</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>599</v>
       </c>
       <c r="H19" s="52" t="s">
         <v>434</v>
       </c>
       <c r="I19" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>607</v>
+      </c>
+      <c r="K19" s="55" t="s">
         <v>608</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>609</v>
-      </c>
-      <c r="K19" s="55" t="s">
-        <v>610</v>
       </c>
       <c r="L19" s="52" t="s">
         <v>435</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="52" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>438</v>
       </c>
       <c r="D20" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="F20" s="52" t="s">
         <v>613</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="G20" s="52" t="s">
         <v>614</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>615</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>616</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
@@ -4819,34 +4818,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="39" t="s">
+        <v>672</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="D21" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>676</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>677</v>
-      </c>
       <c r="E21" s="39" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F21" s="39" t="s">
         <v>460</v>
       </c>
       <c r="G21" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I21" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="J21" s="39" t="s">
         <v>679</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>681</v>
       </c>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
@@ -4854,22 +4853,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>683</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>684</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>685</v>
-      </c>
       <c r="D22" s="39" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>460</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>486</v>
@@ -4889,16 +4888,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="AL1" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row ht="16" r="1" spans="1:38">
+    <row ht="15.75" r="1" spans="1:38">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -4969,10 +4968,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Y1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -4984,25 +4983,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>536</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>538</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -5014,7 +5013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:38">
+    <row ht="15.75" r="2" spans="1:38">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:38">
+    <row ht="15.75" r="3" spans="1:38">
       <c r="A3" s="13" t="s">
         <v>239</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="4" spans="1:38">
+    <row ht="15.75" r="4" spans="1:38">
       <c r="A4" s="13" t="s">
         <v>239</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:38">
+    <row ht="15.75" r="5" spans="1:38">
       <c r="A5" s="13" t="s">
         <v>239</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="6" spans="1:38">
+    <row ht="15.75" r="6" spans="1:38">
       <c r="A6" s="13" t="s">
         <v>239</v>
       </c>
@@ -5366,7 +5365,7 @@
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31"/>
     </row>
-    <row ht="16" r="7" spans="1:38">
+    <row ht="15.75" r="7" spans="1:38">
       <c r="A7" s="13" t="s">
         <v>239</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="8" spans="1:38">
+    <row ht="15.75" r="8" spans="1:38">
       <c r="A8" s="13" t="s">
         <v>239</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="9" spans="1:38">
+    <row ht="15.75" r="9" spans="1:38">
       <c r="A9" s="13" t="s">
         <v>239</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="10" spans="1:38">
+    <row ht="15.75" r="10" spans="1:38">
       <c r="A10" s="13" t="s">
         <v>239</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="11" spans="1:38">
+    <row ht="15.75" r="11" spans="1:38">
       <c r="A11" s="13" t="s">
         <v>239</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="12" spans="1:38">
+    <row ht="15.75" r="12" spans="1:38">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="13" spans="1:38">
+    <row ht="15.75" r="13" spans="1:38">
       <c r="A13" s="13" t="s">
         <v>239</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="14" spans="1:38">
+    <row ht="15.75" r="14" spans="1:38">
       <c r="A14" s="13" t="s">
         <v>239</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="15" spans="1:38">
+    <row ht="15.75" r="15" spans="1:38">
       <c r="A15" s="13" t="s">
         <v>239</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="16" spans="1:38">
+    <row ht="15.75" r="16" spans="1:38">
       <c r="A16" s="13" t="s">
         <v>239</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="17" spans="1:37">
+    <row ht="15.75" r="17" spans="1:37">
       <c r="A17" s="13" t="s">
         <v>239</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="18" spans="1:37">
+    <row ht="15.75" r="18" spans="1:37">
       <c r="A18" s="13" t="s">
         <v>239</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="19" spans="1:37">
+    <row ht="15.75" r="19" spans="1:37">
       <c r="A19" s="13" t="s">
         <v>239</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="20" spans="1:37">
+    <row ht="15.75" r="20" spans="1:37">
       <c r="A20" s="13" t="s">
         <v>239</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="21" spans="1:37">
+    <row ht="15.75" r="21" spans="1:37">
       <c r="A21" s="13" t="s">
         <v>239</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="22" spans="1:37">
+    <row ht="15.75" r="22" spans="1:37">
       <c r="A22" s="13" t="s">
         <v>239</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="23" spans="1:37">
+    <row ht="15.75" r="23" spans="1:37">
       <c r="A23" s="13" t="s">
         <v>286</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="24" spans="1:37">
+    <row ht="15.75" r="24" spans="1:37">
       <c r="A24" s="13" t="s">
         <v>286</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="25" spans="1:37">
+    <row ht="15.75" r="25" spans="1:37">
       <c r="A25" s="13" t="s">
         <v>286</v>
       </c>
@@ -6578,7 +6577,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="26" spans="1:37">
+    <row ht="15.75" r="26" spans="1:37">
       <c r="A26" s="13" t="s">
         <v>239</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="27" spans="1:37">
+    <row ht="15.75" r="27" spans="1:37">
       <c r="A27" s="13" t="s">
         <v>295</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="28" spans="1:37">
+    <row ht="15.75" r="28" spans="1:37">
       <c r="A28" s="13" t="s">
         <v>239</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="29" spans="1:37">
+    <row ht="15.75" r="29" spans="1:37">
       <c r="A29" s="13" t="s">
         <v>239</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="30" spans="1:37">
+    <row ht="15.75" r="30" spans="1:37">
       <c r="A30" s="37" t="s">
         <v>295</v>
       </c>
@@ -6876,7 +6875,7 @@
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
     </row>
-    <row ht="16" r="31" spans="1:37">
+    <row ht="15.75" r="31" spans="1:37">
       <c r="A31" s="13" t="s">
         <v>239</v>
       </c>
@@ -6916,7 +6915,7 @@
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
     </row>
-    <row ht="16" r="32" spans="1:37">
+    <row ht="15.75" r="32" spans="1:37">
       <c r="A32" s="13" t="s">
         <v>307</v>
       </c>
@@ -6960,7 +6959,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="33" spans="1:37">
+    <row ht="15.75" r="33" spans="1:37">
       <c r="A33" s="25" t="s">
         <v>307</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="34" spans="1:37">
+    <row ht="15.75" r="34" spans="1:37">
       <c r="A34" s="25" t="s">
         <v>307</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="35" spans="1:37">
+    <row ht="15.75" r="35" spans="1:37">
       <c r="A35" s="25" t="s">
         <v>307</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="36" spans="1:37">
+    <row ht="15.75" r="36" spans="1:37">
       <c r="A36" s="25" t="s">
         <v>307</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="37" spans="1:37">
+    <row ht="15.75" r="37" spans="1:37">
       <c r="A37" s="41" t="s">
         <v>307</v>
       </c>
@@ -7216,7 +7215,7 @@
       <c r="AJ38" s="39"/>
       <c r="AK38" s="39"/>
     </row>
-    <row ht="16" r="39" spans="1:37">
+    <row ht="15.75" r="39" spans="1:37">
       <c r="A39" s="13" t="s">
         <v>307</v>
       </c>
@@ -7256,7 +7255,7 @@
       <c r="AJ39" s="39"/>
       <c r="AK39" s="39"/>
     </row>
-    <row ht="16" r="40" spans="1:37">
+    <row ht="15.75" r="40" spans="1:37">
       <c r="A40" s="13" t="s">
         <v>307</v>
       </c>
@@ -7308,7 +7307,7 @@
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
     </row>
-    <row ht="16" r="41" spans="1:37">
+    <row ht="15.75" r="41" spans="1:37">
       <c r="A41" s="13" t="s">
         <v>295</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="42" spans="1:37">
+    <row ht="15.75" r="42" spans="1:37">
       <c r="A42" s="13" t="s">
         <v>295</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="43" spans="1:37">
+    <row ht="15.75" r="43" spans="1:37">
       <c r="A43" s="13" t="s">
         <v>295</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="44" spans="1:37">
+    <row ht="15.75" r="44" spans="1:37">
       <c r="A44" s="13" t="s">
         <v>295</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="45" spans="1:37">
+    <row ht="15.75" r="45" spans="1:37">
       <c r="A45" s="13" t="s">
         <v>295</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="46" spans="1:37">
+    <row ht="15.75" r="46" spans="1:37">
       <c r="A46" s="13" t="s">
         <v>295</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="47" spans="1:37">
+    <row ht="15.75" r="47" spans="1:37">
       <c r="A47" s="13" t="s">
         <v>295</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="48" spans="1:37">
+    <row ht="15.75" r="48" spans="1:37">
       <c r="A48" s="13" t="s">
         <v>295</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="49" spans="1:37">
+    <row ht="15.75" r="49" spans="1:37">
       <c r="A49" s="13" t="s">
         <v>295</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="50" spans="1:37">
+    <row ht="15.75" r="50" spans="1:37">
       <c r="A50" s="13" t="s">
         <v>295</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="51" spans="1:37">
+    <row ht="15.75" r="51" spans="1:37">
       <c r="A51" s="13" t="s">
         <v>295</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="52" spans="1:37">
+    <row ht="15.75" r="52" spans="1:37">
       <c r="A52" s="13" t="s">
         <v>295</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="53" spans="1:37">
+    <row ht="15.75" r="53" spans="1:37">
       <c r="A53" s="13" t="s">
         <v>295</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="54" spans="1:37">
+    <row ht="15.75" r="54" spans="1:37">
       <c r="A54" s="13" t="s">
         <v>295</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="55" spans="1:37">
+    <row ht="15.75" r="55" spans="1:37">
       <c r="A55" s="13" t="s">
         <v>295</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="56" spans="1:37">
+    <row ht="15.75" r="56" spans="1:37">
       <c r="A56" s="13" t="s">
         <v>295</v>
       </c>
@@ -8208,7 +8207,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="57" spans="1:37">
+    <row ht="15.75" r="57" spans="1:37">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="58" spans="1:37">
+    <row ht="15.75" r="58" spans="1:37">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="59" spans="1:37">
+    <row ht="15.75" r="59" spans="1:37">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -8340,7 +8339,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="60" spans="1:37">
+    <row ht="15.75" r="60" spans="1:37">
       <c r="A60" s="13" t="s">
         <v>295</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="61" spans="1:37">
+    <row ht="15.75" r="61" spans="1:37">
       <c r="A61" s="13" t="s">
         <v>295</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="62" spans="1:37">
+    <row ht="15.75" r="62" spans="1:37">
       <c r="A62" s="13" t="s">
         <v>295</v>
       </c>
@@ -8476,7 +8475,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="63" spans="1:37">
+    <row ht="15.75" r="63" spans="1:37">
       <c r="A63" s="13" t="s">
         <v>295</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="64" spans="1:37">
+    <row ht="15.75" r="64" spans="1:37">
       <c r="A64" s="13" t="s">
         <v>295</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="65" spans="1:37">
+    <row ht="15.75" r="65" spans="1:37">
       <c r="A65" s="13" t="s">
         <v>295</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="66" spans="1:37">
+    <row ht="15.75" r="66" spans="1:37">
       <c r="A66" s="13" t="s">
         <v>295</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="67" spans="1:37">
+    <row ht="15.75" r="67" spans="1:37">
       <c r="A67" s="13" t="s">
         <v>295</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="68" spans="1:37">
+    <row ht="15.75" r="68" spans="1:37">
       <c r="A68" s="13" t="s">
         <v>295</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="69" spans="1:37">
+    <row ht="15.75" r="69" spans="1:37">
       <c r="A69" s="13" t="s">
         <v>295</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="70" spans="1:37">
+    <row ht="15.75" r="70" spans="1:37">
       <c r="A70" s="13" t="s">
         <v>295</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="71" spans="1:37">
+    <row ht="15.75" r="71" spans="1:37">
       <c r="A71" s="13" t="s">
         <v>295</v>
       </c>
@@ -8944,7 +8943,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="72" spans="1:37">
+    <row ht="15.75" r="72" spans="1:37">
       <c r="A72" s="13" t="s">
         <v>295</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="73" spans="1:37">
+    <row ht="15.75" r="73" spans="1:37">
       <c r="A73" s="13" t="s">
         <v>295</v>
       </c>
@@ -9040,7 +9039,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="16" r="74" spans="1:37">
+    <row ht="15.75" r="74" spans="1:37">
       <c r="A74" s="13" t="s">
         <v>295</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="75" spans="1:37">
+    <row ht="15.75" r="75" spans="1:37">
       <c r="A75" s="13" t="s">
         <v>295</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="16" r="76" spans="1:37">
+    <row ht="15.75" r="76" spans="1:37">
       <c r="A76" s="13" t="s">
         <v>295</v>
       </c>
@@ -9206,19 +9205,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AM1" workbookViewId="0">
       <selection activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="63" width="8.83203125" collapsed="true"/>
+    <col min="1" max="16384" style="63" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="51" r="1" spans="1:59">
+    <row ht="63" r="1" spans="1:59">
       <c r="A1" s="65" t="s">
         <v>25</v>
       </c>
@@ -9289,25 +9288,25 @@
         <v>32</v>
       </c>
       <c r="X1" s="63" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Y1" s="63" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Z1" s="63" t="s">
         <v>32</v>
       </c>
       <c r="AA1" s="63" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AB1" s="63" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AC1" s="66" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="66" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AE1" s="66" t="s">
         <v>34</v>
@@ -9316,7 +9315,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="66" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AH1" s="66" t="s">
         <v>36</v>
@@ -9325,7 +9324,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="63" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AK1" s="63" t="s">
         <v>38</v>
@@ -9334,7 +9333,7 @@
         <v>32</v>
       </c>
       <c r="AM1" s="63" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AN1" s="63" t="s">
         <v>40</v>
@@ -9343,7 +9342,7 @@
         <v>32</v>
       </c>
       <c r="AP1" s="63" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AQ1" s="63" t="s">
         <v>462</v>
@@ -9352,10 +9351,10 @@
         <v>32</v>
       </c>
       <c r="AS1" s="63" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AT1" s="63" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AU1" s="63" t="s">
         <v>32</v>
@@ -9367,25 +9366,25 @@
         <v>42</v>
       </c>
       <c r="AX1" s="63" t="s">
+        <v>530</v>
+      </c>
+      <c r="AY1" s="63" t="s">
+        <v>531</v>
+      </c>
+      <c r="AZ1" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="AY1" s="63" t="s">
+      <c r="BA1" s="63" t="s">
         <v>533</v>
       </c>
-      <c r="AZ1" s="63" t="s">
+      <c r="BB1" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="BA1" s="63" t="s">
+      <c r="BC1" s="63" t="s">
         <v>535</v>
       </c>
-      <c r="BB1" s="63" t="s">
+      <c r="BD1" s="63" t="s">
         <v>536</v>
-      </c>
-      <c r="BC1" s="63" t="s">
-        <v>537</v>
-      </c>
-      <c r="BD1" s="63" t="s">
-        <v>538</v>
       </c>
       <c r="BE1" s="63" t="s">
         <v>43</v>
@@ -9397,7 +9396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="85" r="2" spans="1:59">
+    <row ht="94.5" r="2" spans="1:59">
       <c r="A2" s="68" t="s">
         <v>295</v>
       </c>
@@ -9495,24 +9494,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:6">
+    <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:6">
+    <row ht="15.75" r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -9549,7 +9548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:6">
+    <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>97</v>
       </c>
     </row>
-    <row ht="16" r="4" spans="1:6">
+    <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:6">
+    <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="16" r="6" spans="1:6">
+    <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>105</v>
       </c>
     </row>
-    <row ht="16" r="7" spans="1:6">
+    <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>107</v>
       </c>
     </row>
-    <row ht="16" r="8" spans="1:6">
+    <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="21" t="s">
         <v>91</v>
       </c>
@@ -9651,7 +9650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row ht="16" r="9" spans="1:6">
+    <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="21" t="s">
         <v>91</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>112</v>
       </c>
     </row>
-    <row ht="16" r="10" spans="1:6">
+    <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>114</v>
       </c>
     </row>
-    <row ht="16" r="11" spans="1:6">
+    <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="21" t="s">
         <v>91</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="16" r="12" spans="1:6">
+    <row ht="15.75" r="12" spans="1:6">
       <c r="A12" s="17" t="s">
         <v>119</v>
       </c>
@@ -9719,7 +9718,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="16" r="13" spans="1:6">
+    <row ht="15.75" r="13" spans="1:6">
       <c r="A13" s="17" t="s">
         <v>119</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row ht="16" r="14" spans="1:6">
+    <row ht="15.75" r="14" spans="1:6">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row ht="16" r="15" spans="1:6">
+    <row ht="15.75" r="15" spans="1:6">
       <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
@@ -9770,7 +9769,7 @@
         <v>128</v>
       </c>
     </row>
-    <row ht="16" r="16" spans="1:6">
+    <row ht="15.75" r="16" spans="1:6">
       <c r="A16" s="17" t="s">
         <v>119</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>130</v>
       </c>
     </row>
-    <row ht="16" r="17" spans="1:5">
+    <row ht="15.75" r="17" spans="1:5">
       <c r="A17" s="17" t="s">
         <v>119</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>132</v>
       </c>
     </row>
-    <row ht="16" r="18" spans="1:5">
+    <row ht="15.75" r="18" spans="1:5">
       <c r="A18" s="17" t="s">
         <v>119</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>134</v>
       </c>
     </row>
-    <row ht="16" r="19" spans="1:5">
+    <row ht="15.75" r="19" spans="1:5">
       <c r="A19" s="17" t="s">
         <v>119</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>136</v>
       </c>
     </row>
-    <row ht="16" r="20" spans="1:5">
+    <row ht="15.75" r="20" spans="1:5">
       <c r="A20" s="17" t="s">
         <v>119</v>
       </c>
@@ -9855,7 +9854,7 @@
         <v>138</v>
       </c>
     </row>
-    <row ht="16" r="21" spans="1:5">
+    <row ht="15.75" r="21" spans="1:5">
       <c r="A21" s="17" t="s">
         <v>119</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>140</v>
       </c>
     </row>
-    <row ht="16" r="22" spans="1:5">
+    <row ht="15.75" r="22" spans="1:5">
       <c r="A22" s="17" t="s">
         <v>119</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>142</v>
       </c>
     </row>
-    <row ht="16" r="23" spans="1:5">
+    <row ht="15.75" r="23" spans="1:5">
       <c r="A23" s="17" t="s">
         <v>119</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>144</v>
       </c>
     </row>
-    <row ht="16" r="24" spans="1:5">
+    <row ht="15.75" r="24" spans="1:5">
       <c r="A24" s="17" t="s">
         <v>119</v>
       </c>
@@ -9923,7 +9922,7 @@
         <v>146</v>
       </c>
     </row>
-    <row ht="16" r="25" spans="1:5">
+    <row ht="15.75" r="25" spans="1:5">
       <c r="A25" s="17" t="s">
         <v>119</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>148</v>
       </c>
     </row>
-    <row ht="16" r="26" spans="1:5">
+    <row ht="15.75" r="26" spans="1:5">
       <c r="A26" s="17" t="s">
         <v>119</v>
       </c>
@@ -9957,7 +9956,7 @@
         <v>150</v>
       </c>
     </row>
-    <row ht="16" r="27" spans="1:5">
+    <row ht="15.75" r="27" spans="1:5">
       <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="16" r="28" spans="1:5">
+    <row ht="15.75" r="28" spans="1:5">
       <c r="A28" s="17" t="s">
         <v>119</v>
       </c>
@@ -9991,7 +9990,7 @@
         <v>155</v>
       </c>
     </row>
-    <row ht="16" r="29" spans="1:5">
+    <row ht="15.75" r="29" spans="1:5">
       <c r="A29" s="17" t="s">
         <v>119</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row ht="16" r="30" spans="1:5">
+    <row ht="15.75" r="30" spans="1:5">
       <c r="A30" s="17" t="s">
         <v>119</v>
       </c>
@@ -10025,7 +10024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row ht="16" r="31" spans="1:5">
+    <row ht="15.75" r="31" spans="1:5">
       <c r="A31" s="17" t="s">
         <v>119</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="16" r="32" spans="1:5">
+    <row ht="15.75" r="32" spans="1:5">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>163</v>
       </c>
     </row>
-    <row ht="16" r="33" spans="1:5">
+    <row ht="15.75" r="33" spans="1:5">
       <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>165</v>
       </c>
     </row>
-    <row ht="16" r="34" spans="1:5">
+    <row ht="15.75" r="34" spans="1:5">
       <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>167</v>
       </c>
     </row>
-    <row ht="16" r="35" spans="1:5">
+    <row ht="15.75" r="35" spans="1:5">
       <c r="A35" s="17" t="s">
         <v>119</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>169</v>
       </c>
     </row>
-    <row ht="16" r="36" spans="1:5">
+    <row ht="15.75" r="36" spans="1:5">
       <c r="A36" s="17" t="s">
         <v>119</v>
       </c>
@@ -10127,7 +10126,7 @@
         <v>171</v>
       </c>
     </row>
-    <row ht="16" r="37" spans="1:5">
+    <row ht="15.75" r="37" spans="1:5">
       <c r="A37" s="17" t="s">
         <v>119</v>
       </c>
@@ -10144,7 +10143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="16" r="38" spans="1:5">
+    <row ht="15.75" r="38" spans="1:5">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -10161,7 +10160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="16" r="39" spans="1:5">
+    <row ht="15.75" r="39" spans="1:5">
       <c r="A39" s="17" t="s">
         <v>119</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>176</v>
       </c>
     </row>
-    <row ht="16" r="40" spans="1:5">
+    <row ht="15.75" r="40" spans="1:5">
       <c r="A40" s="17" t="s">
         <v>119</v>
       </c>
@@ -10195,7 +10194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="16" r="41" spans="1:5">
+    <row ht="15.75" r="41" spans="1:5">
       <c r="A41" s="17" t="s">
         <v>119</v>
       </c>
@@ -10212,7 +10211,7 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="16" r="42" spans="1:5">
+    <row ht="15.75" r="42" spans="1:5">
       <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
@@ -10229,7 +10228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="16" r="43" spans="1:5">
+    <row ht="15.75" r="43" spans="1:5">
       <c r="A43" s="17" t="s">
         <v>119</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>182</v>
       </c>
     </row>
-    <row ht="16" r="44" spans="1:5">
+    <row ht="15.75" r="44" spans="1:5">
       <c r="A44" s="17" t="s">
         <v>119</v>
       </c>
@@ -10263,7 +10262,7 @@
         <v>184</v>
       </c>
     </row>
-    <row ht="16" r="45" spans="1:5">
+    <row ht="15.75" r="45" spans="1:5">
       <c r="A45" s="17" t="s">
         <v>119</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row ht="16" r="46" spans="1:5">
+    <row ht="15.75" r="46" spans="1:5">
       <c r="A46" s="17" t="s">
         <v>119</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>189</v>
       </c>
     </row>
-    <row ht="16" r="47" spans="1:5">
+    <row ht="15.75" r="47" spans="1:5">
       <c r="A47" s="17" t="s">
         <v>119</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row ht="16" r="48" spans="1:5">
+    <row ht="15.75" r="48" spans="1:5">
       <c r="A48" s="17" t="s">
         <v>119</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>193</v>
       </c>
     </row>
-    <row ht="16" r="49" spans="1:5">
+    <row ht="15.75" r="49" spans="1:5">
       <c r="A49" s="17" t="s">
         <v>119</v>
       </c>
@@ -10348,7 +10347,7 @@
         <v>195</v>
       </c>
     </row>
-    <row ht="16" r="50" spans="1:5">
+    <row ht="15.75" r="50" spans="1:5">
       <c r="A50" s="17" t="s">
         <v>119</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>197</v>
       </c>
     </row>
-    <row ht="16" r="51" spans="1:5">
+    <row ht="15.75" r="51" spans="1:5">
       <c r="A51" s="17" t="s">
         <v>119</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row ht="16" r="52" spans="1:5">
+    <row ht="15.75" r="52" spans="1:5">
       <c r="A52" s="17" t="s">
         <v>119</v>
       </c>
@@ -10399,7 +10398,7 @@
         <v>201</v>
       </c>
     </row>
-    <row ht="16" r="53" spans="1:5">
+    <row ht="15.75" r="53" spans="1:5">
       <c r="A53" s="21" t="s">
         <v>91</v>
       </c>
@@ -10416,7 +10415,7 @@
         <v>203</v>
       </c>
     </row>
-    <row ht="16" r="54" spans="1:5">
+    <row ht="15.75" r="54" spans="1:5">
       <c r="A54" s="17" t="s">
         <v>119</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>205</v>
       </c>
     </row>
-    <row ht="16" r="55" spans="1:5">
+    <row ht="15.75" r="55" spans="1:5">
       <c r="A55" s="21" t="s">
         <v>91</v>
       </c>
@@ -10450,7 +10449,7 @@
         <v>207</v>
       </c>
     </row>
-    <row ht="16" r="56" spans="1:5">
+    <row ht="15.75" r="56" spans="1:5">
       <c r="A56" s="17" t="s">
         <v>119</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>209</v>
       </c>
     </row>
-    <row ht="16" r="57" spans="1:5">
+    <row ht="15.75" r="57" spans="1:5">
       <c r="A57" s="21" t="s">
         <v>91</v>
       </c>
@@ -10484,7 +10483,7 @@
         <v>212</v>
       </c>
     </row>
-    <row ht="16" r="58" spans="1:5">
+    <row ht="15.75" r="58" spans="1:5">
       <c r="A58" s="21" t="s">
         <v>91</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>214</v>
       </c>
     </row>
-    <row ht="16" r="59" spans="1:5">
+    <row ht="15.75" r="59" spans="1:5">
       <c r="A59" s="17" t="s">
         <v>119</v>
       </c>
@@ -10518,7 +10517,7 @@
         <v>216</v>
       </c>
     </row>
-    <row ht="16" r="60" spans="1:5">
+    <row ht="15.75" r="60" spans="1:5">
       <c r="A60" s="21" t="s">
         <v>91</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>219</v>
       </c>
     </row>
-    <row ht="16" r="61" spans="1:5">
+    <row ht="15.75" r="61" spans="1:5">
       <c r="A61" s="21" t="s">
         <v>91</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>221</v>
       </c>
     </row>
-    <row ht="16" r="62" spans="1:5">
+    <row ht="15.75" r="62" spans="1:5">
       <c r="A62" s="17" t="s">
         <v>119</v>
       </c>
@@ -10569,7 +10568,7 @@
         <v>223</v>
       </c>
     </row>
-    <row ht="16" r="63" spans="1:5">
+    <row ht="15.75" r="63" spans="1:5">
       <c r="A63" s="17" t="s">
         <v>119</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>225</v>
       </c>
     </row>
-    <row ht="16" r="64" spans="1:5">
+    <row ht="15.75" r="64" spans="1:5">
       <c r="A64" s="17" t="s">
         <v>119</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>227</v>
       </c>
     </row>
-    <row ht="16" r="65" spans="1:5">
+    <row ht="15.75" r="65" spans="1:5">
       <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>229</v>
       </c>
     </row>
-    <row ht="16" r="66" spans="1:5">
+    <row ht="15.75" r="66" spans="1:5">
       <c r="A66" s="17" t="s">
         <v>119</v>
       </c>
@@ -10643,16 +10642,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row ht="16" r="1" spans="1:6">
+    <row ht="15.75" r="1" spans="1:6">
       <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:6">
+    <row ht="15.75" r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -10695,17 +10694,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="25.83203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10719,7 +10718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:3">
+    <row ht="15.75" r="2" spans="1:3">
       <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:3">
+    <row ht="15.75" r="3" spans="1:3">
       <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
@@ -10741,7 +10740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="16" r="4" spans="1:3">
+    <row ht="15.75" r="4" spans="1:3">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:3">
+    <row ht="15.75" r="5" spans="1:3">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="16" r="20" spans="2:3">
+    <row ht="15.75" r="20" spans="2:3">
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
@@ -10889,22 +10888,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:5">
+    <row ht="15.75" r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -10918,10 +10917,10 @@
         <v>52</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row ht="16" r="2" spans="1:5">
+        <v>586</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:5">
       <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
@@ -10935,10 +10934,10 @@
         <v>787298771</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row ht="16" r="3" spans="1:5">
+        <v>588</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:5">
       <c r="A3" s="43" t="s">
         <v>478</v>
       </c>
@@ -10952,10 +10951,10 @@
         <v>787298771</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row ht="16" r="4" spans="1:5">
+        <v>588</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:5">
       <c r="A4" s="43" t="s">
         <v>69</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>787298771</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="13" windowHeight="11115" windowWidth="34680" xWindow="0" yWindow="495"/>
+    <workbookView activeTab="1" windowHeight="11115" windowWidth="34680" xWindow="0" yWindow="495"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
-    <sheet name=" Priority" r:id="rId2" sheetId="2"/>
+    <sheet name="Priority" r:id="rId2" sheetId="2"/>
     <sheet name="Headers" r:id="rId3" sheetId="3"/>
     <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="4"/>
     <sheet name="NFTRTickets-San" r:id="rId5" sheetId="11"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="697">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1480,9 +1480,6 @@
     <t>Call Drop</t>
   </si>
   <si>
-    <t>100920000017</t>
-  </si>
-  <si>
     <t>NFTR Issue Code</t>
   </si>
   <si>
@@ -2126,19 +2123,19 @@
     <t>Ticket Field 7 - Label</t>
   </si>
   <si>
-    <t>220621012789</t>
-  </si>
-  <si>
     <t>Customer Request</t>
   </si>
   <si>
     <t>Customer wants to use Pay as you go</t>
   </si>
   <si>
-    <t>220621012799</t>
-  </si>
-  <si>
-    <t>220621012800</t>
+    <t>migrated tickets</t>
+  </si>
+  <si>
+    <t>220621012802</t>
+  </si>
+  <si>
+    <t>220621012804</t>
   </si>
 </sst>
 </file>
@@ -3160,10 +3157,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q1" s="39" t="s">
         <v>586</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>587</v>
       </c>
     </row>
     <row ht="16.5" r="2" spans="1:17">
@@ -3171,25 +3168,25 @@
         <v>2388008</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2" t="s">
         <v>463</v>
       </c>
       <c r="D2" s="54" t="s">
+        <v>587</v>
+      </c>
+      <c r="I2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="I2" s="54" t="s">
-        <v>589</v>
-      </c>
       <c r="O2" s="39" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P2" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q2" s="56" t="s">
         <v>588</v>
-      </c>
-      <c r="Q2" s="56" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3197,7 +3194,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C3" t="s">
         <v>464</v>
@@ -3216,17 +3213,17 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C4" t="s">
         <v>465</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q4" s="39"/>
     </row>
@@ -3235,7 +3232,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" t="s">
         <v>466</v>
@@ -3245,7 +3242,7 @@
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q5" s="39"/>
     </row>
@@ -3260,7 +3257,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3330,6 +3327,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -3419,19 +3417,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3466,72 +3464,72 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>510</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>518</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>519</v>
       </c>
     </row>
     <row ht="141.75" r="2" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>526</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3559,45 +3557,45 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="C1" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="D1" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="E1" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="G1" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>492</v>
-      </c>
       <c r="H1" s="59" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="59" t="s">
         <v>615</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="J1" s="60" t="s">
         <v>616</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
@@ -3605,7 +3603,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -3614,10 +3612,10 @@
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J3" s="58" t="b">
         <v>0</v>
@@ -3626,7 +3624,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -3642,7 +3640,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="58" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
@@ -3658,7 +3656,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="58" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -3674,7 +3672,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="58" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -3690,7 +3688,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="58" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -3706,7 +3704,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="58" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -3722,7 +3720,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
@@ -3738,7 +3736,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -3754,7 +3752,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -3770,7 +3768,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
@@ -3808,161 +3806,161 @@
   <sheetData>
     <row ht="15.75" r="1" spans="1:3">
       <c r="A1" s="62" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="62" t="s">
         <v>631</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>632</v>
       </c>
     </row>
     <row ht="15.75" r="2" spans="1:3">
       <c r="A2" s="62" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="C2" s="62" t="s">
         <v>634</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>635</v>
       </c>
     </row>
     <row ht="47.25" r="3" spans="1:3">
       <c r="A3" s="62" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>636</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="C3" s="62" t="s">
         <v>637</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>638</v>
       </c>
     </row>
     <row ht="15.75" r="4" spans="1:3">
       <c r="A4" s="62" t="s">
+        <v>638</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>639</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="C4" s="62" t="s">
         <v>640</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>641</v>
       </c>
     </row>
     <row ht="15.75" r="5" spans="1:3">
       <c r="A5" s="62" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" s="62" t="s">
         <v>642</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="C5" s="62" t="s">
         <v>643</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>644</v>
       </c>
     </row>
     <row ht="31.5" r="6" spans="1:3">
       <c r="A6" s="62" t="s">
+        <v>644</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>645</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>646</v>
       </c>
       <c r="C6" s="64"/>
     </row>
     <row ht="47.25" r="7" spans="1:3">
       <c r="A7" s="62" t="s">
+        <v>646</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="C7" s="62" t="s">
         <v>648</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>649</v>
       </c>
     </row>
     <row ht="47.25" r="8" spans="1:3">
       <c r="A8" s="62" t="s">
+        <v>649</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>650</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="C8" s="62" t="s">
         <v>651</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>652</v>
       </c>
     </row>
     <row ht="47.25" r="9" spans="1:3">
       <c r="A9" s="62" t="s">
+        <v>652</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>653</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="C9" s="62" t="s">
         <v>654</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>655</v>
       </c>
     </row>
     <row ht="47.25" r="10" spans="1:3">
       <c r="A10" s="62" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>656</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="C10" s="62" t="s">
         <v>657</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>658</v>
       </c>
     </row>
     <row ht="47.25" r="11" spans="1:3">
       <c r="A11" s="62" t="s">
+        <v>658</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>659</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="C11" s="62" t="s">
         <v>660</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>661</v>
       </c>
     </row>
     <row ht="47.25" r="12" spans="1:3">
       <c r="A12" s="62" t="s">
+        <v>661</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>662</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="C12" s="62" t="s">
         <v>663</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>664</v>
       </c>
     </row>
     <row ht="15.75" r="13" spans="1:3">
       <c r="A13" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>665</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>666</v>
       </c>
       <c r="C13" s="64"/>
     </row>
     <row ht="31.5" r="14" spans="1:3">
       <c r="A14" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="B14" s="62" t="s">
         <v>667</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>668</v>
       </c>
       <c r="C14" s="64"/>
     </row>
     <row ht="31.5" r="15" spans="1:3">
       <c r="A15" s="62" t="s">
+        <v>668</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>669</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="C15" s="62" t="s">
         <v>670</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -3989,42 +3987,42 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>503</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>504</v>
       </c>
     </row>
     <row ht="15.75" r="2" spans="1:11">
       <c r="A2" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>57</v>
@@ -4045,7 +4043,7 @@
     </row>
     <row ht="15.75" r="3" spans="1:11">
       <c r="A3" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>57</v>
@@ -4066,7 +4064,7 @@
     </row>
     <row ht="15.75" r="4" spans="1:11">
       <c r="A4" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>57</v>
@@ -4108,13 +4106,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>484</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4160,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4261,16 +4259,16 @@
         <v>24</v>
       </c>
       <c r="J1" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="K1" s="52" t="s">
         <v>573</v>
       </c>
-      <c r="K1" s="52" t="s">
-        <v>574</v>
-      </c>
       <c r="L1" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="M1" s="39" t="s">
         <v>601</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4317,7 +4315,7 @@
         <v>439</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
@@ -4332,7 +4330,7 @@
         <v>440</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>438</v>
@@ -4341,7 +4339,7 @@
         <v>441</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>435</v>
@@ -4380,7 +4378,7 @@
         <v>447</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -4493,22 +4491,22 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="E10" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="F10" s="39" t="s">
         <v>540</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>541</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -4520,22 +4518,22 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="52" t="s">
+        <v>541</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>546</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>547</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -4547,28 +4545,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="C12" s="39" t="s">
         <v>549</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="D12" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="E12" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>554</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>555</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -4578,19 +4576,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>402</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="E13" s="39" t="s">
         <v>558</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>559</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -4603,10 +4601,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>438</v>
@@ -4615,22 +4613,22 @@
         <v>441</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>435</v>
       </c>
       <c r="G14" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="H14" s="52" t="s">
         <v>562</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>563</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>460</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K14" s="52" t="s">
         <v>447</v>
@@ -4640,7 +4638,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="52" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>26</v>
@@ -4652,13 +4650,13 @@
         <v>439</v>
       </c>
       <c r="E15" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>566</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="G15" s="39" t="s">
         <v>567</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>568</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>441</v>
@@ -4671,19 +4669,19 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="C16" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="D16" s="39" t="s">
         <v>571</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>572</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -4696,19 +4694,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>578</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="C17" s="52" t="s">
         <v>579</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>580</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>581</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>582</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -4721,22 +4719,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>590</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="C18" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="E18" s="52" t="s">
         <v>604</v>
       </c>
-      <c r="D18" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>605</v>
-      </c>
       <c r="F18" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
@@ -4748,66 +4746,66 @@
     </row>
     <row ht="45" r="19" spans="1:13">
       <c r="A19" s="52" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>433</v>
       </c>
       <c r="D19" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="E19" s="52" t="s">
         <v>594</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="F19" s="52" t="s">
         <v>595</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="G19" s="52" t="s">
         <v>596</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>597</v>
       </c>
       <c r="H19" s="52" t="s">
         <v>434</v>
       </c>
       <c r="I19" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="J19" s="55" t="s">
         <v>606</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="K19" s="55" t="s">
         <v>607</v>
-      </c>
-      <c r="K19" s="55" t="s">
-        <v>608</v>
       </c>
       <c r="L19" s="52" t="s">
         <v>435</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>609</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>610</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>438</v>
       </c>
       <c r="D20" s="52" t="s">
+        <v>610</v>
+      </c>
+      <c r="E20" s="52" t="s">
         <v>611</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="F20" s="52" t="s">
         <v>612</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="G20" s="52" t="s">
         <v>613</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>614</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
@@ -4818,34 +4816,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="39" t="s">
+        <v>671</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="C21" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="D21" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>675</v>
-      </c>
       <c r="E21" s="39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F21" s="39" t="s">
         <v>460</v>
       </c>
       <c r="G21" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="I21" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="J21" s="39" t="s">
         <v>678</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>679</v>
       </c>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
@@ -4853,25 +4851,25 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>681</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="C22" s="39" t="s">
         <v>682</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>683</v>
-      </c>
       <c r="D22" s="39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>460</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
@@ -4968,10 +4966,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y1" t="s">
         <v>528</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>529</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -4983,25 +4981,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>535</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>536</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -9208,8 +9206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="BA9" sqref="BA9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9288,25 +9286,25 @@
         <v>32</v>
       </c>
       <c r="X1" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y1" s="63" t="s">
         <v>528</v>
-      </c>
-      <c r="Y1" s="63" t="s">
-        <v>529</v>
       </c>
       <c r="Z1" s="63" t="s">
         <v>32</v>
       </c>
       <c r="AA1" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB1" s="63" t="s">
         <v>685</v>
-      </c>
-      <c r="AB1" s="63" t="s">
-        <v>686</v>
       </c>
       <c r="AC1" s="66" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="66" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE1" s="66" t="s">
         <v>34</v>
@@ -9315,7 +9313,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="66" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AH1" s="66" t="s">
         <v>36</v>
@@ -9324,7 +9322,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="63" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AK1" s="63" t="s">
         <v>38</v>
@@ -9333,7 +9331,7 @@
         <v>32</v>
       </c>
       <c r="AM1" s="63" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AN1" s="63" t="s">
         <v>40</v>
@@ -9342,7 +9340,7 @@
         <v>32</v>
       </c>
       <c r="AP1" s="63" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AQ1" s="63" t="s">
         <v>462</v>
@@ -9351,10 +9349,10 @@
         <v>32</v>
       </c>
       <c r="AS1" s="63" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AU1" s="63" t="s">
         <v>32</v>
@@ -9366,25 +9364,25 @@
         <v>42</v>
       </c>
       <c r="AX1" s="63" t="s">
+        <v>529</v>
+      </c>
+      <c r="AY1" s="63" t="s">
         <v>530</v>
       </c>
-      <c r="AY1" s="63" t="s">
+      <c r="AZ1" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="AZ1" s="63" t="s">
+      <c r="BA1" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="BA1" s="63" t="s">
+      <c r="BB1" s="63" t="s">
         <v>533</v>
       </c>
-      <c r="BB1" s="63" t="s">
+      <c r="BC1" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="BC1" s="63" t="s">
+      <c r="BD1" s="63" t="s">
         <v>535</v>
-      </c>
-      <c r="BD1" s="63" t="s">
-        <v>536</v>
       </c>
       <c r="BE1" s="63" t="s">
         <v>43</v>
@@ -9448,25 +9446,12 @@
       <c r="U2" s="53"/>
       <c r="V2" s="53"/>
       <c r="W2" s="53"/>
-      <c r="AA2" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="68">
-        <v>24</v>
-      </c>
-      <c r="AI2" s="63">
-        <f>SUM(AB2,AD2,AF2,AH2)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL2" s="53" t="s">
-        <v>479</v>
-      </c>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
       <c r="AV2" s="68" t="s">
         <v>73</v>
       </c>
@@ -9484,7 +9469,7 @@
         <v>233</v>
       </c>
       <c r="BG2" s="75" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -10695,10 +10680,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10880,6 +10865,14 @@
       </c>
       <c r="C20" s="18" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>694</v>
+      </c>
+      <c r="C21" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -10917,7 +10910,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row ht="15.75" r="2" spans="1:5">
@@ -10934,7 +10927,7 @@
         <v>787298771</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row ht="15.75" r="3" spans="1:5">
@@ -10951,7 +10944,7 @@
         <v>787298771</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row ht="15.75" r="4" spans="1:5">
@@ -10968,7 +10961,7 @@
         <v>787298771</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11115" windowWidth="34680" xWindow="0" yWindow="495"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
-    <sheet name="Priority" r:id="rId2" sheetId="2"/>
-    <sheet name="Headers" r:id="rId3" sheetId="3"/>
-    <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="4"/>
-    <sheet name="NFTRTickets-San" r:id="rId5" sheetId="11"/>
-    <sheet name="FTRTickets-Reg" r:id="rId6" sheetId="5"/>
-    <sheet name="FTRTickets-San" r:id="rId7" sheetId="12"/>
-    <sheet name="UserManagement" r:id="rId8" sheetId="13"/>
-    <sheet name="PinnedTags" r:id="rId9" sheetId="8"/>
-    <sheet name="Ticket State" r:id="rId10" sheetId="10"/>
-    <sheet name="TemplateManagement" r:id="rId11" sheetId="14"/>
-    <sheet name="Ticket Transfer Rules" r:id="rId12" sheetId="16"/>
-    <sheet name="Authentication Policy" r:id="rId13" sheetId="19"/>
-    <sheet name="Action Tagging" r:id="rId14" sheetId="17"/>
-    <sheet name="QuestionAnswerKey" r:id="rId15" sheetId="20"/>
-    <sheet name="State Queue Mapping" r:id="rId16" sheetId="18"/>
-    <sheet name="Transfer To Queue" r:id="rId17" sheetId="21"/>
+    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Priority" sheetId="2" r:id="rId2"/>
+    <sheet name="Headers" sheetId="3" r:id="rId3"/>
+    <sheet name="NFTRTickets-Reg" sheetId="4" r:id="rId4"/>
+    <sheet name="NFTRTickets-San" sheetId="11" r:id="rId5"/>
+    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId6"/>
+    <sheet name="FTRTickets-San" sheetId="12" r:id="rId7"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId8"/>
+    <sheet name="PinnedTags" sheetId="8" r:id="rId9"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId10"/>
+    <sheet name="TemplateManagement" sheetId="14" r:id="rId11"/>
+    <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId12"/>
+    <sheet name="Authentication Policy" sheetId="19" r:id="rId13"/>
+    <sheet name="Action Tagging" sheetId="17" r:id="rId14"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId15"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId16"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="696">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2132,17 +2132,13 @@
     <t>migrated tickets</t>
   </si>
   <si>
-    <t>220621012802</t>
-  </si>
-  <si>
-    <t>220621012804</t>
+    <t>230621012824</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -2377,157 +2373,157 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="2" numFmtId="1" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="2" numFmtId="1" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="3"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="4"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Normal 4 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2540,7 +2536,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2559,12 +2555,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2607,12 +2603,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2655,12 +2651,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2703,12 +2699,12 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2751,12 +2747,12 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2799,12 +2795,12 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2837,10 +2833,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2875,7 +2871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2910,7 +2906,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3004,21 +3000,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3035,7 +3031,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3087,14 +3083,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3103,11 +3099,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3163,7 +3159,7 @@
         <v>586</v>
       </c>
     </row>
-    <row ht="16.5" r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="39">
         <v>2388008</v>
       </c>
@@ -3208,7 +3204,7 @@
       </c>
       <c r="Q3" s="39"/>
     </row>
-    <row ht="16.5" r="4" spans="1:17">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="39">
         <v>2390932</v>
       </c>
@@ -3247,13 +3243,13 @@
       <c r="Q5" s="39"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3262,12 +3258,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -3278,7 +3274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -3287,7 +3283,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row ht="15.75" r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -3296,7 +3292,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row ht="15.75" r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
@@ -3305,7 +3301,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row ht="15.75" r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -3314,7 +3310,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row ht="15.75" r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
@@ -3326,13 +3322,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,8 +3337,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="35.28515625" collapsed="true"/>
-    <col min="2" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3393,12 +3389,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3407,12 +3403,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3433,12 +3429,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3447,19 +3443,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="49" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="49" width="13.140625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="49" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="49" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="49" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="49" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="49" width="12.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="49" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="49" width="13.42578125" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" style="49" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="49" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="49" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3503,7 +3499,7 @@
         <v>518</v>
       </c>
     </row>
-    <row ht="141.75" r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="141.75">
       <c r="A2" s="1" t="s">
         <v>519</v>
       </c>
@@ -3533,12 +3529,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3547,12 +3543,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" style="1" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
-    <col min="4" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.0" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3783,13 +3779,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3798,13 +3794,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="63" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="63" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="63" width="41.0" collapsed="true"/>
-    <col min="4" max="16384" style="63" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" style="63" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="63" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="63" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.85546875" style="63" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="62" t="s">
         <v>629</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>631</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="62" t="s">
         <v>632</v>
       </c>
@@ -3826,7 +3822,7 @@
         <v>634</v>
       </c>
     </row>
-    <row ht="47.25" r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="47.25">
       <c r="A3" s="62" t="s">
         <v>635</v>
       </c>
@@ -3837,7 +3833,7 @@
         <v>637</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="62" t="s">
         <v>638</v>
       </c>
@@ -3848,7 +3844,7 @@
         <v>640</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="62" t="s">
         <v>641</v>
       </c>
@@ -3859,7 +3855,7 @@
         <v>643</v>
       </c>
     </row>
-    <row ht="31.5" r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="31.5">
       <c r="A6" s="62" t="s">
         <v>644</v>
       </c>
@@ -3868,7 +3864,7 @@
       </c>
       <c r="C6" s="64"/>
     </row>
-    <row ht="47.25" r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="47.25">
       <c r="A7" s="62" t="s">
         <v>646</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>648</v>
       </c>
     </row>
-    <row ht="47.25" r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="47.25">
       <c r="A8" s="62" t="s">
         <v>649</v>
       </c>
@@ -3890,7 +3886,7 @@
         <v>651</v>
       </c>
     </row>
-    <row ht="47.25" r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="47.25">
       <c r="A9" s="62" t="s">
         <v>652</v>
       </c>
@@ -3901,7 +3897,7 @@
         <v>654</v>
       </c>
     </row>
-    <row ht="47.25" r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="47.25">
       <c r="A10" s="62" t="s">
         <v>655</v>
       </c>
@@ -3912,7 +3908,7 @@
         <v>657</v>
       </c>
     </row>
-    <row ht="47.25" r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="47.25">
       <c r="A11" s="62" t="s">
         <v>658</v>
       </c>
@@ -3923,7 +3919,7 @@
         <v>660</v>
       </c>
     </row>
-    <row ht="47.25" r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="47.25">
       <c r="A12" s="62" t="s">
         <v>661</v>
       </c>
@@ -3934,7 +3930,7 @@
         <v>663</v>
       </c>
     </row>
-    <row ht="15.75" r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="62" t="s">
         <v>664</v>
       </c>
@@ -3943,7 +3939,7 @@
       </c>
       <c r="C13" s="64"/>
     </row>
-    <row ht="31.5" r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="31.5">
       <c r="A14" s="62" t="s">
         <v>666</v>
       </c>
@@ -3952,7 +3948,7 @@
       </c>
       <c r="C14" s="64"/>
     </row>
-    <row ht="31.5" r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="31.5">
       <c r="A15" s="62" t="s">
         <v>668</v>
       </c>
@@ -3964,12 +3960,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3978,11 +3974,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="47" width="22.0" collapsed="true"/>
-    <col min="2" max="2" style="47" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="47" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="47" width="13.140625" collapsed="true"/>
-    <col min="5" max="16384" style="47" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22" style="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="47" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="47" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="47" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4020,7 +4016,7 @@
         <v>503</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="15" t="s">
         <v>504</v>
       </c>
@@ -4041,7 +4037,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
     </row>
-    <row ht="15.75" r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="15" t="s">
         <v>484</v>
       </c>
@@ -4062,7 +4058,7 @@
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
     </row>
-    <row ht="15.75" r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="15" t="s">
         <v>505</v>
       </c>
@@ -4084,13 +4080,13 @@
       <c r="K4" s="46"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4099,9 +4095,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="1" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="10.28515625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4149,25 +4145,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4203,31 +4199,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4744,7 +4740,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
     </row>
-    <row ht="45" r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="45">
       <c r="A19" s="52" t="s">
         <v>592</v>
       </c>
@@ -4879,23 +4875,23 @@
       <c r="M22" s="39"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL76"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AL1" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:38">
+    <row r="1" spans="1:38" ht="15.75">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -5011,7 +5007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:38">
+    <row r="2" spans="1:38" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>239</v>
       </c>
@@ -5077,7 +5073,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="1:38">
+    <row r="3" spans="1:38" ht="15.75">
       <c r="A3" s="13" t="s">
         <v>239</v>
       </c>
@@ -5127,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="AI3">
-        <f ref="AI3:AI66" si="0" t="shared">SUM(AB3,AD3,AF3,AH3)</f>
+        <f t="shared" ref="AI3:AI66" si="0">SUM(AB3,AD3,AF3,AH3)</f>
         <v>12</v>
       </c>
       <c r="AJ3" s="30" t="s">
@@ -5137,7 +5133,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:38">
+    <row r="4" spans="1:38" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>239</v>
       </c>
@@ -5205,7 +5201,7 @@
         <v>48</v>
       </c>
       <c r="AI4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ4" s="31" t="s">
@@ -5215,7 +5211,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="1:38">
+    <row r="5" spans="1:38" ht="15.75">
       <c r="A5" s="13" t="s">
         <v>239</v>
       </c>
@@ -5283,7 +5279,7 @@
         <v>48</v>
       </c>
       <c r="AI5">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ5" s="31" t="s">
@@ -5293,7 +5289,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:38">
+    <row r="6" spans="1:38" ht="15.75">
       <c r="A6" s="13" t="s">
         <v>239</v>
       </c>
@@ -5357,13 +5353,13 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
       <c r="AI6">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31"/>
     </row>
-    <row ht="15.75" r="7" spans="1:38">
+    <row r="7" spans="1:38" ht="15.75">
       <c r="A7" s="13" t="s">
         <v>239</v>
       </c>
@@ -5431,7 +5427,7 @@
         <v>48</v>
       </c>
       <c r="AI7">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ7" s="31" t="s">
@@ -5441,7 +5437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="1:38">
+    <row r="8" spans="1:38" ht="15.75">
       <c r="A8" s="13" t="s">
         <v>239</v>
       </c>
@@ -5497,7 +5493,7 @@
         <v>24</v>
       </c>
       <c r="AI8">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ8" s="31" t="s">
@@ -5507,7 +5503,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="1:38">
+    <row r="9" spans="1:38" ht="15.75">
       <c r="A9" s="13" t="s">
         <v>239</v>
       </c>
@@ -5557,7 +5553,7 @@
         <v>48</v>
       </c>
       <c r="AI9">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ9" s="31" t="s">
@@ -5567,7 +5563,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="10" spans="1:38">
+    <row r="10" spans="1:38" ht="15.75">
       <c r="A10" s="13" t="s">
         <v>239</v>
       </c>
@@ -5605,7 +5601,7 @@
         <v>48</v>
       </c>
       <c r="AI10">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ10" s="31" t="s">
@@ -5615,7 +5611,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="11" spans="1:38">
+    <row r="11" spans="1:38" ht="15.75">
       <c r="A11" s="13" t="s">
         <v>239</v>
       </c>
@@ -5653,7 +5649,7 @@
         <v>48</v>
       </c>
       <c r="AI11">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ11" s="31" t="s">
@@ -5663,7 +5659,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:38">
+    <row r="12" spans="1:38" ht="15.75">
       <c r="A12" s="13" t="s">
         <v>239</v>
       </c>
@@ -5725,7 +5721,7 @@
         <v>24</v>
       </c>
       <c r="AI12">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ12" s="30" t="s">
@@ -5735,7 +5731,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="13" spans="1:38">
+    <row r="13" spans="1:38" ht="15.75">
       <c r="A13" s="13" t="s">
         <v>239</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>24</v>
       </c>
       <c r="AI13">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ13" s="30" t="s">
@@ -5801,7 +5797,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="14" spans="1:38">
+    <row r="14" spans="1:38" ht="15.75">
       <c r="A14" s="13" t="s">
         <v>239</v>
       </c>
@@ -5863,7 +5859,7 @@
         <v>24</v>
       </c>
       <c r="AI14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ14" s="31" t="s">
@@ -5873,7 +5869,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="15" spans="1:38">
+    <row r="15" spans="1:38" ht="15.75">
       <c r="A15" s="13" t="s">
         <v>239</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>24</v>
       </c>
       <c r="AI15">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ15" s="30" t="s">
@@ -5945,7 +5941,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="16" spans="1:38">
+    <row r="16" spans="1:38" ht="15.75">
       <c r="A16" s="13" t="s">
         <v>239</v>
       </c>
@@ -6001,7 +5997,7 @@
         <v>24</v>
       </c>
       <c r="AI16">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ16" s="30" t="s">
@@ -6011,7 +6007,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="17" spans="1:37">
+    <row r="17" spans="1:37" ht="15.75">
       <c r="A17" s="13" t="s">
         <v>239</v>
       </c>
@@ -6067,7 +6063,7 @@
         <v>24</v>
       </c>
       <c r="AI17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ17" s="30" t="s">
@@ -6077,7 +6073,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="18" spans="1:37">
+    <row r="18" spans="1:37" ht="15.75">
       <c r="A18" s="13" t="s">
         <v>239</v>
       </c>
@@ -6145,7 +6141,7 @@
         <v>48</v>
       </c>
       <c r="AI18">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ18" s="31" t="s">
@@ -6155,7 +6151,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="19" spans="1:37">
+    <row r="19" spans="1:37" ht="15.75">
       <c r="A19" s="13" t="s">
         <v>239</v>
       </c>
@@ -6223,7 +6219,7 @@
         <v>48</v>
       </c>
       <c r="AI19">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ19" s="31" t="s">
@@ -6233,7 +6229,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="20" spans="1:37">
+    <row r="20" spans="1:37" ht="15.75">
       <c r="A20" s="13" t="s">
         <v>239</v>
       </c>
@@ -6289,7 +6285,7 @@
         <v>48</v>
       </c>
       <c r="AI20">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ20" s="30" t="s">
@@ -6299,7 +6295,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="21" spans="1:37">
+    <row r="21" spans="1:37" ht="15.75">
       <c r="A21" s="13" t="s">
         <v>239</v>
       </c>
@@ -6355,7 +6351,7 @@
         <v>48</v>
       </c>
       <c r="AI21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ21" s="30" t="s">
@@ -6365,7 +6361,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="22" spans="1:37">
+    <row r="22" spans="1:37" ht="15.75">
       <c r="A22" s="13" t="s">
         <v>239</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>48</v>
       </c>
       <c r="AI22">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ22" s="30" t="s">
@@ -6431,7 +6427,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="23" spans="1:37">
+    <row r="23" spans="1:37" ht="15.75">
       <c r="A23" s="13" t="s">
         <v>286</v>
       </c>
@@ -6469,7 +6465,7 @@
         <v>24</v>
       </c>
       <c r="AI23">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ23" s="31" t="s">
@@ -6479,7 +6475,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="24" spans="1:37">
+    <row r="24" spans="1:37" ht="15.75">
       <c r="A24" s="13" t="s">
         <v>286</v>
       </c>
@@ -6517,7 +6513,7 @@
         <v>24</v>
       </c>
       <c r="AI24">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ24" s="31" t="s">
@@ -6527,7 +6523,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="25" spans="1:37">
+    <row r="25" spans="1:37" ht="15.75">
       <c r="A25" s="13" t="s">
         <v>286</v>
       </c>
@@ -6565,7 +6561,7 @@
         <v>24</v>
       </c>
       <c r="AI25">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ25" s="31" t="s">
@@ -6575,7 +6571,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="26" spans="1:37">
+    <row r="26" spans="1:37" ht="15.75">
       <c r="A26" s="13" t="s">
         <v>239</v>
       </c>
@@ -6625,7 +6621,7 @@
         <v>48</v>
       </c>
       <c r="AI26">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ26" s="30" t="s">
@@ -6635,7 +6631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="27" spans="1:37">
+    <row r="27" spans="1:37" ht="15.75">
       <c r="A27" s="13" t="s">
         <v>295</v>
       </c>
@@ -6691,7 +6687,7 @@
         <v>48</v>
       </c>
       <c r="AI27">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ27" s="31" t="s">
@@ -6701,7 +6697,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="28" spans="1:37">
+    <row r="28" spans="1:37" ht="15.75">
       <c r="A28" s="13" t="s">
         <v>239</v>
       </c>
@@ -6757,7 +6753,7 @@
         <v>12</v>
       </c>
       <c r="AI28">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AJ28" s="30" t="s">
@@ -6767,7 +6763,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="29" spans="1:37">
+    <row r="29" spans="1:37" ht="15.75">
       <c r="A29" s="13" t="s">
         <v>239</v>
       </c>
@@ -6823,7 +6819,7 @@
         <v>24</v>
       </c>
       <c r="AI29">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ29" s="30" t="s">
@@ -6833,7 +6829,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="30" spans="1:37">
+    <row r="30" spans="1:37" ht="15.75">
       <c r="A30" s="37" t="s">
         <v>295</v>
       </c>
@@ -6867,13 +6863,13 @@
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
       <c r="AI30">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
     </row>
-    <row ht="15.75" r="31" spans="1:37">
+    <row r="31" spans="1:37" ht="15.75">
       <c r="A31" s="13" t="s">
         <v>239</v>
       </c>
@@ -6907,13 +6903,13 @@
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
       <c r="AI31">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
     </row>
-    <row ht="15.75" r="32" spans="1:37">
+    <row r="32" spans="1:37" ht="15.75">
       <c r="A32" s="13" t="s">
         <v>307</v>
       </c>
@@ -6947,7 +6943,7 @@
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
       <c r="AI32">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="31" t="s">
@@ -6957,7 +6953,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="33" spans="1:37">
+    <row r="33" spans="1:37" ht="15.75">
       <c r="A33" s="25" t="s">
         <v>307</v>
       </c>
@@ -6991,7 +6987,7 @@
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
       <c r="AI33">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="40" t="s">
@@ -7001,7 +6997,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="34" spans="1:37">
+    <row r="34" spans="1:37" ht="15.75">
       <c r="A34" s="25" t="s">
         <v>307</v>
       </c>
@@ -7035,7 +7031,7 @@
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
       <c r="AI34">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="40" t="s">
@@ -7045,7 +7041,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="35" spans="1:37">
+    <row r="35" spans="1:37" ht="15.75">
       <c r="A35" s="25" t="s">
         <v>307</v>
       </c>
@@ -7079,7 +7075,7 @@
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
       <c r="AI35">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="40" t="s">
@@ -7089,7 +7085,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="36" spans="1:37">
+    <row r="36" spans="1:37" ht="15.75">
       <c r="A36" s="25" t="s">
         <v>307</v>
       </c>
@@ -7123,7 +7119,7 @@
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
       <c r="AI36">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="40" t="s">
@@ -7133,7 +7129,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="37" spans="1:37">
+    <row r="37" spans="1:37" ht="15.75">
       <c r="A37" s="41" t="s">
         <v>307</v>
       </c>
@@ -7167,7 +7163,7 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AI37">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="39"/>
@@ -7207,13 +7203,13 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AI38">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="39"/>
       <c r="AK38" s="39"/>
     </row>
-    <row ht="15.75" r="39" spans="1:37">
+    <row r="39" spans="1:37" ht="15.75">
       <c r="A39" s="13" t="s">
         <v>307</v>
       </c>
@@ -7247,13 +7243,13 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AI39">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ39" s="39"/>
       <c r="AK39" s="39"/>
     </row>
-    <row ht="15.75" r="40" spans="1:37">
+    <row r="40" spans="1:37" ht="15.75">
       <c r="A40" s="13" t="s">
         <v>307</v>
       </c>
@@ -7299,13 +7295,13 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AI40">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
     </row>
-    <row ht="15.75" r="41" spans="1:37">
+    <row r="41" spans="1:37" ht="15.75">
       <c r="A41" s="13" t="s">
         <v>295</v>
       </c>
@@ -7367,7 +7363,7 @@
         <v>24</v>
       </c>
       <c r="AI41">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ41" s="31" t="s">
@@ -7377,7 +7373,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="42" spans="1:37">
+    <row r="42" spans="1:37" ht="15.75">
       <c r="A42" s="13" t="s">
         <v>295</v>
       </c>
@@ -7433,7 +7429,7 @@
         <v>48</v>
       </c>
       <c r="AI42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ42" s="31" t="s">
@@ -7443,7 +7439,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="43" spans="1:37">
+    <row r="43" spans="1:37" ht="15.75">
       <c r="A43" s="13" t="s">
         <v>295</v>
       </c>
@@ -7499,7 +7495,7 @@
         <v>48</v>
       </c>
       <c r="AI43">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ43" s="31" t="s">
@@ -7509,7 +7505,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="44" spans="1:37">
+    <row r="44" spans="1:37" ht="15.75">
       <c r="A44" s="13" t="s">
         <v>295</v>
       </c>
@@ -7571,7 +7567,7 @@
         <v>48</v>
       </c>
       <c r="AI44">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ44" s="31" t="s">
@@ -7581,7 +7577,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="45" spans="1:37">
+    <row r="45" spans="1:37" ht="15.75">
       <c r="A45" s="13" t="s">
         <v>295</v>
       </c>
@@ -7643,7 +7639,7 @@
         <v>48</v>
       </c>
       <c r="AI45">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ45" s="31" t="s">
@@ -7653,7 +7649,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="46" spans="1:37">
+    <row r="46" spans="1:37" ht="15.75">
       <c r="A46" s="13" t="s">
         <v>295</v>
       </c>
@@ -7715,7 +7711,7 @@
         <v>48</v>
       </c>
       <c r="AI46">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ46" s="31" t="s">
@@ -7725,7 +7721,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="47" spans="1:37">
+    <row r="47" spans="1:37" ht="15.75">
       <c r="A47" s="13" t="s">
         <v>295</v>
       </c>
@@ -7787,7 +7783,7 @@
         <v>48</v>
       </c>
       <c r="AI47">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ47" s="31" t="s">
@@ -7797,7 +7793,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="48" spans="1:37">
+    <row r="48" spans="1:37" ht="15.75">
       <c r="A48" s="13" t="s">
         <v>295</v>
       </c>
@@ -7835,7 +7831,7 @@
         <v>12</v>
       </c>
       <c r="AI48">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AJ48" s="30" t="s">
@@ -7845,7 +7841,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="49" spans="1:37">
+    <row r="49" spans="1:37" ht="15.75">
       <c r="A49" s="13" t="s">
         <v>295</v>
       </c>
@@ -7883,7 +7879,7 @@
         <v>12</v>
       </c>
       <c r="AI49">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AJ49" s="30" t="s">
@@ -7893,7 +7889,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="50" spans="1:37">
+    <row r="50" spans="1:37" ht="15.75">
       <c r="A50" s="13" t="s">
         <v>295</v>
       </c>
@@ -7931,7 +7927,7 @@
         <v>24</v>
       </c>
       <c r="AI50">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AJ50" s="30" t="s">
@@ -7941,7 +7937,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="51" spans="1:37">
+    <row r="51" spans="1:37" ht="15.75">
       <c r="A51" s="13" t="s">
         <v>295</v>
       </c>
@@ -7975,7 +7971,7 @@
       <c r="AA51" s="39"/>
       <c r="AB51" s="39"/>
       <c r="AI51">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="30" t="s">
@@ -7985,7 +7981,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="52" spans="1:37">
+    <row r="52" spans="1:37" ht="15.75">
       <c r="A52" s="13" t="s">
         <v>295</v>
       </c>
@@ -8019,7 +8015,7 @@
       <c r="AA52" s="39"/>
       <c r="AB52" s="39"/>
       <c r="AI52">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="30" t="s">
@@ -8029,7 +8025,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="53" spans="1:37">
+    <row r="53" spans="1:37" ht="15.75">
       <c r="A53" s="13" t="s">
         <v>295</v>
       </c>
@@ -8063,7 +8059,7 @@
       <c r="AA53" s="39"/>
       <c r="AB53" s="39"/>
       <c r="AI53">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="30" t="s">
@@ -8073,7 +8069,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="54" spans="1:37">
+    <row r="54" spans="1:37" ht="15.75">
       <c r="A54" s="13" t="s">
         <v>295</v>
       </c>
@@ -8107,7 +8103,7 @@
       <c r="AA54" s="39"/>
       <c r="AB54" s="39"/>
       <c r="AI54">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ54" s="30" t="s">
@@ -8117,7 +8113,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="55" spans="1:37">
+    <row r="55" spans="1:37" ht="15.75">
       <c r="A55" s="13" t="s">
         <v>295</v>
       </c>
@@ -8151,7 +8147,7 @@
       <c r="AA55" s="39"/>
       <c r="AB55" s="39"/>
       <c r="AI55">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="30" t="s">
@@ -8161,7 +8157,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="56" spans="1:37">
+    <row r="56" spans="1:37" ht="15.75">
       <c r="A56" s="13" t="s">
         <v>295</v>
       </c>
@@ -8195,7 +8191,7 @@
       <c r="AA56" s="39"/>
       <c r="AB56" s="39"/>
       <c r="AI56">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="30" t="s">
@@ -8205,7 +8201,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="57" spans="1:37">
+    <row r="57" spans="1:37" ht="15.75">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -8239,7 +8235,7 @@
       <c r="AA57" s="39"/>
       <c r="AB57" s="39"/>
       <c r="AI57">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="30" t="s">
@@ -8249,7 +8245,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="58" spans="1:37">
+    <row r="58" spans="1:37" ht="15.75">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -8283,7 +8279,7 @@
       <c r="AA58" s="39"/>
       <c r="AB58" s="39"/>
       <c r="AI58">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ58" s="30" t="s">
@@ -8293,7 +8289,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="59" spans="1:37">
+    <row r="59" spans="1:37" ht="15.75">
       <c r="A59" s="13" t="s">
         <v>295</v>
       </c>
@@ -8327,7 +8323,7 @@
       <c r="AA59" s="39"/>
       <c r="AB59" s="39"/>
       <c r="AI59">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ59" s="30" t="s">
@@ -8337,7 +8333,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="60" spans="1:37">
+    <row r="60" spans="1:37" ht="15.75">
       <c r="A60" s="13" t="s">
         <v>295</v>
       </c>
@@ -8371,7 +8367,7 @@
       <c r="AA60" s="39"/>
       <c r="AB60" s="39"/>
       <c r="AI60">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ60" s="30" t="s">
@@ -8381,7 +8377,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="61" spans="1:37">
+    <row r="61" spans="1:37" ht="15.75">
       <c r="A61" s="13" t="s">
         <v>295</v>
       </c>
@@ -8415,7 +8411,7 @@
       <c r="AA61" s="39"/>
       <c r="AB61" s="39"/>
       <c r="AI61">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="30" t="s">
@@ -8425,7 +8421,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="62" spans="1:37">
+    <row r="62" spans="1:37" ht="15.75">
       <c r="A62" s="13" t="s">
         <v>295</v>
       </c>
@@ -8463,7 +8459,7 @@
         <v>12</v>
       </c>
       <c r="AI62">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AJ62" s="30" t="s">
@@ -8473,7 +8469,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="63" spans="1:37">
+    <row r="63" spans="1:37" ht="15.75">
       <c r="A63" s="13" t="s">
         <v>295</v>
       </c>
@@ -8529,7 +8525,7 @@
         <v>12</v>
       </c>
       <c r="AI63">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AJ63" s="30" t="s">
@@ -8539,7 +8535,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="64" spans="1:37">
+    <row r="64" spans="1:37" ht="15.75">
       <c r="A64" s="13" t="s">
         <v>295</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>48</v>
       </c>
       <c r="AI64">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ64" s="30" t="s">
@@ -8587,7 +8583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="65" spans="1:37">
+    <row r="65" spans="1:37" ht="15.75">
       <c r="A65" s="13" t="s">
         <v>295</v>
       </c>
@@ -8643,7 +8639,7 @@
         <v>48</v>
       </c>
       <c r="AI65">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="AJ65" s="31" t="s">
@@ -8653,7 +8649,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="66" spans="1:37">
+    <row r="66" spans="1:37" ht="15.75">
       <c r="A66" s="13" t="s">
         <v>295</v>
       </c>
@@ -8691,7 +8687,7 @@
         <v>12</v>
       </c>
       <c r="AI66">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AJ66" s="31" t="s">
@@ -8701,7 +8697,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="67" spans="1:37">
+    <row r="67" spans="1:37" ht="15.75">
       <c r="A67" s="13" t="s">
         <v>295</v>
       </c>
@@ -8739,7 +8735,7 @@
         <v>12</v>
       </c>
       <c r="AI67">
-        <f ref="AI67:AI76" si="1" t="shared">SUM(AB67,AD67,AF67,AH67)</f>
+        <f t="shared" ref="AI67:AI76" si="1">SUM(AB67,AD67,AF67,AH67)</f>
         <v>12</v>
       </c>
       <c r="AJ67" s="31" t="s">
@@ -8749,7 +8745,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="68" spans="1:37">
+    <row r="68" spans="1:37" ht="15.75">
       <c r="A68" s="13" t="s">
         <v>295</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>12</v>
       </c>
       <c r="AI68">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AJ68" s="31" t="s">
@@ -8797,7 +8793,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="69" spans="1:37">
+    <row r="69" spans="1:37" ht="15.75">
       <c r="A69" s="13" t="s">
         <v>295</v>
       </c>
@@ -8835,7 +8831,7 @@
         <v>12</v>
       </c>
       <c r="AI69">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AJ69" s="31" t="s">
@@ -8845,7 +8841,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="70" spans="1:37">
+    <row r="70" spans="1:37" ht="15.75">
       <c r="A70" s="13" t="s">
         <v>295</v>
       </c>
@@ -8883,7 +8879,7 @@
         <v>12</v>
       </c>
       <c r="AI70">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AJ70" s="31" t="s">
@@ -8893,7 +8889,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="71" spans="1:37">
+    <row r="71" spans="1:37" ht="15.75">
       <c r="A71" s="13" t="s">
         <v>295</v>
       </c>
@@ -8931,7 +8927,7 @@
         <v>12</v>
       </c>
       <c r="AI71">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AJ71" s="31" t="s">
@@ -8941,7 +8937,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="72" spans="1:37">
+    <row r="72" spans="1:37" ht="15.75">
       <c r="A72" s="13" t="s">
         <v>295</v>
       </c>
@@ -8979,7 +8975,7 @@
         <v>12</v>
       </c>
       <c r="AI72">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AJ72" s="31" t="s">
@@ -8989,7 +8985,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="73" spans="1:37">
+    <row r="73" spans="1:37" ht="15.75">
       <c r="A73" s="13" t="s">
         <v>295</v>
       </c>
@@ -9027,7 +9023,7 @@
         <v>12</v>
       </c>
       <c r="AI73">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AJ73" s="31" t="s">
@@ -9037,7 +9033,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="15.75" r="74" spans="1:37">
+    <row r="74" spans="1:37" ht="15.75">
       <c r="A74" s="13" t="s">
         <v>295</v>
       </c>
@@ -9075,7 +9071,7 @@
         <v>24</v>
       </c>
       <c r="AI74">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AJ74" s="30" t="s">
@@ -9085,7 +9081,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="75" spans="1:37">
+    <row r="75" spans="1:37" ht="15.75">
       <c r="A75" s="13" t="s">
         <v>295</v>
       </c>
@@ -9123,7 +9119,7 @@
         <v>8</v>
       </c>
       <c r="AI75">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AJ75" s="30" t="s">
@@ -9133,7 +9129,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="15.75" r="76" spans="1:37">
+    <row r="76" spans="1:37" ht="15.75">
       <c r="A76" s="13" t="s">
         <v>295</v>
       </c>
@@ -9191,19 +9187,19 @@
       <c r="AA76" s="39"/>
       <c r="AB76" s="39"/>
       <c r="AI76">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ76" s="39"/>
       <c r="AK76" s="39"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9212,10 +9208,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="63" width="8.85546875" collapsed="true"/>
+    <col min="1" max="16384" width="8.85546875" style="63" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="63" r="1" spans="1:59">
+    <row r="1" spans="1:59" ht="63">
       <c r="A1" s="65" t="s">
         <v>25</v>
       </c>
@@ -9394,7 +9390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="94.5" r="2" spans="1:59">
+    <row r="2" spans="1:59" ht="94.5">
       <c r="A2" s="68" t="s">
         <v>295</v>
       </c>
@@ -9469,17 +9465,17 @@
         <v>233</v>
       </c>
       <c r="BG2" s="75" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9488,15 +9484,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -9516,7 +9512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -9533,7 +9529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
@@ -9550,7 +9546,7 @@
         <v>97</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
@@ -9567,7 +9563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
@@ -9584,7 +9580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="21" t="s">
         <v>91</v>
       </c>
@@ -9601,7 +9597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -9618,7 +9614,7 @@
         <v>107</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="21" t="s">
         <v>91</v>
       </c>
@@ -9635,7 +9631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="21" t="s">
         <v>91</v>
       </c>
@@ -9652,7 +9648,7 @@
         <v>112</v>
       </c>
     </row>
-    <row ht="15.75" r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -9669,7 +9665,7 @@
         <v>114</v>
       </c>
     </row>
-    <row ht="15.75" r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="21" t="s">
         <v>91</v>
       </c>
@@ -9686,7 +9682,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="17" t="s">
         <v>119</v>
       </c>
@@ -9703,7 +9699,7 @@
         <v>122</v>
       </c>
     </row>
-    <row ht="15.75" r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="17" t="s">
         <v>119</v>
       </c>
@@ -9720,7 +9716,7 @@
         <v>124</v>
       </c>
     </row>
-    <row ht="15.75" r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="17" t="s">
         <v>119</v>
       </c>
@@ -9737,7 +9733,7 @@
         <v>126</v>
       </c>
     </row>
-    <row ht="15.75" r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row ht="15.75" r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="17" t="s">
         <v>119</v>
       </c>
@@ -9771,7 +9767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row ht="15.75" r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="17" t="s">
         <v>119</v>
       </c>
@@ -9788,7 +9784,7 @@
         <v>132</v>
       </c>
     </row>
-    <row ht="15.75" r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="17" t="s">
         <v>119</v>
       </c>
@@ -9805,7 +9801,7 @@
         <v>134</v>
       </c>
     </row>
-    <row ht="15.75" r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="17" t="s">
         <v>119</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>136</v>
       </c>
     </row>
-    <row ht="15.75" r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="17" t="s">
         <v>119</v>
       </c>
@@ -9839,7 +9835,7 @@
         <v>138</v>
       </c>
     </row>
-    <row ht="15.75" r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="17" t="s">
         <v>119</v>
       </c>
@@ -9856,7 +9852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row ht="15.75" r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="17" t="s">
         <v>119</v>
       </c>
@@ -9873,7 +9869,7 @@
         <v>142</v>
       </c>
     </row>
-    <row ht="15.75" r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="17" t="s">
         <v>119</v>
       </c>
@@ -9890,7 +9886,7 @@
         <v>144</v>
       </c>
     </row>
-    <row ht="15.75" r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="17" t="s">
         <v>119</v>
       </c>
@@ -9907,7 +9903,7 @@
         <v>146</v>
       </c>
     </row>
-    <row ht="15.75" r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="17" t="s">
         <v>119</v>
       </c>
@@ -9924,7 +9920,7 @@
         <v>148</v>
       </c>
     </row>
-    <row ht="15.75" r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="17" t="s">
         <v>119</v>
       </c>
@@ -9941,7 +9937,7 @@
         <v>150</v>
       </c>
     </row>
-    <row ht="15.75" r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
@@ -9958,7 +9954,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="15.75" r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="17" t="s">
         <v>119</v>
       </c>
@@ -9975,7 +9971,7 @@
         <v>155</v>
       </c>
     </row>
-    <row ht="15.75" r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="17" t="s">
         <v>119</v>
       </c>
@@ -9992,7 +9988,7 @@
         <v>157</v>
       </c>
     </row>
-    <row ht="15.75" r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="15.75">
       <c r="A30" s="17" t="s">
         <v>119</v>
       </c>
@@ -10009,7 +10005,7 @@
         <v>159</v>
       </c>
     </row>
-    <row ht="15.75" r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="17" t="s">
         <v>119</v>
       </c>
@@ -10026,7 +10022,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="15.75" r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -10043,7 +10039,7 @@
         <v>163</v>
       </c>
     </row>
-    <row ht="15.75" r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="15.75">
       <c r="A33" s="17" t="s">
         <v>119</v>
       </c>
@@ -10060,7 +10056,7 @@
         <v>165</v>
       </c>
     </row>
-    <row ht="15.75" r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
@@ -10077,7 +10073,7 @@
         <v>167</v>
       </c>
     </row>
-    <row ht="15.75" r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="17" t="s">
         <v>119</v>
       </c>
@@ -10094,7 +10090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row ht="15.75" r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="17" t="s">
         <v>119</v>
       </c>
@@ -10111,7 +10107,7 @@
         <v>171</v>
       </c>
     </row>
-    <row ht="15.75" r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="17" t="s">
         <v>119</v>
       </c>
@@ -10128,7 +10124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="15.75" r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -10145,7 +10141,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="15.75" r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="17" t="s">
         <v>119</v>
       </c>
@@ -10162,7 +10158,7 @@
         <v>176</v>
       </c>
     </row>
-    <row ht="15.75" r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="17" t="s">
         <v>119</v>
       </c>
@@ -10179,7 +10175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="15.75" r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="15.75">
       <c r="A41" s="17" t="s">
         <v>119</v>
       </c>
@@ -10196,7 +10192,7 @@
         <v>179</v>
       </c>
     </row>
-    <row ht="15.75" r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="17" t="s">
         <v>119</v>
       </c>
@@ -10213,7 +10209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="15.75" r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="A43" s="17" t="s">
         <v>119</v>
       </c>
@@ -10230,7 +10226,7 @@
         <v>182</v>
       </c>
     </row>
-    <row ht="15.75" r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="17" t="s">
         <v>119</v>
       </c>
@@ -10247,7 +10243,7 @@
         <v>184</v>
       </c>
     </row>
-    <row ht="15.75" r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="15.75">
       <c r="A45" s="17" t="s">
         <v>119</v>
       </c>
@@ -10264,7 +10260,7 @@
         <v>186</v>
       </c>
     </row>
-    <row ht="15.75" r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="15.75">
       <c r="A46" s="17" t="s">
         <v>119</v>
       </c>
@@ -10281,7 +10277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row ht="15.75" r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="17" t="s">
         <v>119</v>
       </c>
@@ -10298,7 +10294,7 @@
         <v>191</v>
       </c>
     </row>
-    <row ht="15.75" r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="15.75">
       <c r="A48" s="17" t="s">
         <v>119</v>
       </c>
@@ -10315,7 +10311,7 @@
         <v>193</v>
       </c>
     </row>
-    <row ht="15.75" r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="15.75">
       <c r="A49" s="17" t="s">
         <v>119</v>
       </c>
@@ -10332,7 +10328,7 @@
         <v>195</v>
       </c>
     </row>
-    <row ht="15.75" r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="17" t="s">
         <v>119</v>
       </c>
@@ -10349,7 +10345,7 @@
         <v>197</v>
       </c>
     </row>
-    <row ht="15.75" r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="15.75">
       <c r="A51" s="17" t="s">
         <v>119</v>
       </c>
@@ -10366,7 +10362,7 @@
         <v>199</v>
       </c>
     </row>
-    <row ht="15.75" r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="17" t="s">
         <v>119</v>
       </c>
@@ -10383,7 +10379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row ht="15.75" r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="21" t="s">
         <v>91</v>
       </c>
@@ -10400,7 +10396,7 @@
         <v>203</v>
       </c>
     </row>
-    <row ht="15.75" r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="17" t="s">
         <v>119</v>
       </c>
@@ -10417,7 +10413,7 @@
         <v>205</v>
       </c>
     </row>
-    <row ht="15.75" r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="21" t="s">
         <v>91</v>
       </c>
@@ -10434,7 +10430,7 @@
         <v>207</v>
       </c>
     </row>
-    <row ht="15.75" r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="15.75">
       <c r="A56" s="17" t="s">
         <v>119</v>
       </c>
@@ -10451,7 +10447,7 @@
         <v>209</v>
       </c>
     </row>
-    <row ht="15.75" r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="21" t="s">
         <v>91</v>
       </c>
@@ -10468,7 +10464,7 @@
         <v>212</v>
       </c>
     </row>
-    <row ht="15.75" r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="21" t="s">
         <v>91</v>
       </c>
@@ -10485,7 +10481,7 @@
         <v>214</v>
       </c>
     </row>
-    <row ht="15.75" r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="15.75">
       <c r="A59" s="17" t="s">
         <v>119</v>
       </c>
@@ -10502,7 +10498,7 @@
         <v>216</v>
       </c>
     </row>
-    <row ht="15.75" r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="21" t="s">
         <v>91</v>
       </c>
@@ -10519,7 +10515,7 @@
         <v>219</v>
       </c>
     </row>
-    <row ht="15.75" r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="21" t="s">
         <v>91</v>
       </c>
@@ -10536,7 +10532,7 @@
         <v>221</v>
       </c>
     </row>
-    <row ht="15.75" r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="17" t="s">
         <v>119</v>
       </c>
@@ -10553,7 +10549,7 @@
         <v>223</v>
       </c>
     </row>
-    <row ht="15.75" r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="17" t="s">
         <v>119</v>
       </c>
@@ -10570,7 +10566,7 @@
         <v>225</v>
       </c>
     </row>
-    <row ht="15.75" r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="17" t="s">
         <v>119</v>
       </c>
@@ -10587,7 +10583,7 @@
         <v>227</v>
       </c>
     </row>
-    <row ht="15.75" r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="15.75">
       <c r="A65" s="17" t="s">
         <v>119</v>
       </c>
@@ -10604,7 +10600,7 @@
         <v>229</v>
       </c>
     </row>
-    <row ht="15.75" r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="17" t="s">
         <v>119</v>
       </c>
@@ -10622,12 +10618,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10636,7 +10632,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
@@ -10656,7 +10652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
@@ -10674,12 +10670,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10688,8 +10684,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10703,7 +10699,7 @@
         <v>48</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
@@ -10714,7 +10710,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
@@ -10725,7 +10721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -10736,7 +10732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -10859,7 +10855,7 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="15.75" r="20" spans="2:3">
+    <row r="20" spans="2:3" ht="15.75">
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
@@ -10876,12 +10872,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10890,13 +10886,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -10913,7 +10909,7 @@
         <v>585</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
@@ -10930,7 +10926,7 @@
         <v>587</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="43" t="s">
         <v>478</v>
       </c>
@@ -10947,7 +10943,7 @@
         <v>587</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="43" t="s">
         <v>69</v>
       </c>
@@ -10965,6 +10961,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="725">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2655,31 +2655,28 @@
     <t>Any</t>
   </si>
   <si>
+    <t>Customer Number</t>
+  </si>
+  <si>
+    <t>Decorder Number</t>
+  </si>
+  <si>
+    <t>Amount Sent</t>
+  </si>
+  <si>
+    <t>290721013813</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>POSTPAID</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
     <t>New</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>POSTPAID</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>voice</t>
-  </si>
-  <si>
-    <t>Customer Number</t>
-  </si>
-  <si>
-    <t>Decorder Number</t>
-  </si>
-  <si>
-    <t>Amount Sent</t>
-  </si>
-  <si>
-    <t>280721013807</t>
   </si>
 </sst>
 </file>
@@ -2949,7 +2946,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3042,6 +3039,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3084,7 +3082,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3130,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3178,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3226,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3276,7 +3274,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3322,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10473,7 +10471,7 @@
   <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12780,38 +12778,38 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="11" t="b">
+      <c r="B77" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="62" t="s">
         <v>714</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="F77" s="11" t="s">
+      <c r="E77" s="62" t="s">
+        <v>724</v>
+      </c>
+      <c r="F77" s="62" t="s">
         <v>713</v>
       </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11" t="s">
+      <c r="G77" s="62"/>
+      <c r="H77" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="I77" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="62">
         <v>20</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K77" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77" s="62">
         <v>12</v>
       </c>
       <c r="M77" s="4"/>
@@ -12819,44 +12817,44 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="58">
-        <f t="shared" ref="Q77:Q84" si="2">SUM(L77,J77,N77,P77)</f>
+        <f>SUM(L77,J77,N77,P77)</f>
         <v>32</v>
       </c>
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B78" s="11" t="b">
+      <c r="B78" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="62" t="s">
         <v>714</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="E78" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="F78" s="11" t="s">
+      <c r="E78" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="F78" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11" t="s">
+      <c r="G78" s="62"/>
+      <c r="H78" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="I78" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J78" s="62">
         <v>18</v>
       </c>
-      <c r="K78" s="11" t="s">
+      <c r="K78" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L78" s="62">
         <v>10</v>
       </c>
       <c r="M78" s="4"/>
@@ -12864,44 +12862,44 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="58">
-        <f t="shared" si="2"/>
+        <f>SUM(L78,J78,N78,P78)</f>
         <v>28</v>
       </c>
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B79" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="62" t="s">
         <v>714</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="62" t="s">
         <v>712</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11" t="s">
+      <c r="G79" s="62"/>
+      <c r="H79" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J79" s="62">
         <v>15</v>
       </c>
-      <c r="K79" s="11" t="s">
+      <c r="K79" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L79" s="62">
         <v>8</v>
       </c>
       <c r="M79" s="4"/>
@@ -12909,44 +12907,44 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="58">
-        <f t="shared" si="2"/>
+        <f>SUM(L79,J79,N79,P79)</f>
         <v>23</v>
       </c>
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B80" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="62" t="s">
         <v>714</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="E80" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="F80" s="11" t="s">
+      <c r="E80" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="F80" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11" t="s">
+      <c r="G80" s="62"/>
+      <c r="H80" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I80" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J80" s="62">
         <v>12</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80" s="62">
         <v>6</v>
       </c>
       <c r="M80" s="4"/>
@@ -12954,44 +12952,44 @@
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="58">
-        <f t="shared" si="2"/>
+        <f>SUM(L80,J80,N80,P80)</f>
         <v>18</v>
       </c>
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B81" s="11" t="b">
+      <c r="B81" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="D81" s="11" t="s">
+      <c r="C81" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="D81" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="62" t="s">
         <v>712</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11" t="s">
+      <c r="G81" s="62"/>
+      <c r="H81" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J81" s="62">
         <v>18</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L81" s="62">
         <v>12</v>
       </c>
       <c r="M81" s="4"/>
@@ -12999,44 +12997,44 @@
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="58">
-        <f t="shared" si="2"/>
+        <f>SUM(L81,J81,N81,P81)</f>
         <v>30</v>
       </c>
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B82" s="11" t="b">
+      <c r="B82" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="D82" s="11" t="s">
+      <c r="C82" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="D82" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="E82" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="F82" s="11" t="s">
+      <c r="E82" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="F82" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11" t="s">
+      <c r="G82" s="62"/>
+      <c r="H82" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="I82" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J82" s="62">
         <v>15</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="K82" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="62">
         <v>8</v>
       </c>
       <c r="M82" s="4"/>
@@ -13044,44 +13042,44 @@
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="58">
-        <f t="shared" si="2"/>
+        <f>SUM(L82,J82,N82,P82)</f>
         <v>23</v>
       </c>
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B83" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="B83" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="D83" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="62" t="s">
         <v>712</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11" t="s">
+      <c r="G83" s="62"/>
+      <c r="H83" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J83" s="62">
         <v>12</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="K83" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L83" s="62">
         <v>6</v>
       </c>
       <c r="M83" s="4"/>
@@ -13089,44 +13087,44 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="58">
-        <f t="shared" si="2"/>
+        <f>SUM(L83,J83,N83,P83)</f>
         <v>18</v>
       </c>
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="B84" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="D84" s="11" t="s">
+      <c r="B84" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="D84" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="F84" s="11" t="s">
+      <c r="E84" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="F84" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11" t="s">
+      <c r="G84" s="62"/>
+      <c r="H84" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J84" s="62">
         <v>10</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L84" s="62">
         <v>4</v>
       </c>
       <c r="M84" s="4"/>
@@ -13134,7 +13132,7 @@
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="58">
-        <f t="shared" si="2"/>
+        <f>SUM(L84,J84,N84,P84)</f>
         <v>14</v>
       </c>
       <c r="R84" s="4"/>
@@ -13179,7 +13177,7 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="58">
-        <f t="shared" ref="Q85" si="3">SUM(L85,J85,N85,P85)</f>
+        <f t="shared" ref="Q85" si="2">SUM(L85,J85,N85,P85)</f>
         <v>12</v>
       </c>
       <c r="R85" s="4"/>
@@ -13203,7 +13201,7 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+      <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13410,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="58" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>400</v>
@@ -13419,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>400</v>
@@ -13428,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>400</v>
@@ -13482,10 +13480,10 @@
         <v>714</v>
       </c>
       <c r="BB2" s="58" t="s">
-        <v>721</v>
+        <v>62</v>
       </c>
       <c r="BC2" s="58" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="727">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2677,6 +2677,12 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
   </si>
 </sst>
 </file>
@@ -3082,7 +3088,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,7 +3136,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3184,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3232,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,7 +3280,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3328,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8998,10 +9004,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9014,28 +9020,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>707</v>
       </c>
     </row>
@@ -9043,6 +9049,8 @@
       <c r="A2" s="11" t="s">
         <v>240</v>
       </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="11" t="s">
         <v>77</v>
       </c>
@@ -9052,10 +9060,10 @@
       <c r="F2" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9063,6 +9071,8 @@
       <c r="A3" s="24" t="s">
         <v>242</v>
       </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="11" t="s">
         <v>77</v>
       </c>
@@ -9072,10 +9082,10 @@
       <c r="F3" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9083,6 +9093,8 @@
       <c r="A4" s="11" t="s">
         <v>244</v>
       </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="11" t="s">
         <v>73</v>
       </c>
@@ -9092,10 +9104,10 @@
       <c r="F4" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9103,6 +9115,8 @@
       <c r="A5" s="11" t="s">
         <v>246</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="11" t="s">
         <v>73</v>
       </c>
@@ -9112,10 +9126,10 @@
       <c r="F5" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9123,13 +9137,15 @@
       <c r="A6" s="11" t="s">
         <v>248</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="11"/>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9137,6 +9153,8 @@
       <c r="A7" s="11" t="s">
         <v>250</v>
       </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="11" t="s">
         <v>73</v>
       </c>
@@ -9146,10 +9164,10 @@
       <c r="F7" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9157,6 +9175,8 @@
       <c r="A8" s="11" t="s">
         <v>252</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="11" t="s">
         <v>73</v>
       </c>
@@ -9166,10 +9186,10 @@
       <c r="F8" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9177,6 +9197,8 @@
       <c r="A9" s="11" t="s">
         <v>254</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="11" t="s">
         <v>73</v>
       </c>
@@ -9186,10 +9208,10 @@
       <c r="F9" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9197,6 +9219,8 @@
       <c r="A10" s="11" t="s">
         <v>256</v>
       </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="11" t="s">
         <v>73</v>
       </c>
@@ -9206,10 +9230,10 @@
       <c r="F10" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9217,6 +9241,8 @@
       <c r="A11" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="11" t="s">
         <v>73</v>
       </c>
@@ -9226,10 +9252,10 @@
       <c r="F11" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9237,6 +9263,8 @@
       <c r="A12" s="11" t="s">
         <v>261</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="11" t="s">
         <v>88</v>
       </c>
@@ -9246,10 +9274,10 @@
       <c r="F12" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9257,6 +9285,8 @@
       <c r="A13" s="11" t="s">
         <v>263</v>
       </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="11" t="s">
         <v>88</v>
       </c>
@@ -9266,10 +9296,10 @@
       <c r="F13" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9277,6 +9307,8 @@
       <c r="A14" s="11" t="s">
         <v>265</v>
       </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="11" t="s">
         <v>81</v>
       </c>
@@ -9286,10 +9318,10 @@
       <c r="F14" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9297,6 +9329,8 @@
       <c r="A15" s="11" t="s">
         <v>268</v>
       </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="11" t="s">
         <v>88</v>
       </c>
@@ -9306,10 +9340,10 @@
       <c r="F15" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9317,6 +9351,8 @@
       <c r="A16" s="11" t="s">
         <v>270</v>
       </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="11" t="s">
         <v>88</v>
       </c>
@@ -9326,10 +9362,10 @@
       <c r="F16" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9337,6 +9373,8 @@
       <c r="A17" s="11" t="s">
         <v>272</v>
       </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="11" t="s">
         <v>81</v>
       </c>
@@ -9346,10 +9384,10 @@
       <c r="F17" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9357,6 +9395,8 @@
       <c r="A18" s="11" t="s">
         <v>275</v>
       </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="11" t="s">
         <v>100</v>
       </c>
@@ -9366,10 +9406,10 @@
       <c r="F18" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9377,6 +9417,8 @@
       <c r="A19" s="11" t="s">
         <v>277</v>
       </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="11" t="s">
         <v>100</v>
       </c>
@@ -9386,10 +9428,10 @@
       <c r="F19" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9397,6 +9439,8 @@
       <c r="A20" s="11" t="s">
         <v>280</v>
       </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="11" t="s">
         <v>77</v>
       </c>
@@ -9406,10 +9450,10 @@
       <c r="F20" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9417,6 +9461,8 @@
       <c r="A21" s="11" t="s">
         <v>282</v>
       </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="11" t="s">
         <v>77</v>
       </c>
@@ -9426,10 +9472,10 @@
       <c r="F21" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9437,6 +9483,8 @@
       <c r="A22" s="11" t="s">
         <v>284</v>
       </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="11" t="s">
         <v>81</v>
       </c>
@@ -9446,10 +9494,10 @@
       <c r="F22" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9457,6 +9505,8 @@
       <c r="A23" s="11" t="s">
         <v>287</v>
       </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="11" t="s">
         <v>89</v>
       </c>
@@ -9466,10 +9516,10 @@
       <c r="F23" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9477,6 +9527,8 @@
       <c r="A24" s="11" t="s">
         <v>289</v>
       </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="11" t="s">
         <v>89</v>
       </c>
@@ -9486,10 +9538,10 @@
       <c r="F24" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9497,6 +9549,8 @@
       <c r="A25" s="11" t="s">
         <v>291</v>
       </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="11" t="s">
         <v>89</v>
       </c>
@@ -9506,10 +9560,10 @@
       <c r="F25" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9517,6 +9571,8 @@
       <c r="A26" s="11" t="s">
         <v>293</v>
       </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="11" t="s">
         <v>77</v>
       </c>
@@ -9526,10 +9582,10 @@
       <c r="F26" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9537,6 +9593,8 @@
       <c r="A27" s="11" t="s">
         <v>296</v>
       </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="11" t="s">
         <v>422</v>
       </c>
@@ -9546,10 +9604,10 @@
       <c r="F27" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9557,6 +9615,8 @@
       <c r="A28" s="11" t="s">
         <v>298</v>
       </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="11" t="s">
         <v>77</v>
       </c>
@@ -9566,10 +9626,10 @@
       <c r="F28" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9577,6 +9637,8 @@
       <c r="A29" s="24" t="s">
         <v>301</v>
       </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="11" t="s">
         <v>100</v>
       </c>
@@ -9586,10 +9648,10 @@
       <c r="F29" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9597,13 +9659,15 @@
       <c r="A30" s="30" t="s">
         <v>303</v>
       </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="11"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9611,13 +9675,15 @@
       <c r="A31" s="11" t="s">
         <v>305</v>
       </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="11"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9625,6 +9691,8 @@
       <c r="A32" s="24" t="s">
         <v>308</v>
       </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="11"/>
       <c r="E32" s="57" t="s">
         <v>77</v>
@@ -9632,10 +9700,10 @@
       <c r="F32" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9643,6 +9711,8 @@
       <c r="A33" s="11" t="s">
         <v>310</v>
       </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="11"/>
       <c r="E33" s="59" t="s">
         <v>77</v>
@@ -9650,10 +9720,10 @@
       <c r="F33" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9661,6 +9731,8 @@
       <c r="A34" s="11" t="s">
         <v>312</v>
       </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="11"/>
       <c r="E34" s="59" t="s">
         <v>77</v>
@@ -9668,10 +9740,10 @@
       <c r="F34" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9679,6 +9751,8 @@
       <c r="A35" s="11" t="s">
         <v>314</v>
       </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="11"/>
       <c r="E35" s="59" t="s">
         <v>77</v>
@@ -9686,10 +9760,10 @@
       <c r="F35" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9697,6 +9771,8 @@
       <c r="A36" s="11" t="s">
         <v>316</v>
       </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="11"/>
       <c r="E36" s="59" t="s">
         <v>77</v>
@@ -9704,10 +9780,10 @@
       <c r="F36" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9715,13 +9791,15 @@
       <c r="A37" s="30" t="s">
         <v>318</v>
       </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="11"/>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9729,13 +9807,15 @@
       <c r="A38" s="30" t="s">
         <v>320</v>
       </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="11"/>
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9743,13 +9823,15 @@
       <c r="A39" s="24" t="s">
         <v>323</v>
       </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="11"/>
       <c r="E39" s="58"/>
       <c r="F39" s="58"/>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9757,13 +9839,15 @@
       <c r="A40" s="11" t="s">
         <v>325</v>
       </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="11"/>
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9771,6 +9855,8 @@
       <c r="A41" s="11" t="s">
         <v>327</v>
       </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="11" t="s">
         <v>422</v>
       </c>
@@ -9780,10 +9866,10 @@
       <c r="F41" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9791,6 +9877,8 @@
       <c r="A42" s="11" t="s">
         <v>329</v>
       </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="11" t="s">
         <v>422</v>
       </c>
@@ -9800,10 +9888,10 @@
       <c r="F42" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9811,6 +9899,8 @@
       <c r="A43" s="11" t="s">
         <v>331</v>
       </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="11" t="s">
         <v>422</v>
       </c>
@@ -9820,10 +9910,10 @@
       <c r="F43" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9831,6 +9921,8 @@
       <c r="A44" s="11" t="s">
         <v>333</v>
       </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="11" t="s">
         <v>422</v>
       </c>
@@ -9840,10 +9932,10 @@
       <c r="F44" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9851,6 +9943,8 @@
       <c r="A45" s="11" t="s">
         <v>335</v>
       </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="11" t="s">
         <v>422</v>
       </c>
@@ -9860,10 +9954,10 @@
       <c r="F45" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9871,6 +9965,8 @@
       <c r="A46" s="11" t="s">
         <v>337</v>
       </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="11" t="s">
         <v>422</v>
       </c>
@@ -9880,10 +9976,10 @@
       <c r="F46" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9891,6 +9987,8 @@
       <c r="A47" s="11" t="s">
         <v>339</v>
       </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="11" t="s">
         <v>422</v>
       </c>
@@ -9900,10 +9998,10 @@
       <c r="F47" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9911,6 +10009,8 @@
       <c r="A48" s="11" t="s">
         <v>341</v>
       </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="11" t="s">
         <v>77</v>
       </c>
@@ -9920,10 +10020,10 @@
       <c r="F48" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9931,6 +10031,8 @@
       <c r="A49" s="11" t="s">
         <v>343</v>
       </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="11" t="s">
         <v>77</v>
       </c>
@@ -9940,10 +10042,10 @@
       <c r="F49" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9951,6 +10053,8 @@
       <c r="A50" s="11" t="s">
         <v>345</v>
       </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="11" t="s">
         <v>77</v>
       </c>
@@ -9960,10 +10064,10 @@
       <c r="F50" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9971,17 +10075,19 @@
       <c r="A51" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D51" s="31"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F51" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -9989,17 +10095,19 @@
       <c r="A52" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D52" s="31"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F52" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10007,17 +10115,19 @@
       <c r="A53" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D53" s="31"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="58"/>
       <c r="E53" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F53" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10025,17 +10135,19 @@
       <c r="A54" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D54" s="31"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F54" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10043,17 +10155,19 @@
       <c r="A55" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D55" s="31"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F55" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10061,17 +10175,19 @@
       <c r="A56" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D56" s="31"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="58"/>
       <c r="E56" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F56" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10079,17 +10195,19 @@
       <c r="A57" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D57" s="31"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="58"/>
       <c r="E57" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F57" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10097,17 +10215,19 @@
       <c r="A58" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="D58" s="31"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F58" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10115,17 +10235,19 @@
       <c r="A59" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D59" s="31"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F59" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10133,17 +10255,19 @@
       <c r="A60" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="D60" s="31"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F60" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10151,17 +10275,19 @@
       <c r="A61" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D61" s="31"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F61" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10169,6 +10295,8 @@
       <c r="A62" s="11" t="s">
         <v>370</v>
       </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="11" t="s">
         <v>77</v>
       </c>
@@ -10178,10 +10306,10 @@
       <c r="F62" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10189,6 +10317,8 @@
       <c r="A63" s="11" t="s">
         <v>372</v>
       </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="11" t="s">
         <v>77</v>
       </c>
@@ -10198,10 +10328,10 @@
       <c r="F63" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10209,6 +10339,8 @@
       <c r="A64" s="11" t="s">
         <v>375</v>
       </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="11" t="s">
         <v>77</v>
       </c>
@@ -10218,10 +10350,10 @@
       <c r="F64" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10229,6 +10361,8 @@
       <c r="A65" s="11" t="s">
         <v>377</v>
       </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="11" t="s">
         <v>422</v>
       </c>
@@ -10238,10 +10372,10 @@
       <c r="F65" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10249,6 +10383,8 @@
       <c r="A66" s="11" t="s">
         <v>379</v>
       </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="11" t="s">
         <v>89</v>
       </c>
@@ -10258,10 +10394,10 @@
       <c r="F66" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10269,6 +10405,8 @@
       <c r="A67" s="11" t="s">
         <v>381</v>
       </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="11" t="s">
         <v>89</v>
       </c>
@@ -10278,10 +10416,10 @@
       <c r="F67" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10289,6 +10427,8 @@
       <c r="A68" s="11" t="s">
         <v>383</v>
       </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="11" t="s">
         <v>89</v>
       </c>
@@ -10298,10 +10438,10 @@
       <c r="F68" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10309,6 +10449,8 @@
       <c r="A69" s="11" t="s">
         <v>385</v>
       </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="11" t="s">
         <v>89</v>
       </c>
@@ -10318,10 +10460,10 @@
       <c r="F69" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10329,6 +10471,8 @@
       <c r="A70" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="11" t="s">
         <v>89</v>
       </c>
@@ -10338,10 +10482,10 @@
       <c r="F70" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10349,6 +10493,8 @@
       <c r="A71" s="11" t="s">
         <v>389</v>
       </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="11" t="s">
         <v>89</v>
       </c>
@@ -10358,10 +10504,10 @@
       <c r="F71" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10369,6 +10515,8 @@
       <c r="A72" s="11" t="s">
         <v>391</v>
       </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="11" t="s">
         <v>89</v>
       </c>
@@ -10378,10 +10526,10 @@
       <c r="F72" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10389,6 +10537,8 @@
       <c r="A73" s="11" t="s">
         <v>393</v>
       </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="11" t="s">
         <v>89</v>
       </c>
@@ -10398,10 +10548,10 @@
       <c r="F73" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10409,6 +10559,8 @@
       <c r="A74" s="11" t="s">
         <v>395</v>
       </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
@@ -10418,10 +10570,10 @@
       <c r="F74" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10429,6 +10581,8 @@
       <c r="A75" s="11" t="s">
         <v>397</v>
       </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="11" t="s">
         <v>77</v>
       </c>
@@ -10438,10 +10592,10 @@
       <c r="F75" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -10449,13 +10603,37 @@
       <c r="A76" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="D76" s="31"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="58"/>
       <c r="F76" s="58"/>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="11">
         <v>-1</v>
       </c>
     </row>
@@ -10467,11 +10645,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10546,7 +10723,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>240</v>
       </c>
@@ -10577,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>242</v>
       </c>
@@ -10641,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>246</v>
       </c>
@@ -10672,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>248</v>
       </c>
@@ -10699,7 +10876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>250</v>
       </c>
@@ -10730,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>252</v>
       </c>
@@ -10761,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>254</v>
       </c>
@@ -10792,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>256</v>
       </c>
@@ -10823,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>258</v>
       </c>
@@ -10854,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>261</v>
       </c>
@@ -10885,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>263</v>
       </c>
@@ -10916,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>265</v>
       </c>
@@ -10947,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>268</v>
       </c>
@@ -10978,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>270</v>
       </c>
@@ -11009,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>272</v>
       </c>
@@ -11040,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>275</v>
       </c>
@@ -11071,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>277</v>
       </c>
@@ -11102,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>280</v>
       </c>
@@ -11133,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>282</v>
       </c>
@@ -11164,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>284</v>
       </c>
@@ -11195,7 +11372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>287</v>
       </c>
@@ -11226,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>289</v>
       </c>
@@ -11257,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>291</v>
       </c>
@@ -11288,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>293</v>
       </c>
@@ -11319,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>296</v>
       </c>
@@ -11350,7 +11527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>298</v>
       </c>
@@ -11381,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>301</v>
       </c>
@@ -11412,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>303</v>
       </c>
@@ -11439,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>305</v>
       </c>
@@ -11466,7 +11643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>308</v>
       </c>
@@ -11493,7 +11670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>310</v>
       </c>
@@ -11520,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>312</v>
       </c>
@@ -11547,7 +11724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>314</v>
       </c>
@@ -11574,7 +11751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>316</v>
       </c>
@@ -11601,7 +11778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>318</v>
       </c>
@@ -11628,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>320</v>
       </c>
@@ -11655,7 +11832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>323</v>
       </c>
@@ -11682,7 +11859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>325</v>
       </c>
@@ -11709,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>327</v>
       </c>
@@ -11740,7 +11917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>329</v>
       </c>
@@ -11771,7 +11948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>331</v>
       </c>
@@ -11802,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>333</v>
       </c>
@@ -11833,7 +12010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>335</v>
       </c>
@@ -11864,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>337</v>
       </c>
@@ -11895,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>339</v>
       </c>
@@ -11926,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>341</v>
       </c>
@@ -11957,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>343</v>
       </c>
@@ -11988,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>345</v>
       </c>
@@ -12019,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>347</v>
       </c>
@@ -12046,7 +12223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>349</v>
       </c>
@@ -12073,7 +12250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>351</v>
       </c>
@@ -12100,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>353</v>
       </c>
@@ -12127,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>355</v>
       </c>
@@ -12154,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>357</v>
       </c>
@@ -12181,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>359</v>
       </c>
@@ -12208,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>361</v>
       </c>
@@ -12235,7 +12412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>363</v>
       </c>
@@ -12262,7 +12439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>365</v>
       </c>
@@ -12289,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>367</v>
       </c>
@@ -12316,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>370</v>
       </c>
@@ -12347,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>372</v>
       </c>
@@ -12378,7 +12555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>375</v>
       </c>
@@ -12409,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>377</v>
       </c>
@@ -12440,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>379</v>
       </c>
@@ -12471,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>381</v>
       </c>
@@ -12502,7 +12679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>383</v>
       </c>
@@ -12533,7 +12710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>385</v>
       </c>
@@ -12564,7 +12741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>387</v>
       </c>
@@ -12595,7 +12772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>389</v>
       </c>
@@ -12626,7 +12803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>391</v>
       </c>
@@ -12657,7 +12834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>393</v>
       </c>
@@ -12688,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>395</v>
       </c>
@@ -12719,7 +12896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>397</v>
       </c>
@@ -12750,7 +12927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>398</v>
       </c>
@@ -12817,7 +12994,7 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="58">
-        <f>SUM(L77,J77,N77,P77)</f>
+        <f t="shared" ref="Q77:Q84" si="2">SUM(L77,J77,N77,P77)</f>
         <v>32</v>
       </c>
       <c r="R77" s="4"/>
@@ -12862,7 +13039,7 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="58">
-        <f>SUM(L78,J78,N78,P78)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="R78" s="4"/>
@@ -12907,7 +13084,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="58">
-        <f>SUM(L79,J79,N79,P79)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="R79" s="4"/>
@@ -12952,7 +13129,7 @@
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="58">
-        <f>SUM(L80,J80,N80,P80)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="R80" s="4"/>
@@ -12997,7 +13174,7 @@
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="58">
-        <f>SUM(L81,J81,N81,P81)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="R81" s="4"/>
@@ -13042,7 +13219,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="58">
-        <f>SUM(L82,J82,N82,P82)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="R82" s="4"/>
@@ -13087,7 +13264,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="58">
-        <f>SUM(L83,J83,N83,P83)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="R83" s="4"/>
@@ -13132,7 +13309,7 @@
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="58">
-        <f>SUM(L84,J84,N84,P84)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="R84" s="4"/>
@@ -13177,19 +13354,44 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="58">
-        <f t="shared" ref="Q85" si="2">SUM(L85,J85,N85,P85)</f>
+        <f t="shared" ref="Q85:Q86" si="3">SUM(L85,J85,N85,P85)</f>
         <v>12</v>
       </c>
       <c r="R85" s="4"/>
     </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="58">
+        <f t="shared" si="3"/>
+        <v>0.66</v>
+      </c>
+      <c r="R86" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R85">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="COM045"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R85"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="750">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2683,13 +2683,82 @@
   </si>
   <si>
     <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>ADD ON BUNDLE USAGE</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>ACCOUNT INFORMATION DETAIL</t>
+  </si>
+  <si>
+    <t>Date &amp; time</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Bill Amount</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>LINKED MSISDN</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>SIM Number</t>
+  </si>
+  <si>
+    <t>GSM Service Activation Date</t>
+  </si>
+  <si>
+    <t>Line Type</t>
+  </si>
+  <si>
+    <t>Payment Level</t>
+  </si>
+  <si>
+    <t>GSM Status</t>
+  </si>
+  <si>
+    <t>Current Usage Limit</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>CUG</t>
+  </si>
+  <si>
+    <t>DND</t>
+  </si>
+  <si>
+    <t>Security Deposit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2810,6 +2879,11 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1C293B"/>
+      <name val="Tondo-regular"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2952,7 +3026,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3046,6 +3120,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3088,7 +3163,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,7 +3211,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3259,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +3307,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3355,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3403,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3630,7 +3705,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
@@ -3639,7 +3714,7 @@
     <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3692,7 +3767,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="31">
         <v>2388008</v>
       </c>
@@ -3718,7 +3793,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="31">
         <v>2394650</v>
       </c>
@@ -3737,7 +3812,7 @@
       </c>
       <c r="Q3" s="31"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="31">
         <v>2390932</v>
       </c>
@@ -3756,7 +3831,7 @@
       </c>
       <c r="Q4" s="31"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="31">
         <v>2388008</v>
       </c>
@@ -3789,13 +3864,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -3806,7 +3881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
@@ -3817,7 +3892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="12" t="s">
         <v>63</v>
       </c>
@@ -3828,7 +3903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -3839,7 +3914,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="12" t="s">
         <v>65</v>
       </c>
@@ -3850,7 +3925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" s="13" t="s">
         <v>75</v>
       </c>
@@ -3858,7 +3933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="13" t="s">
         <v>76</v>
       </c>
@@ -3866,7 +3941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
@@ -3874,7 +3949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="13" t="s">
         <v>78</v>
       </c>
@@ -3882,7 +3957,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="13" t="s">
         <v>79</v>
       </c>
@@ -3890,7 +3965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="13" t="s">
         <v>80</v>
       </c>
@@ -3898,7 +3973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="13" t="s">
         <v>81</v>
       </c>
@@ -3906,7 +3981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="13" t="s">
         <v>82</v>
       </c>
@@ -3914,7 +3989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" s="13" t="s">
         <v>83</v>
       </c>
@@ -3922,7 +3997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" s="13" t="s">
         <v>84</v>
       </c>
@@ -3930,7 +4005,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" s="13" t="s">
         <v>85</v>
       </c>
@@ -3938,7 +4013,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="13" t="s">
         <v>86</v>
       </c>
@@ -3946,7 +4021,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="13" t="s">
         <v>87</v>
       </c>
@@ -3954,7 +4029,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="14" t="s">
         <v>88</v>
       </c>
@@ -3962,7 +4037,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="15.75">
       <c r="B20" s="15" t="s">
         <v>89</v>
       </c>
@@ -3970,7 +4045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="58" t="s">
         <v>715</v>
       </c>
@@ -3992,7 +4067,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4000,7 +4075,7 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -4017,7 +4092,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="34" t="s">
         <v>171</v>
       </c>
@@ -4034,7 +4109,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="34" t="s">
         <v>477</v>
       </c>
@@ -4051,7 +4126,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="34" t="s">
         <v>68</v>
       </c>
@@ -4081,14 +4156,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -4099,7 +4174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
@@ -4108,7 +4183,7 @@
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -4117,7 +4192,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>59</v>
       </c>
@@ -4126,7 +4201,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -4135,7 +4210,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="10" t="s">
         <v>61</v>
       </c>
@@ -4159,13 +4234,13 @@
       <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="36" t="s">
         <v>467</v>
       </c>
@@ -4173,7 +4248,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>469</v>
       </c>
@@ -4181,7 +4256,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>471</v>
       </c>
@@ -4189,7 +4264,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>473</v>
       </c>
@@ -4197,17 +4272,17 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>476</v>
       </c>
@@ -4225,7 +4300,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
@@ -4235,7 +4310,7 @@
     <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>478</v>
       </c>
@@ -4265,7 +4340,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1" collapsed="1"/>
@@ -4282,7 +4357,7 @@
     <col min="14" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>507</v>
       </c>
@@ -4323,7 +4398,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="141.75">
       <c r="A2" s="1" t="s">
         <v>520</v>
       </c>
@@ -4365,7 +4440,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
@@ -4375,7 +4450,7 @@
     <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="48" t="s">
         <v>484</v>
       </c>
@@ -4407,7 +4482,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>491</v>
       </c>
@@ -4421,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="48" t="s">
         <v>618</v>
       </c>
@@ -4442,7 +4517,7 @@
       </c>
       <c r="K3" s="51"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="48" t="s">
         <v>620</v>
       </c>
@@ -4458,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="48" t="s">
         <v>621</v>
       </c>
@@ -4474,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="48" t="s">
         <v>622</v>
       </c>
@@ -4490,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="48" t="s">
         <v>623</v>
       </c>
@@ -4506,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="48" t="s">
         <v>624</v>
       </c>
@@ -4522,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="48" t="s">
         <v>625</v>
       </c>
@@ -4538,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="48" t="s">
         <v>626</v>
       </c>
@@ -4554,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="48" t="s">
         <v>627</v>
       </c>
@@ -4570,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="48" t="s">
         <v>628</v>
       </c>
@@ -4586,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="48" t="s">
         <v>629</v>
       </c>
@@ -4616,7 +4691,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="53" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.140625" style="53" customWidth="1" collapsed="1"/>
@@ -4624,7 +4699,7 @@
     <col min="4" max="16384" width="10.85546875" style="53" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="52" t="s">
         <v>630</v>
       </c>
@@ -4635,7 +4710,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="52" t="s">
         <v>633</v>
       </c>
@@ -4646,7 +4721,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="47.25">
       <c r="A3" s="52" t="s">
         <v>636</v>
       </c>
@@ -4657,7 +4732,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="52" t="s">
         <v>639</v>
       </c>
@@ -4668,7 +4743,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="52" t="s">
         <v>642</v>
       </c>
@@ -4679,7 +4754,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="31.5">
       <c r="A6" s="52" t="s">
         <v>645</v>
       </c>
@@ -4688,7 +4763,7 @@
       </c>
       <c r="C6" s="54"/>
     </row>
-    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="47.25">
       <c r="A7" s="52" t="s">
         <v>647</v>
       </c>
@@ -4699,7 +4774,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="47.25">
       <c r="A8" s="52" t="s">
         <v>650</v>
       </c>
@@ -4710,7 +4785,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="47.25">
       <c r="A9" s="52" t="s">
         <v>653</v>
       </c>
@@ -4721,7 +4796,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="47.25">
       <c r="A10" s="52" t="s">
         <v>656</v>
       </c>
@@ -4732,7 +4807,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="47.25">
       <c r="A11" s="52" t="s">
         <v>659</v>
       </c>
@@ -4743,7 +4818,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="47.25">
       <c r="A12" s="52" t="s">
         <v>662</v>
       </c>
@@ -4754,7 +4829,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="52" t="s">
         <v>665</v>
       </c>
@@ -4763,7 +4838,7 @@
       </c>
       <c r="C13" s="54"/>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="31.5">
       <c r="A14" s="52" t="s">
         <v>667</v>
       </c>
@@ -4772,7 +4847,7 @@
       </c>
       <c r="C14" s="54"/>
     </row>
-    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="31.5">
       <c r="A15" s="52" t="s">
         <v>669</v>
       </c>
@@ -4796,7 +4871,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="38" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.140625" style="38" collapsed="1"/>
@@ -4805,7 +4880,7 @@
     <col min="5" max="16384" width="9.140625" style="38" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="37" t="s">
         <v>494</v>
       </c>
@@ -4840,7 +4915,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>505</v>
       </c>
@@ -4861,7 +4936,7 @@
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="13" t="s">
         <v>483</v>
       </c>
@@ -4882,7 +4957,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>506</v>
       </c>
@@ -4917,14 +4992,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="16384" width="10.28515625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>481</v>
       </c>
@@ -4935,7 +5010,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
         <v>73</v>
       </c>
@@ -4946,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
         <v>71</v>
       </c>
@@ -4957,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
         <v>72</v>
       </c>
@@ -4982,42 +5057,42 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="18" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
         <v>237</v>
       </c>
@@ -5029,13 +5104,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5050,32 +5125,32 @@
     <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="58" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="42" t="s">
@@ -5084,349 +5159,349 @@
       <c r="K1" s="42" t="s">
         <v>574</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="58" t="s">
         <v>601</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="58" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="58" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="58" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="58" t="s">
         <v>439</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="58" t="s">
         <v>575</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="58" t="s">
         <v>440</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>603</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="42" t="s">
         <v>537</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="58" t="s">
         <v>538</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="58" t="s">
         <v>539</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="58" t="s">
         <v>540</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="58" t="s">
         <v>541</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="42" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="58" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="58" t="s">
         <v>546</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="42" t="s">
         <v>548</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="58" t="s">
         <v>551</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="58" t="s">
         <v>556</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="58" t="s">
         <v>557</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="58" t="s">
         <v>558</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="58" t="s">
         <v>559</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="42" t="s">
         <v>560</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="58" t="s">
         <v>575</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="58" t="s">
         <v>437</v>
       </c>
       <c r="D14" s="42" t="s">
@@ -5453,17 +5528,17 @@
       <c r="K14" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="58" t="s">
         <v>437</v>
       </c>
       <c r="D15" s="42" t="s">
@@ -5472,47 +5547,47 @@
       <c r="E15" s="42" t="s">
         <v>566</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="42" t="s">
         <v>569</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="58" t="s">
         <v>570</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="58" t="s">
         <v>572</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="42" t="s">
         <v>578</v>
       </c>
@@ -5528,16 +5603,16 @@
       <c r="E17" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>590</v>
       </c>
@@ -5553,18 +5628,18 @@
       <c r="E18" s="42" t="s">
         <v>605</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-    </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+    </row>
+    <row r="19" spans="1:13" ht="45">
       <c r="A19" s="42" t="s">
         <v>593</v>
       </c>
@@ -5605,14 +5680,14 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="42" t="s">
         <v>609</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="58" t="s">
         <v>610</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="58" t="s">
         <v>437</v>
       </c>
       <c r="D20" s="42" t="s">
@@ -5627,76 +5702,173 @@
       <c r="G20" s="42" t="s">
         <v>614</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="58" t="s">
         <v>672</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="58" t="s">
         <v>673</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="58" t="s">
         <v>674</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="58" t="s">
         <v>675</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="58" t="s">
         <v>581</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="58" t="s">
         <v>676</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="58" t="s">
         <v>677</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="58" t="s">
         <v>678</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="58" t="s">
         <v>679</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="58" t="s">
         <v>681</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="58" t="s">
         <v>682</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="58" t="s">
         <v>683</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="58" t="s">
         <v>581</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="58" t="s">
         <v>684</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5">
+      <c r="A23" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>728</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>730</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>733</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>734</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>735</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>736</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>737</v>
+      </c>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>739</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>743</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>748</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="M25" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5713,9 +5885,9 @@
       <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="15.75">
       <c r="A1" s="41" t="s">
         <v>25</v>
       </c>
@@ -5882,7 +6054,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="15.75">
       <c r="A2" s="11" t="s">
         <v>238</v>
       </c>
@@ -5932,7 +6104,7 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
     </row>
-    <row r="3" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="15.75">
       <c r="A3" s="11" t="s">
         <v>238</v>
       </c>
@@ -5976,7 +6148,7 @@
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
     </row>
-    <row r="4" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="15.75">
       <c r="A4" s="11" t="s">
         <v>238</v>
       </c>
@@ -6038,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="15.75">
       <c r="A5" s="11" t="s">
         <v>238</v>
       </c>
@@ -6100,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="15.75">
       <c r="A6" s="11" t="s">
         <v>238</v>
       </c>
@@ -6162,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="15.75">
       <c r="A7" s="11" t="s">
         <v>238</v>
       </c>
@@ -6224,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="15.75">
       <c r="A8" s="11" t="s">
         <v>238</v>
       </c>
@@ -6274,7 +6446,7 @@
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
-    <row r="9" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="15.75">
       <c r="A9" s="11" t="s">
         <v>238</v>
       </c>
@@ -6318,7 +6490,7 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
     </row>
-    <row r="10" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="15.75">
       <c r="A10" s="11" t="s">
         <v>238</v>
       </c>
@@ -6350,7 +6522,7 @@
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
     </row>
-    <row r="11" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="15.75">
       <c r="A11" s="11" t="s">
         <v>238</v>
       </c>
@@ -6382,7 +6554,7 @@
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
     </row>
-    <row r="12" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="15.75">
       <c r="A12" s="11" t="s">
         <v>238</v>
       </c>
@@ -6438,7 +6610,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="15.75">
       <c r="A13" s="11" t="s">
         <v>238</v>
       </c>
@@ -6488,7 +6660,7 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
     </row>
-    <row r="14" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="15.75">
       <c r="A14" s="11" t="s">
         <v>238</v>
       </c>
@@ -6544,7 +6716,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="15.75">
       <c r="A15" s="11" t="s">
         <v>238</v>
       </c>
@@ -6600,7 +6772,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="15.75">
       <c r="A16" s="11" t="s">
         <v>238</v>
       </c>
@@ -6650,7 +6822,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="21"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.75">
       <c r="A17" s="11" t="s">
         <v>238</v>
       </c>
@@ -6700,7 +6872,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.75">
       <c r="A18" s="11" t="s">
         <v>238</v>
       </c>
@@ -6762,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.75">
       <c r="A19" s="11" t="s">
         <v>238</v>
       </c>
@@ -6824,7 +6996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.75">
       <c r="A20" s="11" t="s">
         <v>238</v>
       </c>
@@ -6874,7 +7046,7 @@
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.75">
       <c r="A21" s="11" t="s">
         <v>238</v>
       </c>
@@ -6924,7 +7096,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.75">
       <c r="A22" s="11" t="s">
         <v>238</v>
       </c>
@@ -6974,7 +7146,7 @@
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.75">
       <c r="A23" s="11" t="s">
         <v>285</v>
       </c>
@@ -7006,7 +7178,7 @@
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.75">
       <c r="A24" s="11" t="s">
         <v>285</v>
       </c>
@@ -7038,7 +7210,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.75">
       <c r="A25" s="11" t="s">
         <v>285</v>
       </c>
@@ -7070,7 +7242,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15.75">
       <c r="A26" s="11" t="s">
         <v>238</v>
       </c>
@@ -7114,7 +7286,7 @@
       <c r="S26" s="28"/>
       <c r="T26" s="28"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.75">
       <c r="A27" s="11" t="s">
         <v>294</v>
       </c>
@@ -7164,7 +7336,7 @@
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="11" t="s">
         <v>238</v>
       </c>
@@ -7214,7 +7386,7 @@
       <c r="S28" s="28"/>
       <c r="T28" s="28"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.75">
       <c r="A29" s="11" t="s">
         <v>238</v>
       </c>
@@ -7264,7 +7436,7 @@
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="15.75">
       <c r="A30" s="29" t="s">
         <v>294</v>
       </c>
@@ -7296,7 +7468,7 @@
       <c r="S30" s="31"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15.75">
       <c r="A31" s="11" t="s">
         <v>238</v>
       </c>
@@ -7328,7 +7500,7 @@
       <c r="S31" s="31"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="15.75">
       <c r="A32" s="11" t="s">
         <v>306</v>
       </c>
@@ -7360,7 +7532,7 @@
       <c r="S32" s="31"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="15.75">
       <c r="A33" s="19" t="s">
         <v>306</v>
       </c>
@@ -7392,7 +7564,7 @@
       <c r="S33" s="31"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="15.75">
       <c r="A34" s="19" t="s">
         <v>306</v>
       </c>
@@ -7424,7 +7596,7 @@
       <c r="S34" s="31"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="15.75">
       <c r="A35" s="19" t="s">
         <v>306</v>
       </c>
@@ -7456,7 +7628,7 @@
       <c r="S35" s="31"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="15.75">
       <c r="A36" s="19" t="s">
         <v>306</v>
       </c>
@@ -7488,7 +7660,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="15.75">
       <c r="A37" s="32" t="s">
         <v>306</v>
       </c>
@@ -7520,7 +7692,7 @@
       <c r="S37" s="31"/>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="32" t="s">
         <v>306</v>
       </c>
@@ -7552,7 +7724,7 @@
       <c r="S38" s="31"/>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="15.75">
       <c r="A39" s="11" t="s">
         <v>306</v>
       </c>
@@ -7584,7 +7756,7 @@
       <c r="S39" s="31"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15.75">
       <c r="A40" s="11" t="s">
         <v>306</v>
       </c>
@@ -7628,7 +7800,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="15.75">
       <c r="A41" s="11" t="s">
         <v>294</v>
       </c>
@@ -7684,7 +7856,7 @@
       <c r="S41" s="28"/>
       <c r="T41" s="28"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="15.75">
       <c r="A42" s="11" t="s">
         <v>294</v>
       </c>
@@ -7734,7 +7906,7 @@
       <c r="S42" s="28"/>
       <c r="T42" s="28"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="15.75">
       <c r="A43" s="11" t="s">
         <v>294</v>
       </c>
@@ -7784,7 +7956,7 @@
       <c r="S43" s="28"/>
       <c r="T43" s="28"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="15.75">
       <c r="A44" s="11" t="s">
         <v>294</v>
       </c>
@@ -7840,7 +8012,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="15.75">
       <c r="A45" s="11" t="s">
         <v>294</v>
       </c>
@@ -7896,7 +8068,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15.75">
       <c r="A46" s="11" t="s">
         <v>294</v>
       </c>
@@ -7952,7 +8124,7 @@
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
     </row>
-    <row r="47" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="15.75">
       <c r="A47" s="11" t="s">
         <v>294</v>
       </c>
@@ -8008,7 +8180,7 @@
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="15.75">
       <c r="A48" s="11" t="s">
         <v>294</v>
       </c>
@@ -8040,7 +8212,7 @@
       <c r="S48" s="31"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="15.75">
       <c r="A49" s="11" t="s">
         <v>294</v>
       </c>
@@ -8072,7 +8244,7 @@
       <c r="S49" s="31"/>
       <c r="T49" s="31"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="15.75">
       <c r="A50" s="11" t="s">
         <v>294</v>
       </c>
@@ -8104,7 +8276,7 @@
       <c r="S50" s="31"/>
       <c r="T50" s="31"/>
     </row>
-    <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="15.75">
       <c r="A51" s="11" t="s">
         <v>294</v>
       </c>
@@ -8136,7 +8308,7 @@
       <c r="S51" s="31"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="15.75">
       <c r="A52" s="11" t="s">
         <v>294</v>
       </c>
@@ -8168,7 +8340,7 @@
       <c r="S52" s="31"/>
       <c r="T52" s="31"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="15.75">
       <c r="A53" s="11" t="s">
         <v>294</v>
       </c>
@@ -8200,7 +8372,7 @@
       <c r="S53" s="31"/>
       <c r="T53" s="31"/>
     </row>
-    <row r="54" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="15.75">
       <c r="A54" s="11" t="s">
         <v>294</v>
       </c>
@@ -8232,7 +8404,7 @@
       <c r="S54" s="31"/>
       <c r="T54" s="31"/>
     </row>
-    <row r="55" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="15.75">
       <c r="A55" s="11" t="s">
         <v>294</v>
       </c>
@@ -8264,7 +8436,7 @@
       <c r="S55" s="31"/>
       <c r="T55" s="31"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="15.75">
       <c r="A56" s="11" t="s">
         <v>294</v>
       </c>
@@ -8296,7 +8468,7 @@
       <c r="S56" s="31"/>
       <c r="T56" s="31"/>
     </row>
-    <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="15.75">
       <c r="A57" s="11" t="s">
         <v>294</v>
       </c>
@@ -8328,7 +8500,7 @@
       <c r="S57" s="31"/>
       <c r="T57" s="31"/>
     </row>
-    <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="15.75">
       <c r="A58" s="11" t="s">
         <v>294</v>
       </c>
@@ -8360,7 +8532,7 @@
       <c r="S58" s="31"/>
       <c r="T58" s="31"/>
     </row>
-    <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="15.75">
       <c r="A59" s="11" t="s">
         <v>294</v>
       </c>
@@ -8392,7 +8564,7 @@
       <c r="S59" s="31"/>
       <c r="T59" s="31"/>
     </row>
-    <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="15.75">
       <c r="A60" s="11" t="s">
         <v>294</v>
       </c>
@@ -8424,7 +8596,7 @@
       <c r="S60" s="31"/>
       <c r="T60" s="31"/>
     </row>
-    <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="15.75">
       <c r="A61" s="11" t="s">
         <v>294</v>
       </c>
@@ -8456,7 +8628,7 @@
       <c r="S61" s="31"/>
       <c r="T61" s="31"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="15.75">
       <c r="A62" s="11" t="s">
         <v>294</v>
       </c>
@@ -8488,7 +8660,7 @@
       <c r="S62" s="31"/>
       <c r="T62" s="31"/>
     </row>
-    <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="15.75">
       <c r="A63" s="11" t="s">
         <v>294</v>
       </c>
@@ -8538,7 +8710,7 @@
       <c r="S63" s="25"/>
       <c r="T63" s="25"/>
     </row>
-    <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="15.75">
       <c r="A64" s="11" t="s">
         <v>294</v>
       </c>
@@ -8570,7 +8742,7 @@
       <c r="S64" s="31"/>
       <c r="T64" s="31"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="15.75">
       <c r="A65" s="11" t="s">
         <v>294</v>
       </c>
@@ -8620,7 +8792,7 @@
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="15.75">
       <c r="A66" s="11" t="s">
         <v>294</v>
       </c>
@@ -8652,7 +8824,7 @@
       <c r="S66" s="31"/>
       <c r="T66" s="31"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="15.75">
       <c r="A67" s="11" t="s">
         <v>294</v>
       </c>
@@ -8684,7 +8856,7 @@
       <c r="S67" s="31"/>
       <c r="T67" s="31"/>
     </row>
-    <row r="68" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="15.75">
       <c r="A68" s="11" t="s">
         <v>294</v>
       </c>
@@ -8716,7 +8888,7 @@
       <c r="S68" s="31"/>
       <c r="T68" s="31"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="15.75">
       <c r="A69" s="11" t="s">
         <v>294</v>
       </c>
@@ -8748,7 +8920,7 @@
       <c r="S69" s="31"/>
       <c r="T69" s="31"/>
     </row>
-    <row r="70" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="15.75">
       <c r="A70" s="11" t="s">
         <v>294</v>
       </c>
@@ -8780,7 +8952,7 @@
       <c r="S70" s="31"/>
       <c r="T70" s="31"/>
     </row>
-    <row r="71" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="15.75">
       <c r="A71" s="11" t="s">
         <v>294</v>
       </c>
@@ -8812,7 +8984,7 @@
       <c r="S71" s="31"/>
       <c r="T71" s="31"/>
     </row>
-    <row r="72" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="15.75">
       <c r="A72" s="11" t="s">
         <v>294</v>
       </c>
@@ -8844,7 +9016,7 @@
       <c r="S72" s="31"/>
       <c r="T72" s="31"/>
     </row>
-    <row r="73" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="15.75">
       <c r="A73" s="11" t="s">
         <v>294</v>
       </c>
@@ -8876,7 +9048,7 @@
       <c r="S73" s="31"/>
       <c r="T73" s="31"/>
     </row>
-    <row r="74" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="15.75">
       <c r="A74" s="11" t="s">
         <v>294</v>
       </c>
@@ -8908,7 +9080,7 @@
       <c r="S74" s="31"/>
       <c r="T74" s="31"/>
     </row>
-    <row r="75" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="15.75">
       <c r="A75" s="11" t="s">
         <v>294</v>
       </c>
@@ -8940,7 +9112,7 @@
       <c r="S75" s="31"/>
       <c r="T75" s="31"/>
     </row>
-    <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="15.75">
       <c r="A76" s="11" t="s">
         <v>294</v>
       </c>
@@ -9006,11 +9178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1" collapsed="1"/>
     <col min="4" max="4" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
@@ -9019,7 +9191,7 @@
     <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>693</v>
       </c>
@@ -9045,7 +9217,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>240</v>
       </c>
@@ -9067,7 +9239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="24" t="s">
         <v>242</v>
       </c>
@@ -9089,7 +9261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
         <v>244</v>
       </c>
@@ -9111,7 +9283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="11" t="s">
         <v>246</v>
       </c>
@@ -9133,7 +9305,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
         <v>248</v>
       </c>
@@ -9149,7 +9321,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
         <v>250</v>
       </c>
@@ -9171,7 +9343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
         <v>252</v>
       </c>
@@ -9193,7 +9365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
         <v>254</v>
       </c>
@@ -9215,7 +9387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
         <v>256</v>
       </c>
@@ -9237,7 +9409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
         <v>258</v>
       </c>
@@ -9259,7 +9431,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="11" t="s">
         <v>261</v>
       </c>
@@ -9281,7 +9453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="11" t="s">
         <v>263</v>
       </c>
@@ -9303,7 +9475,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="11" t="s">
         <v>265</v>
       </c>
@@ -9325,7 +9497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="11" t="s">
         <v>268</v>
       </c>
@@ -9347,7 +9519,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
         <v>270</v>
       </c>
@@ -9369,7 +9541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
         <v>272</v>
       </c>
@@ -9391,7 +9563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
         <v>275</v>
       </c>
@@ -9413,7 +9585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
         <v>277</v>
       </c>
@@ -9435,7 +9607,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
         <v>280</v>
       </c>
@@ -9457,7 +9629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
         <v>282</v>
       </c>
@@ -9479,7 +9651,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
         <v>284</v>
       </c>
@@ -9501,7 +9673,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
         <v>287</v>
       </c>
@@ -9523,7 +9695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
         <v>289</v>
       </c>
@@ -9545,7 +9717,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
         <v>291</v>
       </c>
@@ -9567,7 +9739,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
         <v>293</v>
       </c>
@@ -9589,7 +9761,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
         <v>296</v>
       </c>
@@ -9611,7 +9783,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
         <v>298</v>
       </c>
@@ -9633,7 +9805,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="24" t="s">
         <v>301</v>
       </c>
@@ -9655,7 +9827,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="30" t="s">
         <v>303</v>
       </c>
@@ -9671,7 +9843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
         <v>305</v>
       </c>
@@ -9687,7 +9859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="24" t="s">
         <v>308</v>
       </c>
@@ -9707,7 +9879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
         <v>310</v>
       </c>
@@ -9727,7 +9899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
         <v>312</v>
       </c>
@@ -9747,7 +9919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
         <v>314</v>
       </c>
@@ -9767,7 +9939,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
         <v>316</v>
       </c>
@@ -9787,7 +9959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="30" t="s">
         <v>318</v>
       </c>
@@ -9803,7 +9975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="30" t="s">
         <v>320</v>
       </c>
@@ -9819,7 +9991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="24" t="s">
         <v>323</v>
       </c>
@@ -9835,7 +10007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
         <v>325</v>
       </c>
@@ -9851,7 +10023,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
         <v>327</v>
       </c>
@@ -9873,7 +10045,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
         <v>329</v>
       </c>
@@ -9895,7 +10067,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
         <v>331</v>
       </c>
@@ -9917,7 +10089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
         <v>333</v>
       </c>
@@ -9939,7 +10111,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
         <v>335</v>
       </c>
@@ -9961,7 +10133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
         <v>337</v>
       </c>
@@ -9983,7 +10155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
         <v>339</v>
       </c>
@@ -10005,7 +10177,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
         <v>341</v>
       </c>
@@ -10027,7 +10199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
         <v>343</v>
       </c>
@@ -10049,7 +10221,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="11" t="s">
         <v>345</v>
       </c>
@@ -10071,7 +10243,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="11" t="s">
         <v>347</v>
       </c>
@@ -10091,7 +10263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="11" t="s">
         <v>349</v>
       </c>
@@ -10111,7 +10283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="11" t="s">
         <v>351</v>
       </c>
@@ -10131,7 +10303,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="11" t="s">
         <v>353</v>
       </c>
@@ -10151,7 +10323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="11" t="s">
         <v>355</v>
       </c>
@@ -10171,7 +10343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="11" t="s">
         <v>357</v>
       </c>
@@ -10191,7 +10363,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="11" t="s">
         <v>359</v>
       </c>
@@ -10211,7 +10383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="11" t="s">
         <v>361</v>
       </c>
@@ -10231,7 +10403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="11" t="s">
         <v>363</v>
       </c>
@@ -10251,7 +10423,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="11" t="s">
         <v>365</v>
       </c>
@@ -10271,7 +10443,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="11" t="s">
         <v>367</v>
       </c>
@@ -10291,7 +10463,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="11" t="s">
         <v>370</v>
       </c>
@@ -10313,7 +10485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="11" t="s">
         <v>372</v>
       </c>
@@ -10335,7 +10507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="11" t="s">
         <v>375</v>
       </c>
@@ -10357,7 +10529,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="11" t="s">
         <v>377</v>
       </c>
@@ -10379,7 +10551,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="11" t="s">
         <v>379</v>
       </c>
@@ -10401,7 +10573,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="11" t="s">
         <v>381</v>
       </c>
@@ -10423,7 +10595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="11" t="s">
         <v>383</v>
       </c>
@@ -10445,7 +10617,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="11" t="s">
         <v>385</v>
       </c>
@@ -10467,7 +10639,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="11" t="s">
         <v>387</v>
       </c>
@@ -10489,7 +10661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="11" t="s">
         <v>389</v>
       </c>
@@ -10511,7 +10683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="11" t="s">
         <v>391</v>
       </c>
@@ -10533,7 +10705,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="11" t="s">
         <v>393</v>
       </c>
@@ -10555,7 +10727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="11" t="s">
         <v>395</v>
       </c>
@@ -10577,7 +10749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="11" t="s">
         <v>397</v>
       </c>
@@ -10599,7 +10771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="11" t="s">
         <v>398</v>
       </c>
@@ -10615,7 +10787,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
         <v>725</v>
       </c>
@@ -10651,7 +10823,7 @@
       <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
@@ -10667,7 +10839,7 @@
     <col min="19" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>693</v>
       </c>
@@ -10723,7 +10895,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="11" t="s">
         <v>240</v>
       </c>
@@ -10754,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="24" t="s">
         <v>242</v>
       </c>
@@ -10785,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
         <v>244</v>
       </c>
@@ -10818,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
         <v>246</v>
       </c>
@@ -10849,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="11" t="s">
         <v>248</v>
       </c>
@@ -10876,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>250</v>
       </c>
@@ -10907,7 +11079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>252</v>
       </c>
@@ -10938,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="11" t="s">
         <v>254</v>
       </c>
@@ -10969,7 +11141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>256</v>
       </c>
@@ -11000,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
         <v>258</v>
       </c>
@@ -11031,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>261</v>
       </c>
@@ -11062,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
         <v>263</v>
       </c>
@@ -11093,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="11" t="s">
         <v>265</v>
       </c>
@@ -11124,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
         <v>268</v>
       </c>
@@ -11155,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
         <v>270</v>
       </c>
@@ -11186,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="11" t="s">
         <v>272</v>
       </c>
@@ -11217,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
         <v>275</v>
       </c>
@@ -11248,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
         <v>277</v>
       </c>
@@ -11279,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
         <v>280</v>
       </c>
@@ -11310,7 +11482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="11" t="s">
         <v>282</v>
       </c>
@@ -11341,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
         <v>284</v>
       </c>
@@ -11372,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
         <v>287</v>
       </c>
@@ -11403,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="11" t="s">
         <v>289</v>
       </c>
@@ -11434,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="11" t="s">
         <v>291</v>
       </c>
@@ -11465,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="11" t="s">
         <v>293</v>
       </c>
@@ -11496,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
         <v>296</v>
       </c>
@@ -11527,7 +11699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="11" t="s">
         <v>298</v>
       </c>
@@ -11558,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="24" t="s">
         <v>301</v>
       </c>
@@ -11589,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="30" t="s">
         <v>303</v>
       </c>
@@ -11616,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
         <v>305</v>
       </c>
@@ -11643,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="24" t="s">
         <v>308</v>
       </c>
@@ -11670,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
         <v>310</v>
       </c>
@@ -11697,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="11" t="s">
         <v>312</v>
       </c>
@@ -11724,7 +11896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="11" t="s">
         <v>314</v>
       </c>
@@ -11751,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
         <v>316</v>
       </c>
@@ -11778,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="30" t="s">
         <v>318</v>
       </c>
@@ -11805,7 +11977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="30" t="s">
         <v>320</v>
       </c>
@@ -11832,7 +12004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="24" t="s">
         <v>323</v>
       </c>
@@ -11859,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
         <v>325</v>
       </c>
@@ -11886,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
         <v>327</v>
       </c>
@@ -11917,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
         <v>329</v>
       </c>
@@ -11948,7 +12120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
         <v>331</v>
       </c>
@@ -11979,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
         <v>333</v>
       </c>
@@ -12010,7 +12182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
         <v>335</v>
       </c>
@@ -12041,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="11" t="s">
         <v>337</v>
       </c>
@@ -12072,7 +12244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="11" t="s">
         <v>339</v>
       </c>
@@ -12103,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="11" t="s">
         <v>341</v>
       </c>
@@ -12134,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="11" t="s">
         <v>343</v>
       </c>
@@ -12165,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="11" t="s">
         <v>345</v>
       </c>
@@ -12196,7 +12368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
         <v>347</v>
       </c>
@@ -12223,7 +12395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="11" t="s">
         <v>349</v>
       </c>
@@ -12250,7 +12422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
         <v>351</v>
       </c>
@@ -12277,7 +12449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
         <v>353</v>
       </c>
@@ -12304,7 +12476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="11" t="s">
         <v>355</v>
       </c>
@@ -12331,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="11" t="s">
         <v>357</v>
       </c>
@@ -12358,7 +12530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="11" t="s">
         <v>359</v>
       </c>
@@ -12385,7 +12557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="11" t="s">
         <v>361</v>
       </c>
@@ -12412,7 +12584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="11" t="s">
         <v>363</v>
       </c>
@@ -12439,7 +12611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="11" t="s">
         <v>365</v>
       </c>
@@ -12466,7 +12638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="11" t="s">
         <v>367</v>
       </c>
@@ -12493,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="11" t="s">
         <v>370</v>
       </c>
@@ -12524,7 +12696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="11" t="s">
         <v>372</v>
       </c>
@@ -12555,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="11" t="s">
         <v>375</v>
       </c>
@@ -12586,7 +12758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="11" t="s">
         <v>377</v>
       </c>
@@ -12617,7 +12789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="11" t="s">
         <v>379</v>
       </c>
@@ -12648,7 +12820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="11" t="s">
         <v>381</v>
       </c>
@@ -12679,7 +12851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="11" t="s">
         <v>383</v>
       </c>
@@ -12710,7 +12882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="11" t="s">
         <v>385</v>
       </c>
@@ -12741,7 +12913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="11" t="s">
         <v>387</v>
       </c>
@@ -12772,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="11" t="s">
         <v>389</v>
       </c>
@@ -12803,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="11" t="s">
         <v>391</v>
       </c>
@@ -12834,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="11" t="s">
         <v>393</v>
       </c>
@@ -12865,7 +13037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
         <v>395</v>
       </c>
@@ -12896,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="11" t="s">
         <v>397</v>
       </c>
@@ -12927,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="11" t="s">
         <v>398</v>
       </c>
@@ -12954,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="62" t="s">
         <v>244</v>
       </c>
@@ -12999,7 +13171,7 @@
       </c>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="62" t="s">
         <v>244</v>
       </c>
@@ -13044,7 +13216,7 @@
       </c>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="62" t="s">
         <v>244</v>
       </c>
@@ -13089,7 +13261,7 @@
       </c>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="62" t="s">
         <v>244</v>
       </c>
@@ -13134,7 +13306,7 @@
       </c>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" s="62" t="s">
         <v>244</v>
       </c>
@@ -13179,7 +13351,7 @@
       </c>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" s="62" t="s">
         <v>244</v>
       </c>
@@ -13224,7 +13396,7 @@
       </c>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83" s="62" t="s">
         <v>244</v>
       </c>
@@ -13269,7 +13441,7 @@
       </c>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" s="62" t="s">
         <v>244</v>
       </c>
@@ -13314,7 +13486,7 @@
       </c>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85" s="11" t="s">
         <v>244</v>
       </c>
@@ -13359,7 +13531,7 @@
       </c>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" s="62" t="s">
         <v>725</v>
       </c>
@@ -13406,9 +13578,9 @@
       <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="15.75">
       <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
@@ -13575,7 +13747,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55">
       <c r="A2" s="11" t="s">
         <v>238</v>
       </c>
@@ -13703,7 +13875,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
@@ -13713,7 +13885,7 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
@@ -13733,7 +13905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
         <v>90</v>
       </c>
@@ -13751,7 +13923,7 @@
       </c>
       <c r="F2" s="31"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
         <v>90</v>
       </c>
@@ -13769,7 +13941,7 @@
       </c>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="31" t="s">
         <v>90</v>
       </c>
@@ -13787,7 +13959,7 @@
       </c>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="31" t="s">
         <v>90</v>
       </c>
@@ -13805,7 +13977,7 @@
       </c>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
         <v>90</v>
       </c>
@@ -13823,7 +13995,7 @@
       </c>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="31" t="s">
         <v>90</v>
       </c>
@@ -13841,7 +14013,7 @@
       </c>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="31" t="s">
         <v>90</v>
       </c>
@@ -13859,7 +14031,7 @@
       </c>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="31" t="s">
         <v>90</v>
       </c>
@@ -13877,7 +14049,7 @@
       </c>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="31" t="s">
         <v>90</v>
       </c>
@@ -13895,7 +14067,7 @@
       </c>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="31" t="s">
         <v>90</v>
       </c>
@@ -13913,7 +14085,7 @@
       </c>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="31" t="s">
         <v>118</v>
       </c>
@@ -13931,7 +14103,7 @@
       </c>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="31" t="s">
         <v>118</v>
       </c>
@@ -13949,7 +14121,7 @@
       </c>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="31" t="s">
         <v>118</v>
       </c>
@@ -13967,7 +14139,7 @@
       </c>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="31" t="s">
         <v>118</v>
       </c>
@@ -13985,7 +14157,7 @@
       </c>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="31" t="s">
         <v>118</v>
       </c>
@@ -14003,7 +14175,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="31" t="s">
         <v>118</v>
       </c>
@@ -14021,7 +14193,7 @@
       </c>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="31" t="s">
         <v>118</v>
       </c>
@@ -14039,7 +14211,7 @@
       </c>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="31" t="s">
         <v>118</v>
       </c>
@@ -14057,7 +14229,7 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="31" t="s">
         <v>118</v>
       </c>
@@ -14075,7 +14247,7 @@
       </c>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="31" t="s">
         <v>118</v>
       </c>
@@ -14093,7 +14265,7 @@
       </c>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="31" t="s">
         <v>118</v>
       </c>
@@ -14111,7 +14283,7 @@
       </c>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="31" t="s">
         <v>118</v>
       </c>
@@ -14129,7 +14301,7 @@
       </c>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="31" t="s">
         <v>118</v>
       </c>
@@ -14147,7 +14319,7 @@
       </c>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="31" t="s">
         <v>118</v>
       </c>
@@ -14165,7 +14337,7 @@
       </c>
       <c r="F25" s="31"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="31" t="s">
         <v>118</v>
       </c>
@@ -14183,7 +14355,7 @@
       </c>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="31" t="s">
         <v>118</v>
       </c>
@@ -14201,7 +14373,7 @@
       </c>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="31" t="s">
         <v>118</v>
       </c>
@@ -14219,7 +14391,7 @@
       </c>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="31" t="s">
         <v>118</v>
       </c>
@@ -14237,7 +14409,7 @@
       </c>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="31" t="s">
         <v>118</v>
       </c>
@@ -14255,7 +14427,7 @@
       </c>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="31" t="s">
         <v>118</v>
       </c>
@@ -14273,7 +14445,7 @@
       </c>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="31" t="s">
         <v>118</v>
       </c>
@@ -14291,7 +14463,7 @@
       </c>
       <c r="F32" s="31"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="31" t="s">
         <v>118</v>
       </c>
@@ -14309,7 +14481,7 @@
       </c>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="31" t="s">
         <v>118</v>
       </c>
@@ -14327,7 +14499,7 @@
       </c>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="31" t="s">
         <v>118</v>
       </c>
@@ -14345,7 +14517,7 @@
       </c>
       <c r="F35" s="31"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="31" t="s">
         <v>118</v>
       </c>
@@ -14363,7 +14535,7 @@
       </c>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="31" t="s">
         <v>118</v>
       </c>
@@ -14381,7 +14553,7 @@
       </c>
       <c r="F37" s="31"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="31" t="s">
         <v>118</v>
       </c>
@@ -14399,7 +14571,7 @@
       </c>
       <c r="F38" s="31"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="31" t="s">
         <v>118</v>
       </c>
@@ -14417,7 +14589,7 @@
       </c>
       <c r="F39" s="31"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="31" t="s">
         <v>118</v>
       </c>
@@ -14435,7 +14607,7 @@
       </c>
       <c r="F40" s="31"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="31" t="s">
         <v>118</v>
       </c>
@@ -14453,7 +14625,7 @@
       </c>
       <c r="F41" s="31"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="31" t="s">
         <v>118</v>
       </c>
@@ -14471,7 +14643,7 @@
       </c>
       <c r="F42" s="31"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="31" t="s">
         <v>118</v>
       </c>
@@ -14489,7 +14661,7 @@
       </c>
       <c r="F43" s="31"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="31" t="s">
         <v>118</v>
       </c>
@@ -14507,7 +14679,7 @@
       </c>
       <c r="F44" s="31"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="31" t="s">
         <v>118</v>
       </c>
@@ -14525,7 +14697,7 @@
       </c>
       <c r="F45" s="31"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="31" t="s">
         <v>118</v>
       </c>
@@ -14543,7 +14715,7 @@
       </c>
       <c r="F46" s="31"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="31" t="s">
         <v>118</v>
       </c>
@@ -14561,7 +14733,7 @@
       </c>
       <c r="F47" s="31"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="31" t="s">
         <v>118</v>
       </c>
@@ -14579,7 +14751,7 @@
       </c>
       <c r="F48" s="31"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="31" t="s">
         <v>118</v>
       </c>
@@ -14597,7 +14769,7 @@
       </c>
       <c r="F49" s="31"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="31" t="s">
         <v>118</v>
       </c>
@@ -14615,7 +14787,7 @@
       </c>
       <c r="F50" s="31"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="31" t="s">
         <v>118</v>
       </c>
@@ -14633,7 +14805,7 @@
       </c>
       <c r="F51" s="31"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="31" t="s">
         <v>118</v>
       </c>
@@ -14651,7 +14823,7 @@
       </c>
       <c r="F52" s="31"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="31" t="s">
         <v>90</v>
       </c>
@@ -14669,7 +14841,7 @@
       </c>
       <c r="F53" s="31"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="31" t="s">
         <v>118</v>
       </c>
@@ -14687,7 +14859,7 @@
       </c>
       <c r="F54" s="31"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="31" t="s">
         <v>90</v>
       </c>
@@ -14705,7 +14877,7 @@
       </c>
       <c r="F55" s="31"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="31" t="s">
         <v>118</v>
       </c>
@@ -14723,7 +14895,7 @@
       </c>
       <c r="F56" s="31"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="31" t="s">
         <v>90</v>
       </c>
@@ -14741,7 +14913,7 @@
       </c>
       <c r="F57" s="31"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="31" t="s">
         <v>90</v>
       </c>
@@ -14759,7 +14931,7 @@
       </c>
       <c r="F58" s="31"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="31" t="s">
         <v>118</v>
       </c>
@@ -14777,7 +14949,7 @@
       </c>
       <c r="F59" s="31"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="31" t="s">
         <v>90</v>
       </c>
@@ -14795,7 +14967,7 @@
       </c>
       <c r="F60" s="31"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="31" t="s">
         <v>90</v>
       </c>
@@ -14813,7 +14985,7 @@
       </c>
       <c r="F61" s="31"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="31" t="s">
         <v>118</v>
       </c>
@@ -14831,7 +15003,7 @@
       </c>
       <c r="F62" s="31"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="31" t="s">
         <v>118</v>
       </c>
@@ -14849,7 +15021,7 @@
       </c>
       <c r="F63" s="31"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="31" t="s">
         <v>118</v>
       </c>
@@ -14867,7 +15039,7 @@
       </c>
       <c r="F64" s="31"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="31" t="s">
         <v>118</v>
       </c>
@@ -14885,7 +15057,7 @@
       </c>
       <c r="F65" s="31"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="31" t="s">
         <v>118</v>
       </c>
@@ -14917,9 +15089,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
@@ -14939,7 +15111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="17" t="s">
         <v>90</v>
       </c>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3163,7 +3163,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3211,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3259,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3307,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,7 +3355,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4436,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4642,7 +4642,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5106,7 +5106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0547D2-B2ED-2B40-97CF-ACF59F4354D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="11115" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -28,15 +29,16 @@
     <sheet name="Ticket Transfer Rules" sheetId="16" r:id="rId14"/>
     <sheet name="Authentication Policy" sheetId="19" r:id="rId15"/>
     <sheet name="Action Tagging" sheetId="17" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId19"/>
+    <sheet name="OpenAPILoginSheet" sheetId="24" r:id="rId17"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId18"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId19"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AL$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SLA Configuration'!$A$1:$R$85</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -177,12 +179,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -235,12 +237,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -288,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -366,12 +368,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="757">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2752,13 +2754,34 @@
   </si>
   <si>
     <t>Security Deposit</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2884,6 +2907,13 @@
       <sz val="13"/>
       <color rgb="FF1C293B"/>
       <name val="Tondo-regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3026,7 +3056,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3121,14 +3151,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="4"/>
-    <cellStyle name="Normal 4 3" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3163,7 +3196,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3244,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FE93F-5E14-564A-B973-EF736B818D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3292,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D6C7C1-35FA-264C-8C38-CEF3FB365E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3340,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7C03D7-7A9D-3140-9B2A-34ADBD00E1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,7 +3388,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E3C7CD-3915-1C46-AC6C-A8CD1CE944E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3436,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED9E0C-B3A5-A045-9BF7-FA80DDF8A51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,20 +3731,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3767,7 +3800,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5">
+    <row r="2" spans="1:17" ht="17">
       <c r="A2" s="31">
         <v>2388008</v>
       </c>
@@ -3812,7 +3845,7 @@
       </c>
       <c r="Q3" s="31"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5">
+    <row r="4" spans="1:17" ht="17">
       <c r="A4" s="31">
         <v>2390932</v>
       </c>
@@ -3857,17 +3890,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3881,7 +3914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
@@ -3892,7 +3925,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="12" t="s">
         <v>63</v>
       </c>
@@ -3903,7 +3936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -3914,7 +3947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="12" t="s">
         <v>65</v>
       </c>
@@ -4037,7 +4070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75">
+    <row r="20" spans="2:3" ht="16">
       <c r="B20" s="15" t="s">
         <v>89</v>
       </c>
@@ -4060,22 +4093,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -4092,7 +4125,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="34" t="s">
         <v>171</v>
       </c>
@@ -4109,7 +4142,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="34" t="s">
         <v>477</v>
       </c>
@@ -4126,7 +4159,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="34" t="s">
         <v>68</v>
       </c>
@@ -4149,21 +4182,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -4174,7 +4207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
@@ -4183,7 +4216,7 @@
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -4192,7 +4225,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="10" t="s">
         <v>59</v>
       </c>
@@ -4201,7 +4234,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
@@ -4210,7 +4243,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="10" t="s">
         <v>61</v>
       </c>
@@ -4227,17 +4260,17 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4293,21 +4326,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4333,31 +4366,31 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" style="40" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" style="40" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.42578125" style="40" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" style="40" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" style="40" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" style="40" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5" style="40" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1640625" style="40" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.5" style="40" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5" style="40" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" style="40" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5" style="40" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12" style="40" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="40" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.42578125" style="40" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" style="40" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5" style="40" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="1" t="s">
         <v>507</v>
       </c>
@@ -4398,7 +4431,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75">
+    <row r="2" spans="1:13" ht="153">
       <c r="A2" s="1" t="s">
         <v>520</v>
       </c>
@@ -4433,21 +4466,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="9.1640625" style="1" collapsed="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4684,22 +4717,71 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F35A32-01B1-8347-AF56-573B8FE4E048}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="64" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>756</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="53" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.1640625" style="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.1640625" style="53" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="41" style="53" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.85546875" style="53" collapsed="1"/>
+    <col min="4" max="16384" width="10.83203125" style="53" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="52" t="s">
         <v>630</v>
       </c>
@@ -4710,7 +4792,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="52" t="s">
         <v>633</v>
       </c>
@@ -4721,7 +4803,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="47.25">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="52" t="s">
         <v>636</v>
       </c>
@@ -4732,7 +4814,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="52" t="s">
         <v>639</v>
       </c>
@@ -4743,7 +4825,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="52" t="s">
         <v>642</v>
       </c>
@@ -4754,7 +4836,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5">
+    <row r="6" spans="1:3" ht="34">
       <c r="A6" s="52" t="s">
         <v>645</v>
       </c>
@@ -4763,7 +4845,7 @@
       </c>
       <c r="C6" s="54"/>
     </row>
-    <row r="7" spans="1:3" ht="47.25">
+    <row r="7" spans="1:3" ht="34">
       <c r="A7" s="52" t="s">
         <v>647</v>
       </c>
@@ -4774,7 +4856,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25">
+    <row r="8" spans="1:3" ht="34">
       <c r="A8" s="52" t="s">
         <v>650</v>
       </c>
@@ -4785,7 +4867,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="52" t="s">
         <v>653</v>
       </c>
@@ -4796,7 +4878,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.25">
+    <row r="10" spans="1:3" ht="51">
       <c r="A10" s="52" t="s">
         <v>656</v>
       </c>
@@ -4807,7 +4889,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" s="52" t="s">
         <v>659</v>
       </c>
@@ -4818,7 +4900,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="52" t="s">
         <v>662</v>
       </c>
@@ -4829,7 +4911,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="52" t="s">
         <v>665</v>
       </c>
@@ -4838,7 +4920,7 @@
       </c>
       <c r="C13" s="54"/>
     </row>
-    <row r="14" spans="1:3" ht="31.5">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="52" t="s">
         <v>667</v>
       </c>
@@ -4847,7 +4929,7 @@
       </c>
       <c r="C14" s="54"/>
     </row>
-    <row r="15" spans="1:3" ht="31.5">
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" s="52" t="s">
         <v>669</v>
       </c>
@@ -4863,21 +4945,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="38" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="38" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="38" collapsed="1"/>
+    <col min="2" max="2" width="9.1640625" style="38" collapsed="1"/>
+    <col min="3" max="3" width="15.83203125" style="38" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.1640625" style="38" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="38" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4915,7 +4997,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="13" t="s">
         <v>505</v>
       </c>
@@ -4936,7 +5018,7 @@
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="13" t="s">
         <v>483</v>
       </c>
@@ -4957,7 +5039,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="13" t="s">
         <v>506</v>
       </c>
@@ -4984,19 +5066,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="10.28515625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="10.33203125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5049,79 +5184,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -5166,7 +5248,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="58" t="s">
         <v>71</v>
       </c>
@@ -5220,7 +5302,7 @@
       <c r="L3" s="58"/>
       <c r="M3" s="58"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="58" t="s">
         <v>439</v>
       </c>
@@ -5494,7 +5576,7 @@
       <c r="L13" s="58"/>
       <c r="M13" s="58"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="42" t="s">
         <v>560</v>
       </c>
@@ -5639,7 +5721,7 @@
       <c r="L18" s="58"/>
       <c r="M18" s="58"/>
     </row>
-    <row r="19" spans="1:13" ht="45">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="42" t="s">
         <v>593</v>
       </c>
@@ -5773,7 +5855,7 @@
       <c r="L22" s="58"/>
       <c r="M22" s="58"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:13" ht="17">
       <c r="A23" s="63" t="s">
         <v>727</v>
       </c>
@@ -5878,16 +5960,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC76"/>
   <sheetViews>
     <sheetView topLeftCell="AO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75">
+    <row r="1" spans="1:55" ht="16">
       <c r="A1" s="41" t="s">
         <v>25</v>
       </c>
@@ -6054,7 +6136,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="15.75">
+    <row r="2" spans="1:55" ht="16">
       <c r="A2" s="11" t="s">
         <v>238</v>
       </c>
@@ -6104,7 +6186,7 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
     </row>
-    <row r="3" spans="1:55" ht="15.75">
+    <row r="3" spans="1:55" ht="16">
       <c r="A3" s="11" t="s">
         <v>238</v>
       </c>
@@ -6148,7 +6230,7 @@
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
     </row>
-    <row r="4" spans="1:55" ht="15.75">
+    <row r="4" spans="1:55" ht="16">
       <c r="A4" s="11" t="s">
         <v>238</v>
       </c>
@@ -6210,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="15.75">
+    <row r="5" spans="1:55" ht="16">
       <c r="A5" s="11" t="s">
         <v>238</v>
       </c>
@@ -6272,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="15.75">
+    <row r="6" spans="1:55" ht="16">
       <c r="A6" s="11" t="s">
         <v>238</v>
       </c>
@@ -6334,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="15.75">
+    <row r="7" spans="1:55" ht="16">
       <c r="A7" s="11" t="s">
         <v>238</v>
       </c>
@@ -6396,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="15.75">
+    <row r="8" spans="1:55" ht="16">
       <c r="A8" s="11" t="s">
         <v>238</v>
       </c>
@@ -6446,7 +6528,7 @@
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
-    <row r="9" spans="1:55" ht="15.75">
+    <row r="9" spans="1:55" ht="16">
       <c r="A9" s="11" t="s">
         <v>238</v>
       </c>
@@ -6490,7 +6572,7 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
     </row>
-    <row r="10" spans="1:55" ht="15.75">
+    <row r="10" spans="1:55" ht="16">
       <c r="A10" s="11" t="s">
         <v>238</v>
       </c>
@@ -6522,7 +6604,7 @@
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
     </row>
-    <row r="11" spans="1:55" ht="15.75">
+    <row r="11" spans="1:55" ht="16">
       <c r="A11" s="11" t="s">
         <v>238</v>
       </c>
@@ -6554,7 +6636,7 @@
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
     </row>
-    <row r="12" spans="1:55" ht="15.75">
+    <row r="12" spans="1:55" ht="16">
       <c r="A12" s="11" t="s">
         <v>238</v>
       </c>
@@ -6610,7 +6692,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:55" ht="15.75">
+    <row r="13" spans="1:55" ht="16">
       <c r="A13" s="11" t="s">
         <v>238</v>
       </c>
@@ -6660,7 +6742,7 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
     </row>
-    <row r="14" spans="1:55" ht="15.75">
+    <row r="14" spans="1:55" ht="16">
       <c r="A14" s="11" t="s">
         <v>238</v>
       </c>
@@ -6716,7 +6798,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="1:55" ht="15.75">
+    <row r="15" spans="1:55" ht="16">
       <c r="A15" s="11" t="s">
         <v>238</v>
       </c>
@@ -6772,7 +6854,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="1:55" ht="15.75">
+    <row r="16" spans="1:55" ht="16">
       <c r="A16" s="11" t="s">
         <v>238</v>
       </c>
@@ -6822,7 +6904,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="21"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="16">
       <c r="A17" s="11" t="s">
         <v>238</v>
       </c>
@@ -6872,7 +6954,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="16">
       <c r="A18" s="11" t="s">
         <v>238</v>
       </c>
@@ -6934,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="16">
       <c r="A19" s="11" t="s">
         <v>238</v>
       </c>
@@ -6996,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="16">
       <c r="A20" s="11" t="s">
         <v>238</v>
       </c>
@@ -7046,7 +7128,7 @@
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="16">
       <c r="A21" s="11" t="s">
         <v>238</v>
       </c>
@@ -7096,7 +7178,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="16">
       <c r="A22" s="11" t="s">
         <v>238</v>
       </c>
@@ -7146,7 +7228,7 @@
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="16">
       <c r="A23" s="11" t="s">
         <v>285</v>
       </c>
@@ -7178,7 +7260,7 @@
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="16">
       <c r="A24" s="11" t="s">
         <v>285</v>
       </c>
@@ -7210,7 +7292,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="16">
       <c r="A25" s="11" t="s">
         <v>285</v>
       </c>
@@ -7242,7 +7324,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="16">
       <c r="A26" s="11" t="s">
         <v>238</v>
       </c>
@@ -7286,7 +7368,7 @@
       <c r="S26" s="28"/>
       <c r="T26" s="28"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75">
+    <row r="27" spans="1:20" ht="16">
       <c r="A27" s="11" t="s">
         <v>294</v>
       </c>
@@ -7386,7 +7468,7 @@
       <c r="S28" s="28"/>
       <c r="T28" s="28"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75">
+    <row r="29" spans="1:20" ht="16">
       <c r="A29" s="11" t="s">
         <v>238</v>
       </c>
@@ -7436,7 +7518,7 @@
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75">
+    <row r="30" spans="1:20" ht="16">
       <c r="A30" s="29" t="s">
         <v>294</v>
       </c>
@@ -7468,7 +7550,7 @@
       <c r="S30" s="31"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75">
+    <row r="31" spans="1:20" ht="16">
       <c r="A31" s="11" t="s">
         <v>238</v>
       </c>
@@ -7500,7 +7582,7 @@
       <c r="S31" s="31"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75">
+    <row r="32" spans="1:20" ht="16">
       <c r="A32" s="11" t="s">
         <v>306</v>
       </c>
@@ -7532,7 +7614,7 @@
       <c r="S32" s="31"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" ht="15.75">
+    <row r="33" spans="1:20" ht="16">
       <c r="A33" s="19" t="s">
         <v>306</v>
       </c>
@@ -7564,7 +7646,7 @@
       <c r="S33" s="31"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75">
+    <row r="34" spans="1:20" ht="16">
       <c r="A34" s="19" t="s">
         <v>306</v>
       </c>
@@ -7596,7 +7678,7 @@
       <c r="S34" s="31"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" ht="15.75">
+    <row r="35" spans="1:20" ht="16">
       <c r="A35" s="19" t="s">
         <v>306</v>
       </c>
@@ -7628,7 +7710,7 @@
       <c r="S35" s="31"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75">
+    <row r="36" spans="1:20" ht="16">
       <c r="A36" s="19" t="s">
         <v>306</v>
       </c>
@@ -7660,7 +7742,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75">
+    <row r="37" spans="1:20" ht="16">
       <c r="A37" s="32" t="s">
         <v>306</v>
       </c>
@@ -7724,7 +7806,7 @@
       <c r="S38" s="31"/>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75">
+    <row r="39" spans="1:20" ht="16">
       <c r="A39" s="11" t="s">
         <v>306</v>
       </c>
@@ -7756,7 +7838,7 @@
       <c r="S39" s="31"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75">
+    <row r="40" spans="1:20" ht="16">
       <c r="A40" s="11" t="s">
         <v>306</v>
       </c>
@@ -7800,7 +7882,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" ht="15.75">
+    <row r="41" spans="1:20" ht="16">
       <c r="A41" s="11" t="s">
         <v>294</v>
       </c>
@@ -7856,7 +7938,7 @@
       <c r="S41" s="28"/>
       <c r="T41" s="28"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75">
+    <row r="42" spans="1:20" ht="16">
       <c r="A42" s="11" t="s">
         <v>294</v>
       </c>
@@ -7906,7 +7988,7 @@
       <c r="S42" s="28"/>
       <c r="T42" s="28"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75">
+    <row r="43" spans="1:20" ht="16">
       <c r="A43" s="11" t="s">
         <v>294</v>
       </c>
@@ -7956,7 +8038,7 @@
       <c r="S43" s="28"/>
       <c r="T43" s="28"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75">
+    <row r="44" spans="1:20" ht="16">
       <c r="A44" s="11" t="s">
         <v>294</v>
       </c>
@@ -8012,7 +8094,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75">
+    <row r="45" spans="1:20" ht="16">
       <c r="A45" s="11" t="s">
         <v>294</v>
       </c>
@@ -8068,7 +8150,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75">
+    <row r="46" spans="1:20" ht="16">
       <c r="A46" s="11" t="s">
         <v>294</v>
       </c>
@@ -8124,7 +8206,7 @@
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
     </row>
-    <row r="47" spans="1:20" ht="15.75">
+    <row r="47" spans="1:20" ht="16">
       <c r="A47" s="11" t="s">
         <v>294</v>
       </c>
@@ -8180,7 +8262,7 @@
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75">
+    <row r="48" spans="1:20" ht="16">
       <c r="A48" s="11" t="s">
         <v>294</v>
       </c>
@@ -8212,7 +8294,7 @@
       <c r="S48" s="31"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75">
+    <row r="49" spans="1:20" ht="16">
       <c r="A49" s="11" t="s">
         <v>294</v>
       </c>
@@ -8244,7 +8326,7 @@
       <c r="S49" s="31"/>
       <c r="T49" s="31"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75">
+    <row r="50" spans="1:20" ht="16">
       <c r="A50" s="11" t="s">
         <v>294</v>
       </c>
@@ -8276,7 +8358,7 @@
       <c r="S50" s="31"/>
       <c r="T50" s="31"/>
     </row>
-    <row r="51" spans="1:20" ht="15.75">
+    <row r="51" spans="1:20" ht="16">
       <c r="A51" s="11" t="s">
         <v>294</v>
       </c>
@@ -8308,7 +8390,7 @@
       <c r="S51" s="31"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" spans="1:20" ht="15.75">
+    <row r="52" spans="1:20" ht="16">
       <c r="A52" s="11" t="s">
         <v>294</v>
       </c>
@@ -8340,7 +8422,7 @@
       <c r="S52" s="31"/>
       <c r="T52" s="31"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75">
+    <row r="53" spans="1:20" ht="16">
       <c r="A53" s="11" t="s">
         <v>294</v>
       </c>
@@ -8372,7 +8454,7 @@
       <c r="S53" s="31"/>
       <c r="T53" s="31"/>
     </row>
-    <row r="54" spans="1:20" ht="15.75">
+    <row r="54" spans="1:20" ht="16">
       <c r="A54" s="11" t="s">
         <v>294</v>
       </c>
@@ -8404,7 +8486,7 @@
       <c r="S54" s="31"/>
       <c r="T54" s="31"/>
     </row>
-    <row r="55" spans="1:20" ht="15.75">
+    <row r="55" spans="1:20" ht="16">
       <c r="A55" s="11" t="s">
         <v>294</v>
       </c>
@@ -8436,7 +8518,7 @@
       <c r="S55" s="31"/>
       <c r="T55" s="31"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75">
+    <row r="56" spans="1:20" ht="16">
       <c r="A56" s="11" t="s">
         <v>294</v>
       </c>
@@ -8468,7 +8550,7 @@
       <c r="S56" s="31"/>
       <c r="T56" s="31"/>
     </row>
-    <row r="57" spans="1:20" ht="15.75">
+    <row r="57" spans="1:20" ht="16">
       <c r="A57" s="11" t="s">
         <v>294</v>
       </c>
@@ -8500,7 +8582,7 @@
       <c r="S57" s="31"/>
       <c r="T57" s="31"/>
     </row>
-    <row r="58" spans="1:20" ht="15.75">
+    <row r="58" spans="1:20" ht="16">
       <c r="A58" s="11" t="s">
         <v>294</v>
       </c>
@@ -8532,7 +8614,7 @@
       <c r="S58" s="31"/>
       <c r="T58" s="31"/>
     </row>
-    <row r="59" spans="1:20" ht="15.75">
+    <row r="59" spans="1:20" ht="16">
       <c r="A59" s="11" t="s">
         <v>294</v>
       </c>
@@ -8564,7 +8646,7 @@
       <c r="S59" s="31"/>
       <c r="T59" s="31"/>
     </row>
-    <row r="60" spans="1:20" ht="15.75">
+    <row r="60" spans="1:20" ht="16">
       <c r="A60" s="11" t="s">
         <v>294</v>
       </c>
@@ -8596,7 +8678,7 @@
       <c r="S60" s="31"/>
       <c r="T60" s="31"/>
     </row>
-    <row r="61" spans="1:20" ht="15.75">
+    <row r="61" spans="1:20" ht="16">
       <c r="A61" s="11" t="s">
         <v>294</v>
       </c>
@@ -8628,7 +8710,7 @@
       <c r="S61" s="31"/>
       <c r="T61" s="31"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75">
+    <row r="62" spans="1:20" ht="16">
       <c r="A62" s="11" t="s">
         <v>294</v>
       </c>
@@ -8660,7 +8742,7 @@
       <c r="S62" s="31"/>
       <c r="T62" s="31"/>
     </row>
-    <row r="63" spans="1:20" ht="15.75">
+    <row r="63" spans="1:20" ht="16">
       <c r="A63" s="11" t="s">
         <v>294</v>
       </c>
@@ -8710,7 +8792,7 @@
       <c r="S63" s="25"/>
       <c r="T63" s="25"/>
     </row>
-    <row r="64" spans="1:20" ht="15.75">
+    <row r="64" spans="1:20" ht="16">
       <c r="A64" s="11" t="s">
         <v>294</v>
       </c>
@@ -8742,7 +8824,7 @@
       <c r="S64" s="31"/>
       <c r="T64" s="31"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75">
+    <row r="65" spans="1:20" ht="16">
       <c r="A65" s="11" t="s">
         <v>294</v>
       </c>
@@ -8792,7 +8874,7 @@
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75">
+    <row r="66" spans="1:20" ht="16">
       <c r="A66" s="11" t="s">
         <v>294</v>
       </c>
@@ -8824,7 +8906,7 @@
       <c r="S66" s="31"/>
       <c r="T66" s="31"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75">
+    <row r="67" spans="1:20" ht="16">
       <c r="A67" s="11" t="s">
         <v>294</v>
       </c>
@@ -8856,7 +8938,7 @@
       <c r="S67" s="31"/>
       <c r="T67" s="31"/>
     </row>
-    <row r="68" spans="1:20" ht="15.75">
+    <row r="68" spans="1:20" ht="16">
       <c r="A68" s="11" t="s">
         <v>294</v>
       </c>
@@ -8888,7 +8970,7 @@
       <c r="S68" s="31"/>
       <c r="T68" s="31"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75">
+    <row r="69" spans="1:20" ht="16">
       <c r="A69" s="11" t="s">
         <v>294</v>
       </c>
@@ -8920,7 +9002,7 @@
       <c r="S69" s="31"/>
       <c r="T69" s="31"/>
     </row>
-    <row r="70" spans="1:20" ht="15.75">
+    <row r="70" spans="1:20" ht="16">
       <c r="A70" s="11" t="s">
         <v>294</v>
       </c>
@@ -8952,7 +9034,7 @@
       <c r="S70" s="31"/>
       <c r="T70" s="31"/>
     </row>
-    <row r="71" spans="1:20" ht="15.75">
+    <row r="71" spans="1:20" ht="16">
       <c r="A71" s="11" t="s">
         <v>294</v>
       </c>
@@ -8984,7 +9066,7 @@
       <c r="S71" s="31"/>
       <c r="T71" s="31"/>
     </row>
-    <row r="72" spans="1:20" ht="15.75">
+    <row r="72" spans="1:20" ht="16">
       <c r="A72" s="11" t="s">
         <v>294</v>
       </c>
@@ -9016,7 +9098,7 @@
       <c r="S72" s="31"/>
       <c r="T72" s="31"/>
     </row>
-    <row r="73" spans="1:20" ht="15.75">
+    <row r="73" spans="1:20" ht="16">
       <c r="A73" s="11" t="s">
         <v>294</v>
       </c>
@@ -9048,7 +9130,7 @@
       <c r="S73" s="31"/>
       <c r="T73" s="31"/>
     </row>
-    <row r="74" spans="1:20" ht="15.75">
+    <row r="74" spans="1:20" ht="16">
       <c r="A74" s="11" t="s">
         <v>294</v>
       </c>
@@ -9080,7 +9162,7 @@
       <c r="S74" s="31"/>
       <c r="T74" s="31"/>
     </row>
-    <row r="75" spans="1:20" ht="15.75">
+    <row r="75" spans="1:20" ht="16">
       <c r="A75" s="11" t="s">
         <v>294</v>
       </c>
@@ -9112,7 +9194,7 @@
       <c r="S75" s="31"/>
       <c r="T75" s="31"/>
     </row>
-    <row r="76" spans="1:20" ht="15.75">
+    <row r="76" spans="1:20" ht="16">
       <c r="A76" s="11" t="s">
         <v>294</v>
       </c>
@@ -9175,20 +9257,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="3" width="9.1640625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10816,27 +10898,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="17" width="9.140625" style="1" collapsed="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="17" width="9.1640625" style="1" collapsed="1"/>
+    <col min="18" max="18" width="11.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -13563,7 +13645,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R85"/>
+  <autoFilter ref="A1:R85" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -13571,16 +13653,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75">
+    <row r="1" spans="1:55" ht="16">
       <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
@@ -13868,21 +13950,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15082,16 +15164,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
@@ -15111,7 +15193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="17" t="s">
         <v>90</v>
       </c>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0547D2-B2ED-2B40-97CF-ACF59F4354D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9858751E-332F-E343-B73E-D556CA6AD338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,11 @@
     <sheet name="Authentication Policy" sheetId="19" r:id="rId15"/>
     <sheet name="Action Tagging" sheetId="17" r:id="rId16"/>
     <sheet name="OpenAPILoginSheet" sheetId="24" r:id="rId17"/>
-    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId18"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId19"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId20"/>
+    <sheet name="OpenAPIClientConfig" sheetId="25" r:id="rId18"/>
+    <sheet name="ClientConfig" sheetId="26" r:id="rId19"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId20"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId21"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AL$76</definedName>
@@ -61,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -70,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
@@ -85,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -94,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
@@ -109,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -118,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Rahul Gupta:
@@ -134,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -143,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer service category</t>
@@ -158,7 +160,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -167,7 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer segment</t>
@@ -192,7 +194,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -201,7 +203,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
@@ -216,7 +218,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -225,7 +227,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
@@ -250,7 +252,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -259,7 +261,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
@@ -274,7 +276,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -283,7 +285,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
@@ -298,7 +300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -307,7 +309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Rahul Gupta:
@@ -323,7 +325,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -332,7 +334,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer service category</t>
@@ -347,7 +349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -356,7 +358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer segment</t>
@@ -381,7 +383,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -390,7 +392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
@@ -405,7 +407,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -414,7 +416,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
@@ -429,7 +431,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -438,7 +440,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Rahul Gupta:
@@ -454,7 +456,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -463,7 +465,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer service category</t>
@@ -478,7 +480,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -487,7 +489,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer segment</t>
@@ -499,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="761">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2775,6 +2777,18 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
   </si>
 </sst>
 </file>
@@ -2895,13 +2909,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -3056,7 +3070,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3154,6 +3168,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4720,7 +4735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F35A32-01B1-8347-AF56-573B8FE4E048}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -4744,7 +4759,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="170">
       <c r="A3" s="64" t="s">
         <v>753</v>
       </c>
@@ -4752,7 +4767,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6">
+    <row r="4" spans="1:2" ht="170">
       <c r="A4" s="64" t="s">
         <v>755</v>
       </c>
@@ -4766,6 +4781,135 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873EA742-3567-7842-BD75-B10AE1CC585E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>767240995</v>
+      </c>
+      <c r="B3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9028A11A-CFB5-EA4A-85A9-3B0F82AD8F65}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="65" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="65">
+        <v>1</v>
+      </c>
+      <c r="B2" s="65">
+        <v>5</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4945,7 +5089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5066,60 +5210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9858751E-332F-E343-B73E-D556CA6AD338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FE28DF-6DBB-2243-8222-D0F4AEEA6F4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="OpenAPILoginSheet" sheetId="24" r:id="rId17"/>
     <sheet name="OpenAPIClientConfig" sheetId="25" r:id="rId18"/>
     <sheet name="ClientConfig" sheetId="26" r:id="rId19"/>
-    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId20"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId21"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId22"/>
+    <sheet name="AgentDetails" sheetId="27" r:id="rId20"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId21"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId22"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AL$76</definedName>
@@ -501,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="765">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2789,15 +2790,34 @@
   </si>
   <si>
     <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3058,117 +3078,118 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4818,7 +4839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9028A11A-CFB5-EA4A-85A9-3B0F82AD8F65}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -4910,6 +4931,42 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C055D80-F5B2-B046-B25B-F90140E6FE45}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="66" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5089,7 +5146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5210,7 +5267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FE28DF-6DBB-2243-8222-D0F4AEEA6F4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E38A662-8603-5740-A432-7F646E74C658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="775">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2786,12 +2786,6 @@
     <t>customerMsisdn</t>
   </si>
   <si>
-    <t>First Category Level</t>
-  </si>
-  <si>
-    <t>Last Category Level</t>
-  </si>
-  <si>
     <t>AgentId</t>
   </si>
   <si>
@@ -2802,6 +2796,42 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>First level Category</t>
+  </si>
+  <si>
+    <t>Last Level Category</t>
+  </si>
+  <si>
+    <t>Search able</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>userMsisdn</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>msisdn</t>
   </si>
 </sst>
 </file>
@@ -3090,7 +3120,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3190,6 +3220,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4837,10 +4868,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9028A11A-CFB5-EA4A-85A9-3B0F82AD8F65}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4850,18 +4881,33 @@
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="65" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C1" s="65" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
+      <c r="D1" s="65" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="65">
         <v>1</v>
       </c>
@@ -4869,7 +4915,92 @@
         <v>5</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>238</v>
+        <v>770</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="G2" s="65">
+        <v>731508274</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65" t="s">
+        <v>773</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="G3" s="65">
+        <v>123456789</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="65">
+        <v>1</v>
+      </c>
+      <c r="B4" s="65">
+        <v>5</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>774</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="G4" s="65">
+        <v>787298771</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65" t="s">
+        <v>773</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="G5" s="65">
+        <v>123456789</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4934,7 +5065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C055D80-F5B2-B046-B25B-F90140E6FE45}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -4942,13 +5073,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="66" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>761</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>762</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -4957,7 +5088,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E38A662-8603-5740-A432-7F646E74C658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493304D9-0A06-5941-AE17-BFA6619CA7DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4536,7 +4536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -4870,7 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9028A11A-CFB5-EA4A-85A9-3B0F82AD8F65}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493304D9-0A06-5941-AE17-BFA6619CA7DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7029FF8B-67F1-8746-83CF-4C0B14B06C0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="778">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2832,13 +2832,22 @@
   </si>
   <si>
     <t>msisdn</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2978,6 +2987,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3120,7 +3135,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3221,6 +3236,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4436,8 +4460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -4526,6 +4550,9 @@
       <c r="I2" s="40" t="s">
         <v>527</v>
       </c>
+      <c r="J2" s="70" t="s">
+        <v>777</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4536,7 +4563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -5099,10 +5126,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5271,6 +5298,15 @@
       <c r="C15" s="52" t="s">
         <v>671</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="51">
+      <c r="A16" s="68" t="s">
+        <v>775</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>776</v>
+      </c>
+      <c r="C16" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7029FF8B-67F1-8746-83CF-4C0B14B06C0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F84BF-5254-064B-BDA1-8A2E04CA147A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="779">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2134,19 +2134,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -2841,13 +2829,28 @@
   </si>
   <si>
     <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Balance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2994,6 +2997,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3039,7 +3049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3120,6 +3130,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3135,7 +3158,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3245,6 +3268,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3885,10 +3911,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17">
@@ -3896,25 +3922,25 @@
         <v>2388008</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
         <v>462</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3922,7 +3948,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C3" t="s">
         <v>463</v>
@@ -3941,17 +3967,17 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C4" t="s">
         <v>464</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O4" s="31"/>
       <c r="P4" s="31" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="Q4" s="31"/>
     </row>
@@ -3960,7 +3986,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C5" t="s">
         <v>465</v>
@@ -3970,7 +3996,7 @@
       </c>
       <c r="O5" s="31"/>
       <c r="P5" s="31" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="Q5" s="31"/>
     </row>
@@ -4171,10 +4197,10 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="58" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -4213,7 +4239,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
@@ -4230,7 +4256,7 @@
         <v>787298771</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -4247,7 +4273,7 @@
         <v>787298771</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
@@ -4264,7 +4290,7 @@
         <v>787298771</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -4460,7 +4486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4551,7 +4577,7 @@
         <v>527</v>
       </c>
       <c r="J2" s="70" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -4600,13 +4626,13 @@
         <v>490</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4625,7 +4651,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="48" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -4634,10 +4660,10 @@
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
       <c r="H3" s="48" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J3" s="48" t="b">
         <v>0</v>
@@ -4646,7 +4672,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="48" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -4662,7 +4688,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="48" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -4678,7 +4704,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="48" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -4694,7 +4720,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="48" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -4710,7 +4736,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="48" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -4726,7 +4752,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="48" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -4742,7 +4768,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="48" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -4758,7 +4784,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="48" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -4774,7 +4800,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="48" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -4790,7 +4816,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="48" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -4826,32 +4852,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="64" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="64"/>
       <c r="B2" s="64" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="170">
       <c r="A3" s="64" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="170">
       <c r="A4" s="64" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -4874,10 +4900,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4885,7 +4911,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -4910,28 +4936,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16">
       <c r="A1" s="65" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>761</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1" s="65" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="G1" s="65" t="s">
         <v>764</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>757</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="H1" s="65" t="s">
         <v>765</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>766</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>767</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>768</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -4942,38 +4968,38 @@
         <v>5</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G2" s="65">
         <v>731508274</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
       <c r="A3" s="65"/>
       <c r="B3" s="65"/>
       <c r="C3" s="65" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G3" s="65">
         <v>123456789</v>
@@ -4990,38 +5016,38 @@
         <v>5</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G4" s="65">
         <v>787298771</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G5" s="65">
         <v>123456789</v>
@@ -5100,13 +5126,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="66" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5115,7 +5141,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -5142,169 +5168,169 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="52" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="52" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51">
       <c r="A3" s="52" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="52" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="52" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="52" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C6" s="54"/>
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="52" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="52" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51">
       <c r="A9" s="52" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51">
       <c r="A10" s="52" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51">
       <c r="A11" s="52" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="52" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="52" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C13" s="54"/>
     </row>
     <row r="14" spans="1:3" ht="34">
       <c r="A14" s="52" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="34">
       <c r="A15" s="52" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="51">
       <c r="A16" s="68" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C16" s="69"/>
     </row>
@@ -5457,7 +5483,7 @@
         <v>482</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5503,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5515,7 +5541,7 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.83203125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1" collapsed="1"/>
@@ -5551,16 +5577,16 @@
         <v>24</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16">
@@ -5607,7 +5633,7 @@
         <v>438</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
@@ -5622,7 +5648,7 @@
         <v>439</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>437</v>
@@ -5631,7 +5657,7 @@
         <v>440</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F4" s="58" t="s">
         <v>434</v>
@@ -5670,7 +5696,7 @@
         <v>446</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J5" s="58"/>
       <c r="K5" s="58"/>
@@ -5789,7 +5815,7 @@
         <v>538</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>539</v>
@@ -5812,22 +5838,24 @@
       <c r="A11" s="42" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="71" t="s">
+        <v>774</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>776</v>
+      </c>
+      <c r="E11" s="71" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>544</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>545</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>546</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>547</v>
-      </c>
-      <c r="G11" s="58"/>
+      <c r="F11" s="72" t="s">
+        <v>777</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>778</v>
+      </c>
       <c r="H11" s="58"/>
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
@@ -5837,28 +5865,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>546</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>548</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="F12" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="G12" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="H12" s="58" t="s">
         <v>551</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>552</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>553</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>555</v>
       </c>
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
@@ -5868,19 +5896,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="58" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>401</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
@@ -5893,10 +5921,10 @@
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" s="42" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>437</v>
@@ -5905,22 +5933,22 @@
         <v>440</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>434</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>459</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>446</v>
@@ -5930,7 +5958,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="42" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>26</v>
@@ -5942,13 +5970,13 @@
         <v>438</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G15" s="58" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H15" s="58" t="s">
         <v>440</v>
@@ -5961,16 +5989,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="42" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>484</v>
@@ -5986,19 +6014,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>578</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>579</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>580</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>581</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>582</v>
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="58"/>
@@ -6011,19 +6039,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F18" s="58" t="s">
         <v>484</v>
@@ -6038,66 +6066,66 @@
     </row>
     <row r="19" spans="1:13" ht="32">
       <c r="A19" s="42" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>432</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H19" s="42" t="s">
         <v>433</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L19" s="42" t="s">
         <v>434</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="42" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>437</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
@@ -6108,34 +6136,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="58" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F21" s="58" t="s">
         <v>459</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
@@ -6143,22 +6171,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="58" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E22" s="58" t="s">
         <v>459</v>
       </c>
       <c r="F22" s="58" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>484</v>
@@ -6172,19 +6200,19 @@
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>727</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>728</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>729</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>730</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>731</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>49</v>
@@ -6199,10 +6227,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="42" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>26</v>
@@ -6211,16 +6239,16 @@
         <v>434</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
@@ -6230,40 +6258,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="42" t="s">
+        <v>734</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>735</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>736</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>737</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="F25" s="42" t="s">
         <v>739</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="G25" s="42" t="s">
         <v>740</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="H25" s="42" t="s">
         <v>741</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="I25" s="42" t="s">
         <v>742</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="J25" s="42" t="s">
         <v>743</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="K25" s="42" t="s">
         <v>744</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="L25" s="42" t="s">
         <v>745</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>746</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>747</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>748</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>749</v>
       </c>
       <c r="M25" s="58"/>
     </row>
@@ -6364,16 +6392,16 @@
         <v>32</v>
       </c>
       <c r="AA1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AB1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -6382,7 +6410,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -6391,7 +6419,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -6400,7 +6428,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -6409,7 +6437,7 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AQ1" t="s">
         <v>461</v>
@@ -6418,7 +6446,7 @@
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="AT1" t="s">
         <v>529</v>
@@ -6427,28 +6455,28 @@
         <v>32</v>
       </c>
       <c r="AV1" t="s">
+        <v>690</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AX1" t="s">
         <v>694</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>695</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>697</v>
+      </c>
+      <c r="BC1" t="s">
         <v>698</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>699</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>696</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>700</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>701</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="16">
@@ -9590,16 +9618,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>43</v>
@@ -9608,10 +9636,10 @@
         <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11186,15 +11214,15 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>234</v>
@@ -11238,28 +11266,28 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="D1" s="58" t="s">
         <v>694</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="58" t="s">
         <v>695</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>698</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>699</v>
-      </c>
       <c r="F1" s="58" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1" s="58" t="s">
         <v>696</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>700</v>
-      </c>
       <c r="H1" s="58" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>41</v>
@@ -11289,7 +11317,7 @@
         <v>536</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -13531,16 +13559,16 @@
         <v>0</v>
       </c>
       <c r="C77" s="62" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E77" s="62" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F77" s="62" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G77" s="62"/>
       <c r="H77" s="62" t="s">
@@ -13576,16 +13604,16 @@
         <v>0</v>
       </c>
       <c r="C78" s="62" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D78" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E78" s="62" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F78" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G78" s="62"/>
       <c r="H78" s="62" t="s">
@@ -13621,16 +13649,16 @@
         <v>1</v>
       </c>
       <c r="C79" s="62" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D79" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E79" s="62" t="s">
+        <v>708</v>
+      </c>
+      <c r="F79" s="62" t="s">
         <v>712</v>
-      </c>
-      <c r="F79" s="62" t="s">
-        <v>716</v>
       </c>
       <c r="G79" s="62"/>
       <c r="H79" s="62" t="s">
@@ -13666,16 +13694,16 @@
         <v>1</v>
       </c>
       <c r="C80" s="62" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D80" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E80" s="62" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F80" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G80" s="62"/>
       <c r="H80" s="62" t="s">
@@ -13711,16 +13739,16 @@
         <v>0</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D81" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E81" s="62" t="s">
+        <v>708</v>
+      </c>
+      <c r="F81" s="62" t="s">
         <v>712</v>
-      </c>
-      <c r="F81" s="62" t="s">
-        <v>716</v>
       </c>
       <c r="G81" s="62"/>
       <c r="H81" s="62" t="s">
@@ -13756,16 +13784,16 @@
         <v>0</v>
       </c>
       <c r="C82" s="62" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D82" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E82" s="62" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F82" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G82" s="62"/>
       <c r="H82" s="62" t="s">
@@ -13801,16 +13829,16 @@
         <v>1</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D83" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E83" s="62" t="s">
+        <v>708</v>
+      </c>
+      <c r="F83" s="62" t="s">
         <v>712</v>
-      </c>
-      <c r="F83" s="62" t="s">
-        <v>716</v>
       </c>
       <c r="G83" s="62"/>
       <c r="H83" s="62" t="s">
@@ -13846,16 +13874,16 @@
         <v>1</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D84" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E84" s="62" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F84" s="62" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G84" s="62"/>
       <c r="H84" s="62" t="s">
@@ -13891,16 +13919,16 @@
         <v>0</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11" t="s">
@@ -13930,7 +13958,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="62" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -13940,7 +13968,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="J86" s="11">
         <v>0.66</v>
@@ -14057,16 +14085,16 @@
         <v>32</v>
       </c>
       <c r="AA1" s="58" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AB1" s="58" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AC1" s="61" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="61" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AE1" s="61" t="s">
         <v>34</v>
@@ -14075,7 +14103,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="61" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AH1" s="61" t="s">
         <v>36</v>
@@ -14084,7 +14112,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="58" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AK1" s="58" t="s">
         <v>38</v>
@@ -14093,7 +14121,7 @@
         <v>32</v>
       </c>
       <c r="AM1" s="58" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AN1" s="58" t="s">
         <v>40</v>
@@ -14102,7 +14130,7 @@
         <v>32</v>
       </c>
       <c r="AP1" s="58" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AQ1" s="58" t="s">
         <v>461</v>
@@ -14111,7 +14139,7 @@
         <v>32</v>
       </c>
       <c r="AS1" s="58" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="AT1" s="58" t="s">
         <v>529</v>
@@ -14120,28 +14148,28 @@
         <v>32</v>
       </c>
       <c r="AV1" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="AW1" s="58" t="s">
+        <v>691</v>
+      </c>
+      <c r="AX1" s="58" t="s">
         <v>694</v>
       </c>
-      <c r="AW1" s="58" t="s">
+      <c r="AY1" s="58" t="s">
         <v>695</v>
       </c>
-      <c r="AX1" s="58" t="s">
+      <c r="AZ1" s="58" t="s">
+        <v>692</v>
+      </c>
+      <c r="BA1" s="58" t="s">
+        <v>696</v>
+      </c>
+      <c r="BB1" s="58" t="s">
+        <v>697</v>
+      </c>
+      <c r="BC1" s="58" t="s">
         <v>698</v>
-      </c>
-      <c r="AY1" s="58" t="s">
-        <v>699</v>
-      </c>
-      <c r="AZ1" s="58" t="s">
-        <v>696</v>
-      </c>
-      <c r="BA1" s="58" t="s">
-        <v>700</v>
-      </c>
-      <c r="BB1" s="58" t="s">
-        <v>701</v>
-      </c>
-      <c r="BC1" s="58" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -14161,7 +14189,7 @@
         <v>244</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>400</v>
@@ -14170,7 +14198,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>400</v>
@@ -14179,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="58" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>400</v>
@@ -14188,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>400</v>
@@ -14197,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>400</v>
@@ -14233,28 +14261,28 @@
       <c r="AT2" s="58"/>
       <c r="AU2" s="58"/>
       <c r="AV2" s="58" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="AW2" s="58" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AX2" s="58" t="s">
         <v>209</v>
       </c>
       <c r="AY2" s="58" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="AZ2" s="58" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="BA2" s="58" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="BB2" s="58" t="s">
         <v>62</v>
       </c>
       <c r="BC2" s="58" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F84BF-5254-064B-BDA1-8A2E04CA147A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA308677-F950-D149-916F-3A6672733BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="3980" windowWidth="30720" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AL$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SLA Configuration'!$A$1:$R$85</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -502,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="777">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2621,12 +2631,6 @@
     <t>Rule Priority</t>
   </si>
   <si>
-    <t>Customer Location - Region</t>
-  </si>
-  <si>
-    <t>Customer Location - District</t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
@@ -2648,15 +2652,6 @@
     <t>Any</t>
   </si>
   <si>
-    <t>Customer Number</t>
-  </si>
-  <si>
-    <t>Decorder Number</t>
-  </si>
-  <si>
-    <t>Amount Sent</t>
-  </si>
-  <si>
     <t>290721013813</t>
   </si>
   <si>
@@ -2844,15 +2839,31 @@
   </si>
   <si>
     <t xml:space="preserve">Remaining Balance </t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3004,6 +3015,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3146,120 +3163,120 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3268,9 +3285,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3917,7 +3936,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17">
+    <row r="2" spans="1:17" ht="16">
       <c r="A2" s="31">
         <v>2388008</v>
       </c>
@@ -3962,7 +3981,7 @@
       </c>
       <c r="Q3" s="31"/>
     </row>
-    <row r="4" spans="1:17" ht="17">
+    <row r="4" spans="1:17" ht="16">
       <c r="A4" s="31">
         <v>2390932</v>
       </c>
@@ -4197,10 +4216,10 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="58" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -4577,7 +4596,7 @@
         <v>527</v>
       </c>
       <c r="J2" s="70" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -4852,32 +4871,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="64" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="64"/>
       <c r="B2" s="64" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="170">
       <c r="A3" s="64" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="170">
       <c r="A4" s="64" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -4903,7 +4922,7 @@
         <v>576</v>
       </c>
       <c r="B1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4911,7 +4930,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -4936,28 +4955,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16">
       <c r="A1" s="65" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>755</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>757</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>758</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>759</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="H1" s="65" t="s">
         <v>760</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>753</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>761</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>762</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>763</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>764</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -4968,38 +4987,38 @@
         <v>5</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G2" s="65">
         <v>731508274</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
       <c r="A3" s="65"/>
       <c r="B3" s="65"/>
       <c r="C3" s="65" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G3" s="65">
         <v>123456789</v>
@@ -5016,38 +5035,38 @@
         <v>5</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G4" s="65">
         <v>787298771</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G5" s="65">
         <v>123456789</v>
@@ -5126,13 +5145,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="66" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5141,7 +5160,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -5327,10 +5346,10 @@
     </row>
     <row r="16" spans="1:3" ht="51">
       <c r="A16" s="68" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C16" s="69"/>
     </row>
@@ -5529,7 +5548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
@@ -5839,22 +5858,22 @@
         <v>542</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E11" s="71" t="s">
         <v>543</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H11" s="58"/>
       <c r="I11" s="58"/>
@@ -6200,19 +6219,19 @@
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="63" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>49</v>
@@ -6227,10 +6246,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="42" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>26</v>
@@ -6239,16 +6258,16 @@
         <v>434</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
@@ -6258,40 +6277,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>730</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>733</v>
+      </c>
+      <c r="F25" s="42" t="s">
         <v>734</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="G25" s="42" t="s">
         <v>735</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="H25" s="42" t="s">
         <v>736</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="I25" s="42" t="s">
         <v>737</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="J25" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="K25" s="42" t="s">
         <v>739</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="L25" s="42" t="s">
         <v>740</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>741</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>742</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>743</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>744</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>745</v>
       </c>
       <c r="M25" s="58"/>
     </row>
@@ -11214,15 +11233,15 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>234</v>
@@ -13559,16 +13578,16 @@
         <v>0</v>
       </c>
       <c r="C77" s="62" t="s">
+        <v>708</v>
+      </c>
+      <c r="D77" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="D77" s="62" t="s">
-        <v>712</v>
-      </c>
       <c r="E77" s="62" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F77" s="62" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G77" s="62"/>
       <c r="H77" s="62" t="s">
@@ -13604,16 +13623,16 @@
         <v>0</v>
       </c>
       <c r="C78" s="62" t="s">
+        <v>708</v>
+      </c>
+      <c r="D78" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="D78" s="62" t="s">
-        <v>712</v>
-      </c>
       <c r="E78" s="62" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F78" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G78" s="62"/>
       <c r="H78" s="62" t="s">
@@ -13649,16 +13668,16 @@
         <v>1</v>
       </c>
       <c r="C79" s="62" t="s">
+        <v>708</v>
+      </c>
+      <c r="D79" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="D79" s="62" t="s">
-        <v>712</v>
-      </c>
       <c r="E79" s="62" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F79" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G79" s="62"/>
       <c r="H79" s="62" t="s">
@@ -13694,16 +13713,16 @@
         <v>1</v>
       </c>
       <c r="C80" s="62" t="s">
+        <v>708</v>
+      </c>
+      <c r="D80" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="D80" s="62" t="s">
-        <v>712</v>
-      </c>
       <c r="E80" s="62" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F80" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G80" s="62"/>
       <c r="H80" s="62" t="s">
@@ -13739,16 +13758,16 @@
         <v>0</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D81" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E81" s="62" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F81" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G81" s="62"/>
       <c r="H81" s="62" t="s">
@@ -13784,16 +13803,16 @@
         <v>0</v>
       </c>
       <c r="C82" s="62" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D82" s="62" t="s">
+        <v>710</v>
+      </c>
+      <c r="E82" s="62" t="s">
         <v>712</v>
       </c>
-      <c r="E82" s="62" t="s">
-        <v>717</v>
-      </c>
       <c r="F82" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G82" s="62"/>
       <c r="H82" s="62" t="s">
@@ -13829,16 +13848,16 @@
         <v>1</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D83" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E83" s="62" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F83" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G83" s="62"/>
       <c r="H83" s="62" t="s">
@@ -13874,16 +13893,16 @@
         <v>1</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D84" s="62" t="s">
+        <v>710</v>
+      </c>
+      <c r="E84" s="62" t="s">
         <v>712</v>
       </c>
-      <c r="E84" s="62" t="s">
-        <v>717</v>
-      </c>
       <c r="F84" s="62" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G84" s="62"/>
       <c r="H84" s="62" t="s">
@@ -13919,16 +13938,16 @@
         <v>0</v>
       </c>
       <c r="C85" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>712</v>
-      </c>
       <c r="E85" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11" t="s">
@@ -13958,7 +13977,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="62" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -13968,7 +13987,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="11" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="J86" s="11">
         <v>0.66</v>
@@ -13999,8 +14018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14172,67 +14191,37 @@
         <v>698</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
-      <c r="A2" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="H2" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>705</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="K2" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>713</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="N2" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>714</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q2" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>715</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="T2" s="21" t="b">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:55" ht="18">
+      <c r="A2" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>776</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>716</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="58"/>
       <c r="V2" s="58"/>
       <c r="W2" s="58"/>
@@ -14261,28 +14250,28 @@
       <c r="AT2" s="58"/>
       <c r="AU2" s="58"/>
       <c r="AV2" s="58" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AW2" s="58" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AX2" s="58" t="s">
         <v>209</v>
       </c>
       <c r="AY2" s="58" t="s">
+        <v>706</v>
+      </c>
+      <c r="AZ2" s="58" t="s">
+        <v>707</v>
+      </c>
+      <c r="BA2" s="58" t="s">
         <v>708</v>
-      </c>
-      <c r="AZ2" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="BA2" s="58" t="s">
-        <v>710</v>
       </c>
       <c r="BB2" s="58" t="s">
         <v>62</v>
       </c>
       <c r="BC2" s="58" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TZ.xlsx
+++ b/resources/excels/TZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA308677-F950-D149-916F-3A6672733BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FE0961-06B2-5545-B97E-E335EDE1E246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="3980" windowWidth="30720" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="3260" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="774">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2815,15 +2815,6 @@
   </si>
   <si>
     <t>msisdn</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
   </si>
   <si>
     <t>Loan ID</t>
@@ -2854,7 +2845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3001,12 +2992,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3175,7 +3160,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3276,20 +3261,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4595,9 +4574,7 @@
       <c r="I2" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="J2" s="70" t="s">
-        <v>768</v>
-      </c>
+      <c r="J2" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4609,7 +4586,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -4814,7 +4791,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5171,10 +5148,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5343,15 +5320,6 @@
       <c r="C15" s="52" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="51">
-      <c r="A16" s="68" t="s">
-        <v>766</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>767</v>
-      </c>
-      <c r="C16" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5857,23 +5825,23 @@
       <c r="A11" s="42" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="69" t="s">
+        <v>766</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>767</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>768</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="F11" s="70" t="s">
         <v>769</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="G11" s="70" t="s">
         <v>770</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>771</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>543</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>772</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>773</v>
       </c>
       <c r="H11" s="58"/>
       <c r="I11" s="58"/>
@@ -14018,7 +13986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
@@ -14192,19 +14160,19 @@
       </c>
     </row>
     <row r="2" spans="1:55" ht="18">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>774</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>775</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>776</v>
-      </c>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="72" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>772</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="E2" s="73" t="s">
         <v>716</v>
       </c>
       <c r="F2" s="21"/>
